--- a/working/工作日志.杨炜.3月份.xlsx
+++ b/working/工作日志.杨炜.3月份.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28710" windowHeight="13050" activeTab="3"/>
+    <workbookView windowWidth="28710" windowHeight="13050" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="周计划" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154">
   <si>
     <t>下周计划</t>
   </si>
@@ -488,6 +488,12 @@
   </si>
   <si>
     <t>等待获取效果图</t>
+  </si>
+  <si>
+    <t>27日工作日志（周五）</t>
+  </si>
+  <si>
+    <t>30日工作计划（周一）</t>
   </si>
   <si>
     <t>日工作日志（周）</t>
@@ -590,7 +596,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -617,10 +623,77 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -630,23 +703,10 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -673,7 +733,33 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -693,21 +779,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -857,11 +928,13 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -870,11 +943,45 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -913,155 +1020,194 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1079,10 +1225,10 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1455,188 +1601,188 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="4.625" style="50" customWidth="1"/>
-    <col min="2" max="2" width="32.125" style="50" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="50" customWidth="1"/>
-    <col min="4" max="5" width="9" style="50"/>
-    <col min="6" max="6" width="15.625" style="50" customWidth="1"/>
-    <col min="7" max="7" width="16.875" style="50" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="50"/>
+    <col min="1" max="1" width="4.625" style="63" customWidth="1"/>
+    <col min="2" max="2" width="32.125" style="63" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="63" customWidth="1"/>
+    <col min="4" max="5" width="9" style="63"/>
+    <col min="6" max="6" width="15.625" style="63" customWidth="1"/>
+    <col min="7" max="7" width="16.875" style="63" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="63"/>
   </cols>
   <sheetData>
     <row r="1" ht="21.75" customHeight="1" spans="1:7">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
     </row>
     <row r="2" ht="33" customHeight="1" spans="1:7">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
     </row>
     <row r="3" ht="16.5" spans="1:7">
-      <c r="A3" s="58"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="60" t="s">
+      <c r="A3" s="71"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="60" t="s">
+      <c r="D3" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="60" t="s">
+      <c r="E3" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="60" t="s">
+      <c r="F3" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="60" t="s">
+      <c r="G3" s="73" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:7">
-      <c r="A4" s="61">
+      <c r="A4" s="74">
         <v>1</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
     </row>
     <row r="5" ht="16.5" spans="1:7">
-      <c r="A5" s="61">
+      <c r="A5" s="74">
         <v>2</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="61"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
     </row>
     <row r="6" ht="16.5" spans="1:7">
-      <c r="A6" s="61">
+      <c r="A6" s="74">
         <v>3</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
     </row>
     <row r="7" ht="16.5" spans="1:7">
-      <c r="A7" s="61">
+      <c r="A7" s="74">
         <v>4</v>
       </c>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
     </row>
     <row r="8" ht="16.5" spans="1:7">
-      <c r="A8" s="61"/>
-      <c r="B8" s="61" t="s">
+      <c r="A8" s="74"/>
+      <c r="B8" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="61"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="75"/>
     </row>
     <row r="9" ht="16.5" spans="1:7">
-      <c r="A9" s="61"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
+      <c r="A9" s="74"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
     </row>
     <row r="10" ht="16.5" spans="1:7">
-      <c r="A10" s="61"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
+      <c r="A10" s="74"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
     </row>
     <row r="11" ht="16.5" spans="1:7">
-      <c r="A11" s="61"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
+      <c r="A11" s="74"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="75"/>
     </row>
     <row r="12" ht="16.5" spans="1:7">
-      <c r="A12" s="61"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
+      <c r="A12" s="74"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="75"/>
     </row>
     <row r="13" ht="16.5" spans="1:7">
-      <c r="A13" s="61"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
+      <c r="A13" s="74"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
     </row>
     <row r="14" ht="16.5" spans="1:7">
-      <c r="A14" s="61"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
+      <c r="A14" s="74"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
     </row>
     <row r="15" ht="16.5" spans="1:7">
-      <c r="A15" s="61"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
+      <c r="A15" s="74"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="63" t="s">
+      <c r="B17" s="76" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1664,197 +1810,197 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="19.125" style="50" customWidth="1"/>
+    <col min="2" max="2" width="19.125" style="63" customWidth="1"/>
     <col min="3" max="3" width="47.25" customWidth="1"/>
-    <col min="4" max="4" width="21" style="50" customWidth="1"/>
+    <col min="4" max="4" width="21" style="63" customWidth="1"/>
     <col min="5" max="5" width="6.75" customWidth="1"/>
     <col min="7" max="7" width="35.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" spans="1:7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="1" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="1"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" ht="21.75" spans="1:7">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" ht="28.5" spans="1:7">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11">
+      <c r="E3" s="21"/>
+      <c r="F3" s="44">
         <v>1</v>
       </c>
-      <c r="G3" s="9"/>
+      <c r="G3" s="43"/>
     </row>
     <row r="4" ht="28.5" spans="1:7">
-      <c r="A4" s="12"/>
-      <c r="B4" s="51" t="s">
+      <c r="A4" s="18"/>
+      <c r="B4" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="16">
+      <c r="E4" s="21"/>
+      <c r="F4" s="45">
         <v>2</v>
       </c>
-      <c r="G4" s="15"/>
+      <c r="G4" s="20"/>
     </row>
     <row r="5" ht="42.75" spans="1:7">
-      <c r="A5" s="12"/>
-      <c r="B5" s="51" t="s">
+      <c r="A5" s="18"/>
+      <c r="B5" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="D5" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="16">
+      <c r="E5" s="21"/>
+      <c r="F5" s="45">
         <v>3</v>
       </c>
-      <c r="G5" s="15"/>
+      <c r="G5" s="20"/>
     </row>
     <row r="6" ht="17.25" spans="1:7">
-      <c r="A6" s="17"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="16">
+      <c r="A6" s="24"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="45">
         <v>4</v>
       </c>
-      <c r="G6" s="15"/>
+      <c r="G6" s="20"/>
     </row>
     <row r="7" ht="17.25" spans="1:7">
-      <c r="A7" s="21"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="16">
+      <c r="A7" s="28"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="45">
         <v>5</v>
       </c>
-      <c r="G7" s="15"/>
+      <c r="G7" s="20"/>
     </row>
     <row r="8" ht="16.5" spans="1:7">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="16">
+      <c r="D8" s="20"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="45">
         <v>6</v>
       </c>
-      <c r="G8" s="15"/>
+      <c r="G8" s="20"/>
     </row>
     <row r="9" ht="28.5" spans="1:7">
-      <c r="A9" s="12"/>
-      <c r="B9" s="51" t="s">
+      <c r="A9" s="18"/>
+      <c r="B9" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="52" t="s">
+      <c r="C9" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="51" t="s">
+      <c r="D9" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="16">
+      <c r="E9" s="21"/>
+      <c r="F9" s="45">
         <v>7</v>
       </c>
-      <c r="G9" s="15"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" ht="16.5" spans="1:7">
-      <c r="A10" s="12"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="16">
+      <c r="C10" s="19"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="45">
         <v>8</v>
       </c>
-      <c r="G10" s="15"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" ht="16.5" spans="1:7">
-      <c r="A11" s="12"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="16">
+      <c r="C11" s="19"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="45">
         <v>9</v>
       </c>
-      <c r="G11" s="15"/>
+      <c r="G11" s="20"/>
     </row>
     <row r="12" ht="17.25" spans="1:7">
-      <c r="A12" s="17"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="29">
+      <c r="A12" s="24"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="47">
         <v>10</v>
       </c>
-      <c r="G12" s="28"/>
+      <c r="G12" s="35"/>
     </row>
     <row r="13" ht="17.25" spans="1:7">
-      <c r="A13" s="30"/>
-      <c r="B13" s="55" t="s">
+      <c r="A13" s="38"/>
+      <c r="B13" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="33"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1889,981 +2035,981 @@
   </cols>
   <sheetData>
     <row r="1" ht="18" spans="1:7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="1" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="1"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" ht="21.75" spans="1:7">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" ht="82.5" spans="1:7">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11">
+      <c r="E3" s="21"/>
+      <c r="F3" s="44">
         <v>1</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="43" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:7">
-      <c r="A4" s="12"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="16">
+      <c r="C4" s="19"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="45">
         <v>2</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="20" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:7">
-      <c r="A5" s="12"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="13"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="16">
+      <c r="C5" s="19"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="45">
         <v>3</v>
       </c>
-      <c r="G5" s="15"/>
+      <c r="G5" s="20"/>
     </row>
     <row r="6" ht="17.25" spans="1:7">
-      <c r="A6" s="17"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="16">
+      <c r="A6" s="24"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="45">
         <v>4</v>
       </c>
-      <c r="G6" s="15"/>
+      <c r="G6" s="20"/>
     </row>
     <row r="7" ht="17.25" spans="1:7">
-      <c r="A7" s="21"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="16">
+      <c r="A7" s="28"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="45">
         <v>5</v>
       </c>
-      <c r="G7" s="15"/>
+      <c r="G7" s="20"/>
     </row>
     <row r="8" ht="33" spans="1:7">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="16">
+      <c r="E8" s="21"/>
+      <c r="F8" s="45">
         <v>6</v>
       </c>
-      <c r="G8" s="15"/>
+      <c r="G8" s="20"/>
     </row>
     <row r="9" ht="33" spans="1:7">
-      <c r="A9" s="12"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="16">
+      <c r="E9" s="21"/>
+      <c r="F9" s="45">
         <v>7</v>
       </c>
-      <c r="G9" s="15"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" ht="16.5" spans="1:7">
-      <c r="A10" s="12"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="16">
+      <c r="E10" s="21"/>
+      <c r="F10" s="45">
         <v>8</v>
       </c>
-      <c r="G10" s="15"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" ht="16.5" spans="1:7">
-      <c r="A11" s="12"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="16">
+      <c r="E11" s="21"/>
+      <c r="F11" s="45">
         <v>9</v>
       </c>
-      <c r="G11" s="15"/>
+      <c r="G11" s="20"/>
     </row>
     <row r="12" ht="17.25" spans="1:7">
-      <c r="A12" s="17"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="29">
+      <c r="A12" s="24"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="47">
         <v>10</v>
       </c>
-      <c r="G12" s="28"/>
+      <c r="G12" s="35"/>
     </row>
     <row r="13" ht="17.25" spans="1:7">
-      <c r="A13" s="30"/>
-      <c r="B13" s="31" t="s">
+      <c r="A13" s="38"/>
+      <c r="B13" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="33"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="48"/>
     </row>
     <row r="15" ht="18" spans="1:7">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="1" t="s">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G15" s="1"/>
+      <c r="G15" s="2"/>
     </row>
     <row r="16" ht="21.75" spans="1:7">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4" t="s">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="3" t="s">
+      <c r="E16" s="8"/>
+      <c r="F16" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="17" ht="33" spans="1:7">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="46" t="s">
+      <c r="C17" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="11">
+      <c r="D17" s="43"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="44">
         <v>1</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="43" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="18" ht="33" spans="1:7">
-      <c r="A18" s="12"/>
-      <c r="B18" s="47" t="s">
+      <c r="A18" s="18"/>
+      <c r="B18" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="48" t="s">
+      <c r="C18" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="16">
+      <c r="E18" s="21"/>
+      <c r="F18" s="45">
         <v>2</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="G18" s="20" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="19" ht="16.5" spans="1:7">
-      <c r="A19" s="12"/>
+      <c r="A19" s="18"/>
       <c r="B19" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="16">
+      <c r="D19" s="20"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="45">
         <v>3</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="G19" s="20" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="20" ht="17.25" spans="1:7">
-      <c r="A20" s="17"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="16">
+      <c r="A20" s="24"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="45">
         <v>4</v>
       </c>
-      <c r="G20" s="15" t="s">
+      <c r="G20" s="20" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="21" ht="17.25" spans="1:7">
-      <c r="A21" s="21"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="16">
+      <c r="A21" s="28"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="45">
         <v>5</v>
       </c>
-      <c r="G21" s="15"/>
+      <c r="G21" s="20"/>
     </row>
     <row r="22" ht="33" spans="1:7">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="16">
+      <c r="D22" s="20"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="45">
         <v>6</v>
       </c>
-      <c r="G22" s="15"/>
+      <c r="G22" s="20"/>
     </row>
     <row r="23" ht="16.5" spans="1:7">
-      <c r="A23" s="12"/>
+      <c r="A23" s="18"/>
       <c r="B23" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="16">
+      <c r="D23" s="20"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="45">
         <v>7</v>
       </c>
-      <c r="G23" s="15"/>
+      <c r="G23" s="20"/>
     </row>
     <row r="24" ht="16.5" spans="1:7">
-      <c r="A24" s="12"/>
+      <c r="A24" s="18"/>
       <c r="B24" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="16">
+      <c r="D24" s="20"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="45">
         <v>8</v>
       </c>
-      <c r="G24" s="15"/>
+      <c r="G24" s="20"/>
     </row>
     <row r="25" ht="16.5" spans="1:7">
-      <c r="A25" s="12"/>
+      <c r="A25" s="18"/>
       <c r="B25" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="D25" s="15"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="16">
+      <c r="D25" s="20"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="45">
         <v>9</v>
       </c>
-      <c r="G25" s="15"/>
+      <c r="G25" s="20"/>
     </row>
     <row r="26" ht="17.25" spans="1:7">
-      <c r="A26" s="17"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="29">
+      <c r="A26" s="24"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="47">
         <v>10</v>
       </c>
-      <c r="G26" s="28"/>
+      <c r="G26" s="35"/>
     </row>
     <row r="27" ht="17.25" spans="1:7">
-      <c r="A27" s="30"/>
-      <c r="B27" s="31" t="s">
+      <c r="A27" s="38"/>
+      <c r="B27" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="33"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="48"/>
     </row>
     <row r="29" ht="18" spans="1:7">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="1" t="s">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="G29" s="1"/>
+      <c r="G29" s="2"/>
     </row>
     <row r="30" ht="21.75" spans="1:7">
-      <c r="A30" s="3"/>
-      <c r="B30" s="4" t="s">
+      <c r="A30" s="6"/>
+      <c r="B30" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="3" t="s">
+      <c r="E30" s="8"/>
+      <c r="F30" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="G30" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="31" ht="16.5" spans="1:7">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B31" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="11">
+      <c r="D31" s="43"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="44">
         <v>1</v>
       </c>
-      <c r="G31" s="45" t="s">
+      <c r="G31" s="58" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="32" ht="16.5" spans="1:7">
-      <c r="A32" s="12"/>
-      <c r="B32" s="15" t="s">
+      <c r="A32" s="18"/>
+      <c r="B32" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="D32" s="15"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="16">
+      <c r="D32" s="20"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="45">
         <v>2</v>
       </c>
-      <c r="G32" s="15" t="s">
+      <c r="G32" s="20" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="33" ht="16.5" spans="1:7">
-      <c r="A33" s="12"/>
-      <c r="B33" s="15" t="s">
+      <c r="A33" s="18"/>
+      <c r="B33" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="D33" s="15"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="16">
+      <c r="D33" s="20"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="45">
         <v>3</v>
       </c>
-      <c r="G33" s="47" t="s">
+      <c r="G33" s="60" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="34" ht="17.25" spans="1:7">
-      <c r="A34" s="17"/>
-      <c r="B34" s="15" t="s">
+      <c r="A34" s="24"/>
+      <c r="B34" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="D34" s="20"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="16">
+      <c r="D34" s="27"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="45">
         <v>4</v>
       </c>
-      <c r="G34" s="15"/>
+      <c r="G34" s="20"/>
     </row>
     <row r="35" ht="17.25" spans="1:7">
-      <c r="A35" s="21"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="16">
+      <c r="A35" s="28"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="45">
         <v>5</v>
       </c>
-      <c r="G35" s="15"/>
+      <c r="G35" s="20"/>
     </row>
     <row r="36" ht="17.25" spans="1:7">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="D36" s="15"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="16">
+      <c r="D36" s="20"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="45">
         <v>6</v>
       </c>
-      <c r="G36" s="15"/>
+      <c r="G36" s="20"/>
     </row>
     <row r="37" ht="16.5" spans="1:7">
-      <c r="A37" s="12"/>
-      <c r="B37" s="9" t="s">
+      <c r="A37" s="18"/>
+      <c r="B37" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="C37" s="25" t="s">
+      <c r="C37" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="D37" s="15"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="16">
+      <c r="D37" s="20"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="45">
         <v>7</v>
       </c>
-      <c r="G37" s="15"/>
+      <c r="G37" s="20"/>
     </row>
     <row r="38" ht="16.5" spans="1:7">
-      <c r="A38" s="12"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="16">
+      <c r="A38" s="18"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="45">
         <v>8</v>
       </c>
-      <c r="G38" s="15"/>
+      <c r="G38" s="20"/>
     </row>
     <row r="39" ht="16.5" spans="1:7">
-      <c r="A39" s="12"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="16">
+      <c r="A39" s="18"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="45">
         <v>9</v>
       </c>
-      <c r="G39" s="15"/>
+      <c r="G39" s="20"/>
     </row>
     <row r="40" ht="17.25" spans="1:7">
-      <c r="A40" s="17"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="29">
+      <c r="A40" s="24"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="47">
         <v>10</v>
       </c>
-      <c r="G40" s="28"/>
+      <c r="G40" s="35"/>
     </row>
     <row r="41" ht="17.25" spans="1:7">
-      <c r="A41" s="30"/>
-      <c r="B41" s="31" t="s">
+      <c r="A41" s="38"/>
+      <c r="B41" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="33"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="48"/>
     </row>
     <row r="43" ht="18" spans="1:7">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="1" t="s">
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G43" s="1"/>
+      <c r="G43" s="2"/>
     </row>
     <row r="44" ht="21.75" spans="1:7">
-      <c r="A44" s="3"/>
-      <c r="B44" s="4" t="s">
+      <c r="A44" s="6"/>
+      <c r="B44" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E44" s="5"/>
-      <c r="F44" s="3" t="s">
+      <c r="E44" s="8"/>
+      <c r="F44" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G44" s="4" t="s">
+      <c r="G44" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="45" ht="16.5" spans="1:7">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C45" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="D45" s="9"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="11">
+      <c r="D45" s="43"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="44">
         <v>1</v>
       </c>
-      <c r="G45" s="45" t="s">
+      <c r="G45" s="58" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="46" ht="33.75" spans="1:7">
-      <c r="A46" s="12"/>
+      <c r="A46" s="18"/>
       <c r="B46" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C46" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="D46" s="15" t="s">
+      <c r="D46" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="E46" s="10"/>
-      <c r="F46" s="16">
+      <c r="E46" s="21"/>
+      <c r="F46" s="45">
         <v>2</v>
       </c>
-      <c r="G46" s="15" t="s">
+      <c r="G46" s="20" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="47" ht="33.75" spans="1:7">
-      <c r="A47" s="12"/>
-      <c r="B47" s="9" t="s">
+      <c r="A47" s="18"/>
+      <c r="B47" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="C47" s="44" t="s">
+      <c r="C47" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="D47" s="20" t="s">
+      <c r="D47" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="E47" s="10"/>
-      <c r="F47" s="16">
+      <c r="E47" s="21"/>
+      <c r="F47" s="45">
         <v>3</v>
       </c>
-      <c r="G47" s="15"/>
+      <c r="G47" s="20"/>
     </row>
     <row r="48" ht="17.25" spans="1:7">
-      <c r="A48" s="17"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="44"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="16">
+      <c r="A48" s="24"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="57"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="45">
         <v>4</v>
       </c>
-      <c r="G48" s="15"/>
+      <c r="G48" s="20"/>
     </row>
     <row r="49" ht="17.25" spans="1:7">
-      <c r="A49" s="21"/>
-      <c r="B49" s="23"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="16">
+      <c r="A49" s="28"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="45">
         <v>5</v>
       </c>
-      <c r="G49" s="15"/>
+      <c r="G49" s="20"/>
     </row>
     <row r="50" ht="33" spans="1:7">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B50" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="C50" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="D50" s="15" t="s">
+      <c r="D50" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="E50" s="10"/>
-      <c r="F50" s="16">
+      <c r="E50" s="21"/>
+      <c r="F50" s="45">
         <v>6</v>
       </c>
-      <c r="G50" s="15"/>
+      <c r="G50" s="20"/>
     </row>
     <row r="51" ht="17.25" spans="1:7">
-      <c r="A51" s="12"/>
+      <c r="A51" s="18"/>
       <c r="B51" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C51" s="25" t="s">
+      <c r="C51" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="D51" s="15" t="s">
+      <c r="D51" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="E51" s="10"/>
-      <c r="F51" s="16">
+      <c r="E51" s="21"/>
+      <c r="F51" s="45">
         <v>7</v>
       </c>
-      <c r="G51" s="15"/>
+      <c r="G51" s="20"/>
     </row>
     <row r="52" ht="16.5" spans="1:7">
-      <c r="A52" s="12"/>
-      <c r="B52" s="9" t="s">
+      <c r="A52" s="18"/>
+      <c r="B52" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="C52" s="25" t="s">
+      <c r="C52" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="D52" s="15"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="16">
+      <c r="D52" s="20"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="45">
         <v>8</v>
       </c>
-      <c r="G52" s="15"/>
+      <c r="G52" s="20"/>
     </row>
     <row r="53" ht="16.5" spans="1:7">
-      <c r="A53" s="12"/>
+      <c r="A53" s="18"/>
       <c r="B53" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C53" s="14" t="s">
+      <c r="C53" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="D53" s="15"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="16">
+      <c r="D53" s="20"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="45">
         <v>9</v>
       </c>
-      <c r="G53" s="15"/>
+      <c r="G53" s="20"/>
     </row>
     <row r="54" ht="17.25" spans="1:7">
-      <c r="A54" s="17"/>
-      <c r="B54" s="26"/>
-      <c r="C54" s="27"/>
-      <c r="D54" s="28"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="29">
+      <c r="A54" s="24"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="35"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="47">
         <v>10</v>
       </c>
-      <c r="G54" s="28"/>
+      <c r="G54" s="35"/>
     </row>
     <row r="55" ht="17.25" spans="1:7">
-      <c r="A55" s="30"/>
-      <c r="B55" s="31" t="s">
+      <c r="A55" s="38"/>
+      <c r="B55" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="C55" s="32"/>
-      <c r="D55" s="32"/>
-      <c r="E55" s="32"/>
-      <c r="F55" s="32"/>
-      <c r="G55" s="33"/>
+      <c r="C55" s="40"/>
+      <c r="D55" s="40"/>
+      <c r="E55" s="40"/>
+      <c r="F55" s="40"/>
+      <c r="G55" s="48"/>
     </row>
     <row r="57" ht="18" spans="1:7">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="1" t="s">
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="G57" s="1"/>
+      <c r="G57" s="2"/>
     </row>
     <row r="58" ht="21.75" spans="1:7">
-      <c r="A58" s="3"/>
-      <c r="B58" s="4" t="s">
+      <c r="A58" s="6"/>
+      <c r="B58" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D58" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="5"/>
-      <c r="F58" s="3" t="s">
+      <c r="E58" s="8"/>
+      <c r="F58" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G58" s="4" t="s">
+      <c r="G58" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="59" ht="16.5" spans="1:7">
-      <c r="A59" s="6" t="s">
+      <c r="A59" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C59" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D59" s="9" t="s">
+      <c r="D59" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="E59" s="10"/>
-      <c r="F59" s="11">
+      <c r="E59" s="21"/>
+      <c r="F59" s="44">
         <v>1</v>
       </c>
-      <c r="G59" s="45" t="s">
+      <c r="G59" s="58" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="60" ht="16.5" spans="1:7">
-      <c r="A60" s="12"/>
+      <c r="A60" s="18"/>
       <c r="B60" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="C60" s="14" t="s">
+      <c r="C60" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="D60" s="15"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="16">
+      <c r="D60" s="20"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="45">
         <v>2</v>
       </c>
-      <c r="G60" s="47" t="s">
+      <c r="G60" s="60" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="61" ht="16.5" spans="1:7">
-      <c r="A61" s="12"/>
+      <c r="A61" s="18"/>
       <c r="B61" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C61" s="14" t="s">
+      <c r="C61" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="D61" s="15"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="16">
+      <c r="D61" s="20"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="45">
         <v>3</v>
       </c>
-      <c r="G61" s="47" t="s">
+      <c r="G61" s="60" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="62" ht="17.25" spans="1:7">
-      <c r="A62" s="17"/>
-      <c r="B62" s="18"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="16">
+      <c r="A62" s="24"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="45">
         <v>4</v>
       </c>
-      <c r="G62" s="47" t="s">
+      <c r="G62" s="60" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="63" ht="17.25" spans="1:7">
-      <c r="A63" s="21"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="23"/>
-      <c r="D63" s="24"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="16">
+      <c r="A63" s="28"/>
+      <c r="B63" s="29"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="31"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="45">
         <v>5</v>
       </c>
-      <c r="G63" s="47" t="s">
+      <c r="G63" s="60" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="64" ht="16.5" spans="1:7">
-      <c r="A64" s="6" t="s">
+      <c r="A64" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B64" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="C64" s="14" t="s">
+      <c r="C64" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="D64" s="15"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="16">
+      <c r="D64" s="20"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="45">
         <v>6</v>
       </c>
-      <c r="G64" s="47" t="s">
+      <c r="G64" s="60" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="65" ht="16.5" spans="1:7">
-      <c r="A65" s="12"/>
+      <c r="A65" s="18"/>
       <c r="B65" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="C65" s="25" t="s">
+      <c r="C65" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="D65" s="15"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="16">
+      <c r="D65" s="20"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="45">
         <v>7</v>
       </c>
-      <c r="G65" s="47" t="s">
+      <c r="G65" s="60" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="66" ht="16.5" spans="1:7">
-      <c r="A66" s="12"/>
+      <c r="A66" s="18"/>
       <c r="B66" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="C66" s="14" t="s">
+      <c r="C66" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="D66" s="15"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="16">
+      <c r="D66" s="20"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="45">
         <v>8</v>
       </c>
-      <c r="G66" s="47" t="s">
+      <c r="G66" s="60" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="67" ht="16.5" spans="1:7">
-      <c r="A67" s="12"/>
+      <c r="A67" s="18"/>
       <c r="B67" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C67" s="14" t="s">
+      <c r="C67" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="D67" s="15"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="16">
+      <c r="D67" s="20"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="45">
         <v>9</v>
       </c>
-      <c r="G67" s="47"/>
+      <c r="G67" s="60"/>
     </row>
     <row r="68" ht="17.25" spans="1:7">
-      <c r="A68" s="17"/>
-      <c r="B68" s="26" t="s">
+      <c r="A68" s="24"/>
+      <c r="B68" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="C68" s="27" t="s">
+      <c r="C68" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="D68" s="28"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="29">
+      <c r="D68" s="35"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="47">
         <v>10</v>
       </c>
-      <c r="G68" s="49"/>
+      <c r="G68" s="62"/>
     </row>
     <row r="69" ht="17.25" spans="1:7">
-      <c r="A69" s="30"/>
-      <c r="B69" s="31" t="s">
+      <c r="A69" s="38"/>
+      <c r="B69" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="C69" s="32"/>
-      <c r="D69" s="32"/>
-      <c r="E69" s="32"/>
-      <c r="F69" s="32"/>
-      <c r="G69" s="33"/>
+      <c r="C69" s="40"/>
+      <c r="D69" s="40"/>
+      <c r="E69" s="40"/>
+      <c r="F69" s="40"/>
+      <c r="G69" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="25">
@@ -2902,10 +3048,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43:H55"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="H57" sqref="H57:H69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2919,813 +3065,989 @@
   </cols>
   <sheetData>
     <row r="1" ht="18" spans="1:7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="1" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G1" s="1"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" ht="21.75" spans="1:7">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:7">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11">
+      <c r="D3" s="43"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="44">
         <v>1</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="43" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="4" ht="66" spans="1:7">
-      <c r="A4" s="12"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="16">
+      <c r="E4" s="21"/>
+      <c r="F4" s="45">
         <v>2</v>
       </c>
-      <c r="G4" s="34" t="s">
+      <c r="G4" s="46" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:7">
-      <c r="A5" s="12"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="16">
+      <c r="E5" s="21"/>
+      <c r="F5" s="45">
         <v>3</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G5" s="46" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="6" ht="17.25" spans="1:7">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="16">
+      <c r="A6" s="24"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="45">
         <v>4</v>
       </c>
-      <c r="G6" s="34" t="s">
+      <c r="G6" s="46" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="7" ht="17.25" spans="1:7">
-      <c r="A7" s="21"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="16">
+      <c r="A7" s="28"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="45">
         <v>5</v>
       </c>
-      <c r="G7" s="34" t="s">
+      <c r="G7" s="46" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" ht="99" spans="1:7">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="16">
+      <c r="D8" s="20"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="45">
         <v>6</v>
       </c>
-      <c r="G8" s="34" t="s">
+      <c r="G8" s="46" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="9" ht="33" spans="1:7">
-      <c r="A9" s="12"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="16">
+      <c r="E9" s="21"/>
+      <c r="F9" s="45">
         <v>7</v>
       </c>
-      <c r="G9" s="34"/>
+      <c r="G9" s="46"/>
     </row>
     <row r="10" ht="33" spans="1:7">
-      <c r="A10" s="12"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="16">
+      <c r="E10" s="21"/>
+      <c r="F10" s="45">
         <v>8</v>
       </c>
-      <c r="G10" s="34"/>
+      <c r="G10" s="46"/>
     </row>
     <row r="11" ht="16.5" spans="1:7">
-      <c r="A11" s="12"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="16">
+      <c r="D11" s="20"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="45">
         <v>9</v>
       </c>
-      <c r="G11" s="34"/>
+      <c r="G11" s="46"/>
     </row>
     <row r="12" ht="33.75" spans="1:7">
-      <c r="A12" s="17"/>
-      <c r="B12" s="26" t="s">
+      <c r="A12" s="24"/>
+      <c r="B12" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="29">
+      <c r="D12" s="35"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="47">
         <v>10</v>
       </c>
-      <c r="G12" s="28"/>
+      <c r="G12" s="35"/>
     </row>
     <row r="13" ht="17.25" spans="1:7">
-      <c r="A13" s="30"/>
-      <c r="B13" s="31" t="s">
+      <c r="A13" s="38"/>
+      <c r="B13" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="33"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="48"/>
     </row>
     <row r="15" ht="18" spans="1:7">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="1" t="s">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="G15" s="1"/>
+      <c r="G15" s="2"/>
     </row>
     <row r="16" ht="21.75" spans="1:7">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4" t="s">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="3" t="s">
+      <c r="E16" s="8"/>
+      <c r="F16" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="17" ht="16.5" spans="1:7">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="11">
+      <c r="D17" s="43"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="44">
         <v>1</v>
       </c>
-      <c r="G17" s="34" t="s">
+      <c r="G17" s="46" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="18" ht="16.5" spans="1:7">
-      <c r="A18" s="12"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="16">
+      <c r="D18" s="20"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="45">
         <v>2</v>
       </c>
-      <c r="G18" s="34" t="s">
+      <c r="G18" s="46" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="19" ht="16.5" spans="1:7">
-      <c r="A19" s="12"/>
+      <c r="A19" s="18"/>
       <c r="B19" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="16">
+      <c r="D19" s="20"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="45">
         <v>3</v>
       </c>
-      <c r="G19" s="34" t="s">
+      <c r="G19" s="46" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="20" ht="17.25" spans="1:7">
-      <c r="A20" s="17"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="16">
+      <c r="A20" s="24"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="45">
         <v>4</v>
       </c>
-      <c r="G20" s="34" t="s">
+      <c r="G20" s="46" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="21" ht="17.25" spans="1:7">
-      <c r="A21" s="21"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="16">
+      <c r="A21" s="28"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="45">
         <v>5</v>
       </c>
-      <c r="G21" s="34" t="s">
+      <c r="G21" s="46" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="22" ht="82.5" spans="1:7">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="16">
+      <c r="E22" s="21"/>
+      <c r="F22" s="45">
         <v>6</v>
       </c>
-      <c r="G22" s="15"/>
+      <c r="G22" s="20"/>
     </row>
     <row r="23" ht="16.5" spans="1:7">
-      <c r="A23" s="12"/>
+      <c r="A23" s="18"/>
       <c r="B23" s="13"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="16">
+      <c r="C23" s="32"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="45">
         <v>7</v>
       </c>
-      <c r="G23" s="15"/>
+      <c r="G23" s="20"/>
     </row>
     <row r="24" ht="16.5" spans="1:7">
-      <c r="A24" s="12"/>
+      <c r="A24" s="18"/>
       <c r="B24" s="13"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="16">
+      <c r="C24" s="19"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="45">
         <v>8</v>
       </c>
-      <c r="G24" s="15"/>
+      <c r="G24" s="20"/>
     </row>
     <row r="25" ht="16.5" spans="1:7">
-      <c r="A25" s="12"/>
+      <c r="A25" s="18"/>
       <c r="B25" s="13"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="16">
+      <c r="C25" s="19"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="45">
         <v>9</v>
       </c>
-      <c r="G25" s="15"/>
+      <c r="G25" s="20"/>
     </row>
     <row r="26" ht="17.25" spans="1:7">
-      <c r="A26" s="17"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="29">
+      <c r="A26" s="24"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="47">
         <v>10</v>
       </c>
-      <c r="G26" s="28"/>
+      <c r="G26" s="35"/>
     </row>
     <row r="27" ht="17.25" spans="1:7">
-      <c r="A27" s="30"/>
-      <c r="B27" s="31" t="s">
+      <c r="A27" s="38"/>
+      <c r="B27" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="33"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="48"/>
     </row>
     <row r="29" ht="18" spans="1:7">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="1" t="s">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="G29" s="1"/>
+      <c r="G29" s="2"/>
     </row>
     <row r="30" ht="21.75" spans="1:7">
-      <c r="A30" s="3"/>
-      <c r="B30" s="4" t="s">
+      <c r="A30" s="6"/>
+      <c r="B30" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="3" t="s">
+      <c r="E30" s="8"/>
+      <c r="F30" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="G30" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="31" ht="33.75" spans="1:7">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="11">
+      <c r="D31" s="43"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="44">
         <v>1</v>
       </c>
-      <c r="G31" s="9" t="s">
+      <c r="G31" s="43" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="32" ht="16.5" spans="1:7">
-      <c r="A32" s="12"/>
-      <c r="B32" s="7" t="s">
+      <c r="A32" s="18"/>
+      <c r="B32" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="D32" s="15"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="16">
+      <c r="D32" s="20"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="45">
         <v>2</v>
       </c>
-      <c r="G32" s="34" t="s">
+      <c r="G32" s="46" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="33" ht="16.5" spans="1:7">
-      <c r="A33" s="12"/>
+      <c r="A33" s="18"/>
       <c r="B33" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="D33" s="15"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="16">
+      <c r="D33" s="20"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="45">
         <v>3</v>
       </c>
-      <c r="G33" s="34" t="s">
+      <c r="G33" s="46" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="34" ht="17.25" spans="1:7">
-      <c r="A34" s="17"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="16">
+      <c r="A34" s="24"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="45">
         <v>4</v>
       </c>
-      <c r="G34" s="34" t="s">
+      <c r="G34" s="46" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="35" ht="17.25" spans="1:7">
-      <c r="A35" s="21"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="16">
+      <c r="A35" s="28"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="45">
         <v>5</v>
       </c>
-      <c r="G35" s="34" t="s">
+      <c r="G35" s="46" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="36" ht="17.25" spans="1:7">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="C36" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="D36" s="15"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="16">
+      <c r="D36" s="20"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="45">
         <v>6</v>
       </c>
-      <c r="G36" s="34" t="s">
+      <c r="G36" s="46" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="37" ht="33" spans="1:7">
-      <c r="A37" s="12"/>
+      <c r="A37" s="18"/>
       <c r="B37" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="C37" s="25" t="s">
+      <c r="C37" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="D37" s="15"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="16">
+      <c r="D37" s="20"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="45">
         <v>7</v>
       </c>
-      <c r="G37" s="15"/>
+      <c r="G37" s="20"/>
     </row>
     <row r="38" ht="16.5" spans="1:7">
-      <c r="A38" s="12"/>
+      <c r="A38" s="18"/>
       <c r="B38" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C38" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="D38" s="15"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="16">
+      <c r="D38" s="20"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="45">
         <v>8</v>
       </c>
-      <c r="G38" s="15"/>
+      <c r="G38" s="20"/>
     </row>
     <row r="39" ht="16.5" spans="1:7">
-      <c r="A39" s="12"/>
+      <c r="A39" s="18"/>
       <c r="B39" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C39" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="D39" s="15"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="16">
+      <c r="D39" s="20"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="45">
         <v>9</v>
       </c>
-      <c r="G39" s="15"/>
+      <c r="G39" s="20"/>
     </row>
     <row r="40" ht="17.25" spans="1:7">
-      <c r="A40" s="17"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="29">
+      <c r="A40" s="24"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="47">
         <v>10</v>
       </c>
-      <c r="G40" s="28"/>
+      <c r="G40" s="35"/>
     </row>
     <row r="41" ht="17.25" spans="1:7">
-      <c r="A41" s="30"/>
-      <c r="B41" s="31" t="s">
+      <c r="A41" s="38"/>
+      <c r="B41" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="33"/>
-    </row>
-    <row r="42" ht="14.25"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="48"/>
+    </row>
     <row r="43" ht="18" spans="1:8">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="1" t="s">
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="G43" s="35"/>
-      <c r="H43" s="36" t="s">
+      <c r="G43" s="4"/>
+      <c r="H43" s="50" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="44" ht="21.75" spans="1:8">
-      <c r="A44" s="3"/>
-      <c r="B44" s="4" t="s">
+      <c r="A44" s="6"/>
+      <c r="B44" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E44" s="5"/>
-      <c r="F44" s="3" t="s">
+      <c r="E44" s="8"/>
+      <c r="F44" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G44" s="37" t="s">
+      <c r="G44" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H44" s="38"/>
+      <c r="H44" s="51"/>
     </row>
     <row r="45" ht="33" spans="1:8">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="49" t="s">
         <v>138</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D45" s="9"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="11">
+      <c r="D45" s="43"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="44">
         <v>1</v>
       </c>
-      <c r="G45" s="9" t="s">
+      <c r="G45" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="H45" s="38"/>
+      <c r="H45" s="51"/>
     </row>
     <row r="46" ht="33" spans="1:8">
-      <c r="A46" s="12"/>
+      <c r="A46" s="18"/>
       <c r="B46" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C46" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="D46" s="15"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="16">
+      <c r="D46" s="20"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="45">
         <v>2</v>
       </c>
-      <c r="G46" s="34" t="s">
+      <c r="G46" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="H46" s="38"/>
+      <c r="H46" s="51"/>
     </row>
     <row r="47" ht="33" spans="1:8">
-      <c r="A47" s="12"/>
+      <c r="A47" s="18"/>
       <c r="B47" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="C47" s="14" t="s">
+      <c r="C47" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="D47" s="15"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="16">
+      <c r="D47" s="20"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="45">
         <v>3</v>
       </c>
-      <c r="G47" s="34" t="s">
+      <c r="G47" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="H47" s="38"/>
+      <c r="H47" s="51"/>
     </row>
     <row r="48" ht="17.25" spans="1:8">
-      <c r="A48" s="17"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="16">
+      <c r="A48" s="24"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="45">
         <v>4</v>
       </c>
-      <c r="G48" s="34" t="s">
+      <c r="G48" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="H48" s="38"/>
+      <c r="H48" s="51"/>
     </row>
     <row r="49" ht="17.25" spans="1:8">
-      <c r="A49" s="21"/>
-      <c r="B49" s="22"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="16">
+      <c r="A49" s="28"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="45">
         <v>5</v>
       </c>
-      <c r="G49" s="34" t="s">
+      <c r="G49" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="H49" s="38"/>
+      <c r="H49" s="51"/>
     </row>
     <row r="50" ht="33" spans="1:8">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B50" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="C50" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="D50" s="15" t="s">
+      <c r="D50" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="E50" s="10"/>
-      <c r="F50" s="16">
+      <c r="E50" s="21"/>
+      <c r="F50" s="45">
         <v>6</v>
       </c>
-      <c r="G50" s="34" t="s">
+      <c r="G50" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="H50" s="38"/>
+      <c r="H50" s="51"/>
     </row>
     <row r="51" ht="16.5" spans="1:8">
-      <c r="A51" s="12"/>
+      <c r="A51" s="18"/>
       <c r="B51" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="C51" s="25"/>
-      <c r="D51" s="15" t="s">
+      <c r="C51" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D51" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="E51" s="10"/>
-      <c r="F51" s="16">
+      <c r="E51" s="21"/>
+      <c r="F51" s="45">
         <v>7</v>
       </c>
-      <c r="G51" s="39"/>
-      <c r="H51" s="38"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="51"/>
     </row>
     <row r="52" ht="49.5" spans="1:8">
-      <c r="A52" s="12"/>
+      <c r="A52" s="18"/>
       <c r="B52" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="C52" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="D52" s="15"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="16">
+      <c r="D52" s="20"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="45">
         <v>8</v>
       </c>
-      <c r="G52" s="39"/>
-      <c r="H52" s="38"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="51"/>
     </row>
     <row r="53" ht="33" spans="1:8">
-      <c r="A53" s="12"/>
+      <c r="A53" s="18"/>
       <c r="B53" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="C53" s="14" t="s">
+      <c r="C53" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="D53" s="15"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="16">
+      <c r="D53" s="20"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="45">
         <v>9</v>
       </c>
-      <c r="G53" s="39"/>
-      <c r="H53" s="38"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="51"/>
     </row>
     <row r="54" ht="17.25" spans="1:8">
-      <c r="A54" s="17"/>
-      <c r="B54" s="26"/>
-      <c r="C54" s="27"/>
-      <c r="D54" s="28"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="29">
+      <c r="A54" s="24"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="35"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="47">
         <v>10</v>
       </c>
-      <c r="G54" s="40"/>
-      <c r="H54" s="38"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="51"/>
     </row>
     <row r="55" ht="17.25" spans="1:8">
-      <c r="A55" s="30"/>
-      <c r="B55" s="31" t="s">
+      <c r="A55" s="38"/>
+      <c r="B55" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="C55" s="32"/>
-      <c r="D55" s="32"/>
-      <c r="E55" s="32"/>
-      <c r="F55" s="32"/>
-      <c r="G55" s="32"/>
-      <c r="H55" s="41"/>
+      <c r="C55" s="40"/>
+      <c r="D55" s="40"/>
+      <c r="E55" s="40"/>
+      <c r="F55" s="40"/>
+      <c r="G55" s="40"/>
+      <c r="H55" s="52"/>
+    </row>
+    <row r="56" ht="14.25"/>
+    <row r="57" ht="18.75" spans="1:8">
+      <c r="A57" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G57" s="4"/>
+      <c r="H57" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="58" ht="21.75" spans="1:8">
+      <c r="A58" s="6"/>
+      <c r="B58" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" s="8"/>
+      <c r="F58" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H58" s="11"/>
+    </row>
+    <row r="59" ht="17.25" spans="1:8">
+      <c r="A59" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C59" s="14"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="53">
+        <v>1</v>
+      </c>
+      <c r="G59" s="15"/>
+      <c r="H59" s="11"/>
+    </row>
+    <row r="60" ht="16.5" spans="1:8">
+      <c r="A60" s="18"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="45">
+        <v>2</v>
+      </c>
+      <c r="G60" s="23"/>
+      <c r="H60" s="11"/>
+    </row>
+    <row r="61" ht="16.5" spans="1:8">
+      <c r="A61" s="18"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="45">
+        <v>3</v>
+      </c>
+      <c r="G61" s="23"/>
+      <c r="H61" s="11"/>
+    </row>
+    <row r="62" ht="17.25" spans="1:8">
+      <c r="A62" s="24"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="45">
+        <v>4</v>
+      </c>
+      <c r="G62" s="23"/>
+      <c r="H62" s="11"/>
+    </row>
+    <row r="63" ht="17.25" spans="1:8">
+      <c r="A63" s="28"/>
+      <c r="B63" s="29"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="31"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="45">
+        <v>5</v>
+      </c>
+      <c r="G63" s="23"/>
+      <c r="H63" s="11"/>
+    </row>
+    <row r="64" ht="16.5" spans="1:8">
+      <c r="A64" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B64" s="13"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="45">
+        <v>6</v>
+      </c>
+      <c r="G64" s="23"/>
+      <c r="H64" s="11"/>
+    </row>
+    <row r="65" ht="16.5" spans="1:8">
+      <c r="A65" s="18"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="45">
+        <v>7</v>
+      </c>
+      <c r="G65" s="23"/>
+      <c r="H65" s="11"/>
+    </row>
+    <row r="66" ht="16.5" spans="1:8">
+      <c r="A66" s="18"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="45">
+        <v>8</v>
+      </c>
+      <c r="G66" s="23"/>
+      <c r="H66" s="11"/>
+    </row>
+    <row r="67" ht="16.5" spans="1:8">
+      <c r="A67" s="18"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="45">
+        <v>9</v>
+      </c>
+      <c r="G67" s="23"/>
+      <c r="H67" s="11"/>
+    </row>
+    <row r="68" ht="17.25" spans="1:8">
+      <c r="A68" s="24"/>
+      <c r="B68" s="33"/>
+      <c r="C68" s="34"/>
+      <c r="D68" s="35"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="47">
+        <v>10</v>
+      </c>
+      <c r="G68" s="37"/>
+      <c r="H68" s="11"/>
+    </row>
+    <row r="69" ht="17.25" spans="1:8">
+      <c r="A69" s="38"/>
+      <c r="B69" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="C69" s="40"/>
+      <c r="D69" s="40"/>
+      <c r="E69" s="40"/>
+      <c r="F69" s="40"/>
+      <c r="G69" s="40"/>
+      <c r="H69" s="54"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="27">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="B13:G13"/>
@@ -3738,6 +4060,9 @@
     <mergeCell ref="A43:D43"/>
     <mergeCell ref="F43:G43"/>
     <mergeCell ref="B55:G55"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="B69:G69"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A8:A12"/>
     <mergeCell ref="A17:A20"/>
@@ -3746,7 +4071,10 @@
     <mergeCell ref="A36:A40"/>
     <mergeCell ref="A45:A48"/>
     <mergeCell ref="A50:A54"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="A64:A68"/>
     <mergeCell ref="H43:H55"/>
+    <mergeCell ref="H57:H69"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3757,185 +4085,202 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="A1:G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
+    <col min="1" max="1" width="7.125" customWidth="1"/>
     <col min="2" max="2" width="19.125" customWidth="1"/>
     <col min="3" max="3" width="40" customWidth="1"/>
     <col min="4" max="4" width="33.25" customWidth="1"/>
     <col min="5" max="5" width="6.75" customWidth="1"/>
+    <col min="6" max="6" width="5.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="35.625" customWidth="1"/>
+    <col min="8" max="8" width="43.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" ht="21.75" spans="1:7">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+    <row r="1" ht="18.75" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" ht="21.75" spans="1:8">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="10" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" ht="16.5" spans="1:7">
-      <c r="A3" s="6" t="s">
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" ht="17.25" spans="1:8">
+      <c r="A3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11">
+      <c r="B3" s="13"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="17">
         <v>1</v>
       </c>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" ht="16.5" spans="1:7">
-      <c r="A4" s="12"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="11"/>
+    </row>
+    <row r="4" ht="16.5" spans="1:8">
+      <c r="A4" s="18"/>
       <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="16">
+      <c r="C4" s="19"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="22">
         <v>2</v>
       </c>
-      <c r="G4" s="15"/>
-    </row>
-    <row r="5" ht="16.5" spans="1:7">
-      <c r="A5" s="12"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="11"/>
+    </row>
+    <row r="5" ht="16.5" spans="1:8">
+      <c r="A5" s="18"/>
       <c r="B5" s="13"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="16">
+      <c r="C5" s="19"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="22">
         <v>3</v>
       </c>
-      <c r="G5" s="15"/>
-    </row>
-    <row r="6" ht="17.25" spans="1:7">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="16">
+      <c r="G5" s="23"/>
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" ht="17.25" spans="1:8">
+      <c r="A6" s="24"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="22">
         <v>4</v>
       </c>
-      <c r="G6" s="15"/>
-    </row>
-    <row r="7" ht="17.25" spans="1:7">
-      <c r="A7" s="21"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="16">
+      <c r="G6" s="23"/>
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" ht="17.25" spans="1:8">
+      <c r="A7" s="28"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="22">
         <v>5</v>
       </c>
-      <c r="G7" s="15"/>
-    </row>
-    <row r="8" ht="16.5" spans="1:7">
-      <c r="A8" s="6" t="s">
+      <c r="G7" s="23"/>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" ht="16.5" spans="1:8">
+      <c r="A8" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="16">
+      <c r="C8" s="19"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="22">
         <v>6</v>
       </c>
-      <c r="G8" s="15"/>
-    </row>
-    <row r="9" ht="16.5" spans="1:7">
-      <c r="A9" s="12"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="11"/>
+    </row>
+    <row r="9" ht="16.5" spans="1:8">
+      <c r="A9" s="18"/>
       <c r="B9" s="13"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="16">
+      <c r="C9" s="32"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="22">
         <v>7</v>
       </c>
-      <c r="G9" s="15"/>
-    </row>
-    <row r="10" ht="16.5" spans="1:7">
-      <c r="A10" s="12"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" ht="16.5" spans="1:8">
+      <c r="A10" s="18"/>
       <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="16">
+      <c r="C10" s="19"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="22">
         <v>8</v>
       </c>
-      <c r="G10" s="15"/>
-    </row>
-    <row r="11" ht="16.5" spans="1:7">
-      <c r="A11" s="12"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" ht="16.5" spans="1:8">
+      <c r="A11" s="18"/>
       <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="16">
+      <c r="C11" s="19"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="22">
         <v>9</v>
       </c>
-      <c r="G11" s="15"/>
-    </row>
-    <row r="12" ht="17.25" spans="1:7">
-      <c r="A12" s="17"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="29">
+      <c r="G11" s="23"/>
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" ht="17.25" spans="1:8">
+      <c r="A12" s="24"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="36">
         <v>10</v>
       </c>
-      <c r="G12" s="28"/>
-    </row>
-    <row r="13" ht="17.25" spans="1:7">
-      <c r="A13" s="30"/>
-      <c r="B13" s="31" t="s">
+      <c r="G12" s="37"/>
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13" ht="17.25" spans="1:8">
+      <c r="A13" s="38"/>
+      <c r="B13" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="33"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="B13:G13"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A8:A12"/>
+    <mergeCell ref="H1:H13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/working/工作日志.杨炜.3月份.xlsx
+++ b/working/工作日志.杨炜.3月份.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28710" windowHeight="13050" activeTab="4"/>
+    <workbookView windowWidth="28710" windowHeight="13050" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="周计划" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162">
   <si>
     <t>下周计划</t>
   </si>
@@ -494,6 +494,30 @@
   </si>
   <si>
     <t>30日工作计划（周一）</t>
+  </si>
+  <si>
+    <t>待线下测试环境出来后执行</t>
+  </si>
+  <si>
+    <t>获取百度百家顶部小轮播</t>
+  </si>
+  <si>
+    <t>已完成，待优化</t>
+  </si>
+  <si>
+    <t>存放于github-kousuke</t>
+  </si>
+  <si>
+    <t>所有样式文件添加@charset "utf-8";</t>
+  </si>
+  <si>
+    <t>分裂出当前首页首屏轮播</t>
+  </si>
+  <si>
+    <t>制作网站新首页</t>
+  </si>
+  <si>
+    <t>已接收psd文档</t>
   </si>
   <si>
     <t>日工作日志（周）</t>
@@ -3050,18 +3074,18 @@
   <sheetPr/>
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="H57" sqref="H57:H69"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="20.375" customWidth="1"/>
-    <col min="3" max="3" width="40" customWidth="1"/>
-    <col min="4" max="4" width="33.25" customWidth="1"/>
-    <col min="5" max="5" width="6.75" customWidth="1"/>
-    <col min="7" max="7" width="35.625" customWidth="1"/>
-    <col min="8" max="8" width="43.125" customWidth="1"/>
+    <col min="3" max="3" width="38.5" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="5" max="5" width="5.875" customWidth="1"/>
+    <col min="7" max="7" width="31.375" customWidth="1"/>
+    <col min="8" max="8" width="40.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" spans="1:7">
@@ -3915,8 +3939,12 @@
       <c r="B59" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="C59" s="14"/>
-      <c r="D59" s="15"/>
+      <c r="C59" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>152</v>
+      </c>
       <c r="E59" s="16"/>
       <c r="F59" s="53">
         <v>1</v>
@@ -3926,9 +3954,15 @@
     </row>
     <row r="60" ht="16.5" spans="1:8">
       <c r="A60" s="18"/>
-      <c r="B60" s="13"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="20"/>
+      <c r="B60" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="D60" s="20" t="s">
+        <v>155</v>
+      </c>
       <c r="E60" s="21"/>
       <c r="F60" s="45">
         <v>2</v>
@@ -3936,9 +3970,11 @@
       <c r="G60" s="23"/>
       <c r="H60" s="11"/>
     </row>
-    <row r="61" ht="16.5" spans="1:8">
+    <row r="61" ht="33" spans="1:8">
       <c r="A61" s="18"/>
-      <c r="B61" s="13"/>
+      <c r="B61" s="13" t="s">
+        <v>156</v>
+      </c>
       <c r="C61" s="19"/>
       <c r="D61" s="20"/>
       <c r="E61" s="21"/>
@@ -3950,7 +3986,9 @@
     </row>
     <row r="62" ht="17.25" spans="1:8">
       <c r="A62" s="24"/>
-      <c r="B62" s="25"/>
+      <c r="B62" s="25" t="s">
+        <v>157</v>
+      </c>
       <c r="C62" s="26"/>
       <c r="D62" s="27"/>
       <c r="E62" s="21"/>
@@ -3976,9 +4014,13 @@
       <c r="A64" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B64" s="13"/>
+      <c r="B64" s="13" t="s">
+        <v>158</v>
+      </c>
       <c r="C64" s="19"/>
-      <c r="D64" s="20"/>
+      <c r="D64" s="20" t="s">
+        <v>159</v>
+      </c>
       <c r="E64" s="21"/>
       <c r="F64" s="45">
         <v>6</v>
@@ -4087,8 +4129,8 @@
   <sheetPr/>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -4105,14 +4147,14 @@
   <sheetData>
     <row r="1" ht="18.75" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
       <c r="F1" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="5"/>

--- a/working/工作日志.杨炜.3月份.xlsx
+++ b/working/工作日志.杨炜.3月份.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164">
   <si>
     <t>下周计划</t>
   </si>
@@ -511,10 +511,16 @@
     <t>所有样式文件添加@charset "utf-8";</t>
   </si>
   <si>
+    <t>撰写表单交互</t>
+  </si>
+  <si>
+    <t>已接收交互稿</t>
+  </si>
+  <si>
     <t>分裂出当前首页首屏轮播</t>
   </si>
   <si>
-    <t>制作网站新首页</t>
+    <t>对网站首页进行切图</t>
   </si>
   <si>
     <t>已接收psd文档</t>
@@ -620,7 +626,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -711,13 +717,138 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -727,13 +858,22 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <right/>
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -742,22 +882,37 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="thick">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -767,16 +922,55 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thick">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -786,73 +980,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -869,19 +996,6 @@
         <color indexed="64"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -900,7 +1014,9 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -911,54 +1027,22 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <right/>
+      <top style="thick">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -967,45 +1051,22 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1044,7 +1105,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1096,142 +1157,175 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1249,10 +1343,10 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1625,188 +1719,188 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="4.625" style="63" customWidth="1"/>
-    <col min="2" max="2" width="32.125" style="63" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="63" customWidth="1"/>
-    <col min="4" max="5" width="9" style="63"/>
-    <col min="6" max="6" width="15.625" style="63" customWidth="1"/>
-    <col min="7" max="7" width="16.875" style="63" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="63"/>
+    <col min="1" max="1" width="4.625" style="74" customWidth="1"/>
+    <col min="2" max="2" width="32.125" style="74" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="74" customWidth="1"/>
+    <col min="4" max="5" width="9" style="74"/>
+    <col min="6" max="6" width="15.625" style="74" customWidth="1"/>
+    <col min="7" max="7" width="16.875" style="74" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="74"/>
   </cols>
   <sheetData>
     <row r="1" ht="21.75" customHeight="1" spans="1:7">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
     </row>
     <row r="2" ht="33" customHeight="1" spans="1:7">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="72" t="s">
+      <c r="C2" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
     </row>
     <row r="3" ht="16.5" spans="1:7">
-      <c r="A3" s="71"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="73" t="s">
+      <c r="A3" s="82"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="73" t="s">
+      <c r="D3" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="73" t="s">
+      <c r="E3" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="73" t="s">
+      <c r="F3" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="73" t="s">
+      <c r="G3" s="84" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:7">
-      <c r="A4" s="74">
+      <c r="A4" s="85">
         <v>1</v>
       </c>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
     </row>
     <row r="5" ht="16.5" spans="1:7">
-      <c r="A5" s="74">
+      <c r="A5" s="85">
         <v>2</v>
       </c>
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="74"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
     </row>
     <row r="6" ht="16.5" spans="1:7">
-      <c r="A6" s="74">
+      <c r="A6" s="85">
         <v>3</v>
       </c>
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="74"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
     </row>
     <row r="7" ht="16.5" spans="1:7">
-      <c r="A7" s="74">
+      <c r="A7" s="85">
         <v>4</v>
       </c>
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="74"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
     </row>
     <row r="8" ht="16.5" spans="1:7">
-      <c r="A8" s="74"/>
-      <c r="B8" s="74" t="s">
+      <c r="A8" s="85"/>
+      <c r="B8" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="74"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="75"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
     </row>
     <row r="9" ht="16.5" spans="1:7">
-      <c r="A9" s="74"/>
-      <c r="B9" s="74"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="75"/>
+      <c r="A9" s="85"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="86"/>
     </row>
     <row r="10" ht="16.5" spans="1:7">
-      <c r="A10" s="74"/>
-      <c r="B10" s="74"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
+      <c r="A10" s="85"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="86"/>
     </row>
     <row r="11" ht="16.5" spans="1:7">
-      <c r="A11" s="74"/>
-      <c r="B11" s="74"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="75"/>
+      <c r="A11" s="85"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="86"/>
     </row>
     <row r="12" ht="16.5" spans="1:7">
-      <c r="A12" s="74"/>
-      <c r="B12" s="74"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="75"/>
+      <c r="A12" s="85"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="86"/>
     </row>
     <row r="13" ht="16.5" spans="1:7">
-      <c r="A13" s="74"/>
-      <c r="B13" s="74"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
+      <c r="A13" s="85"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="86"/>
     </row>
     <row r="14" ht="16.5" spans="1:7">
-      <c r="A14" s="74"/>
-      <c r="B14" s="74"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
+      <c r="A14" s="85"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="86"/>
     </row>
     <row r="15" ht="16.5" spans="1:7">
-      <c r="A15" s="74"/>
-      <c r="B15" s="74"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="75"/>
+      <c r="A15" s="85"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="76" t="s">
+      <c r="B17" s="87" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1834,9 +1928,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="19.125" style="63" customWidth="1"/>
+    <col min="2" max="2" width="19.125" style="74" customWidth="1"/>
     <col min="3" max="3" width="47.25" customWidth="1"/>
-    <col min="4" max="4" width="21" style="63" customWidth="1"/>
+    <col min="4" max="4" width="21" style="74" customWidth="1"/>
     <col min="5" max="5" width="6.75" customWidth="1"/>
     <col min="7" max="7" width="35.625" customWidth="1"/>
   </cols>
@@ -1874,157 +1968,157 @@
       </c>
     </row>
     <row r="3" ht="28.5" spans="1:7">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="64" t="s">
+      <c r="D3" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="44">
+      <c r="E3" s="20"/>
+      <c r="F3" s="39">
         <v>1</v>
       </c>
-      <c r="G3" s="43"/>
+      <c r="G3" s="38"/>
     </row>
     <row r="4" ht="28.5" spans="1:7">
-      <c r="A4" s="18"/>
-      <c r="B4" s="64" t="s">
+      <c r="A4" s="40"/>
+      <c r="B4" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="45">
+      <c r="E4" s="20"/>
+      <c r="F4" s="41">
         <v>2</v>
       </c>
-      <c r="G4" s="20"/>
+      <c r="G4" s="19"/>
     </row>
     <row r="5" ht="42.75" spans="1:7">
-      <c r="A5" s="18"/>
-      <c r="B5" s="64" t="s">
+      <c r="A5" s="40"/>
+      <c r="B5" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="45">
+      <c r="E5" s="20"/>
+      <c r="F5" s="41">
         <v>3</v>
       </c>
-      <c r="G5" s="20"/>
+      <c r="G5" s="19"/>
     </row>
     <row r="6" ht="17.25" spans="1:7">
-      <c r="A6" s="24"/>
-      <c r="B6" s="56"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="45">
+      <c r="A6" s="42"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="41">
         <v>4</v>
       </c>
-      <c r="G6" s="20"/>
+      <c r="G6" s="19"/>
     </row>
     <row r="7" ht="17.25" spans="1:7">
-      <c r="A7" s="28"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="45">
+      <c r="A7" s="46"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="41">
         <v>5</v>
       </c>
-      <c r="G7" s="20"/>
+      <c r="G7" s="19"/>
     </row>
     <row r="8" ht="16.5" spans="1:7">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="67" t="s">
+      <c r="C8" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="45">
+      <c r="D8" s="19"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="41">
         <v>6</v>
       </c>
-      <c r="G8" s="20"/>
+      <c r="G8" s="19"/>
     </row>
     <row r="9" ht="28.5" spans="1:7">
-      <c r="A9" s="18"/>
-      <c r="B9" s="64" t="s">
+      <c r="A9" s="40"/>
+      <c r="B9" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="65" t="s">
+      <c r="C9" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="64" t="s">
+      <c r="D9" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="45">
+      <c r="E9" s="20"/>
+      <c r="F9" s="41">
         <v>7</v>
       </c>
-      <c r="G9" s="20"/>
+      <c r="G9" s="19"/>
     </row>
     <row r="10" ht="16.5" spans="1:7">
-      <c r="A10" s="18"/>
+      <c r="A10" s="40"/>
       <c r="B10" s="13"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="45">
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="41">
         <v>8</v>
       </c>
-      <c r="G10" s="20"/>
+      <c r="G10" s="19"/>
     </row>
     <row r="11" ht="16.5" spans="1:7">
-      <c r="A11" s="18"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="13"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="45">
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="41">
         <v>9</v>
       </c>
-      <c r="G11" s="20"/>
+      <c r="G11" s="19"/>
     </row>
     <row r="12" ht="17.25" spans="1:7">
-      <c r="A12" s="24"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="47">
+      <c r="A12" s="42"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="51">
         <v>10</v>
       </c>
-      <c r="G12" s="35"/>
+      <c r="G12" s="24"/>
     </row>
     <row r="13" ht="17.25" spans="1:7">
-      <c r="A13" s="38"/>
-      <c r="B13" s="68" t="s">
+      <c r="A13" s="31"/>
+      <c r="B13" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="40"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="48"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2091,163 +2185,163 @@
       </c>
     </row>
     <row r="3" ht="82.5" spans="1:7">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="66" t="s">
         <v>38</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="44">
+      <c r="E3" s="20"/>
+      <c r="F3" s="39">
         <v>1</v>
       </c>
-      <c r="G3" s="43" t="s">
+      <c r="G3" s="38" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:7">
-      <c r="A4" s="18"/>
+      <c r="A4" s="40"/>
       <c r="B4" s="13"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="45">
+      <c r="C4" s="18"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="41">
         <v>2</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="19" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:7">
-      <c r="A5" s="18"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="13"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="45">
+      <c r="C5" s="18"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="41">
         <v>3</v>
       </c>
-      <c r="G5" s="20"/>
+      <c r="G5" s="19"/>
     </row>
     <row r="6" ht="17.25" spans="1:7">
-      <c r="A6" s="24"/>
-      <c r="B6" s="56"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="45">
+      <c r="A6" s="42"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="41">
         <v>4</v>
       </c>
-      <c r="G6" s="20"/>
+      <c r="G6" s="19"/>
     </row>
     <row r="7" ht="17.25" spans="1:7">
-      <c r="A7" s="28"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="45">
+      <c r="A7" s="46"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="41">
         <v>5</v>
       </c>
-      <c r="G7" s="20"/>
+      <c r="G7" s="19"/>
     </row>
     <row r="8" ht="33" spans="1:7">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="37" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="45">
+      <c r="E8" s="20"/>
+      <c r="F8" s="41">
         <v>6</v>
       </c>
-      <c r="G8" s="20"/>
+      <c r="G8" s="19"/>
     </row>
     <row r="9" ht="33" spans="1:7">
-      <c r="A9" s="18"/>
+      <c r="A9" s="40"/>
       <c r="B9" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="45">
+      <c r="E9" s="20"/>
+      <c r="F9" s="41">
         <v>7</v>
       </c>
-      <c r="G9" s="20"/>
+      <c r="G9" s="19"/>
     </row>
     <row r="10" ht="16.5" spans="1:7">
-      <c r="A10" s="18"/>
+      <c r="A10" s="40"/>
       <c r="B10" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="45">
+      <c r="E10" s="20"/>
+      <c r="F10" s="41">
         <v>8</v>
       </c>
-      <c r="G10" s="20"/>
+      <c r="G10" s="19"/>
     </row>
     <row r="11" ht="16.5" spans="1:7">
-      <c r="A11" s="18"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="21"/>
-      <c r="F11" s="45">
+      <c r="E11" s="20"/>
+      <c r="F11" s="41">
         <v>9</v>
       </c>
-      <c r="G11" s="20"/>
+      <c r="G11" s="19"/>
     </row>
     <row r="12" ht="17.25" spans="1:7">
-      <c r="A12" s="24"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="47">
+      <c r="A12" s="42"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="51">
         <v>10</v>
       </c>
-      <c r="G12" s="35"/>
+      <c r="G12" s="24"/>
     </row>
     <row r="13" ht="17.25" spans="1:7">
-      <c r="A13" s="38"/>
-      <c r="B13" s="39" t="s">
+      <c r="A13" s="31"/>
+      <c r="B13" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="48"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="52"/>
     </row>
     <row r="15" ht="18" spans="1:7">
       <c r="A15" s="2" t="s">
@@ -2282,167 +2376,167 @@
       </c>
     </row>
     <row r="17" ht="33" spans="1:7">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="58" t="s">
+      <c r="B17" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="59" t="s">
+      <c r="C17" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="43"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="44">
+      <c r="D17" s="38"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="39">
         <v>1</v>
       </c>
-      <c r="G17" s="43" t="s">
+      <c r="G17" s="38" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="18" ht="33" spans="1:7">
-      <c r="A18" s="18"/>
-      <c r="B18" s="60" t="s">
+      <c r="A18" s="40"/>
+      <c r="B18" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="61" t="s">
+      <c r="C18" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="21"/>
-      <c r="F18" s="45">
+      <c r="E18" s="20"/>
+      <c r="F18" s="41">
         <v>2</v>
       </c>
-      <c r="G18" s="20" t="s">
+      <c r="G18" s="19" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="19" ht="16.5" spans="1:7">
-      <c r="A19" s="18"/>
+      <c r="A19" s="40"/>
       <c r="B19" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="45">
+      <c r="D19" s="19"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="41">
         <v>3</v>
       </c>
-      <c r="G19" s="20" t="s">
+      <c r="G19" s="19" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="20" ht="17.25" spans="1:7">
-      <c r="A20" s="24"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="45">
+      <c r="A20" s="42"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="41">
         <v>4</v>
       </c>
-      <c r="G20" s="20" t="s">
+      <c r="G20" s="19" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="21" ht="17.25" spans="1:7">
-      <c r="A21" s="28"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="45">
+      <c r="A21" s="46"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="41">
         <v>5</v>
       </c>
-      <c r="G21" s="20"/>
+      <c r="G21" s="19"/>
     </row>
     <row r="22" ht="33" spans="1:7">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="37" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="45">
+      <c r="D22" s="19"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="41">
         <v>6</v>
       </c>
-      <c r="G22" s="20"/>
+      <c r="G22" s="19"/>
     </row>
     <row r="23" ht="16.5" spans="1:7">
-      <c r="A23" s="18"/>
+      <c r="A23" s="40"/>
       <c r="B23" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="32" t="s">
+      <c r="C23" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="D23" s="20"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="45">
+      <c r="D23" s="19"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="41">
         <v>7</v>
       </c>
-      <c r="G23" s="20"/>
+      <c r="G23" s="19"/>
     </row>
     <row r="24" ht="16.5" spans="1:7">
-      <c r="A24" s="18"/>
+      <c r="A24" s="40"/>
       <c r="B24" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="C24" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="45">
+      <c r="D24" s="19"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="41">
         <v>8</v>
       </c>
-      <c r="G24" s="20"/>
+      <c r="G24" s="19"/>
     </row>
     <row r="25" ht="16.5" spans="1:7">
-      <c r="A25" s="18"/>
+      <c r="A25" s="40"/>
       <c r="B25" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C25" s="32" t="s">
+      <c r="C25" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="D25" s="20"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="45">
+      <c r="D25" s="19"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="41">
         <v>9</v>
       </c>
-      <c r="G25" s="20"/>
+      <c r="G25" s="19"/>
     </row>
     <row r="26" ht="17.25" spans="1:7">
-      <c r="A26" s="24"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="47">
+      <c r="A26" s="42"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="51">
         <v>10</v>
       </c>
-      <c r="G26" s="35"/>
+      <c r="G26" s="24"/>
     </row>
     <row r="27" ht="17.25" spans="1:7">
-      <c r="A27" s="38"/>
-      <c r="B27" s="39" t="s">
+      <c r="A27" s="31"/>
+      <c r="B27" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="48"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="52"/>
     </row>
     <row r="29" ht="18" spans="1:7">
       <c r="A29" s="2" t="s">
@@ -2477,7 +2571,7 @@
       </c>
     </row>
     <row r="31" ht="16.5" spans="1:7">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="37" t="s">
         <v>19</v>
       </c>
       <c r="B31" s="13" t="s">
@@ -2486,150 +2580,150 @@
       <c r="C31" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="43"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="44">
+      <c r="D31" s="38"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="39">
         <v>1</v>
       </c>
-      <c r="G31" s="58" t="s">
+      <c r="G31" s="69" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="32" ht="16.5" spans="1:7">
-      <c r="A32" s="18"/>
-      <c r="B32" s="20" t="s">
+      <c r="A32" s="40"/>
+      <c r="B32" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D32" s="20"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="45">
+      <c r="D32" s="19"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="41">
         <v>2</v>
       </c>
-      <c r="G32" s="20" t="s">
+      <c r="G32" s="19" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="33" ht="16.5" spans="1:7">
-      <c r="A33" s="18"/>
-      <c r="B33" s="20" t="s">
+      <c r="A33" s="40"/>
+      <c r="B33" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C33" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D33" s="20"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="45">
+      <c r="D33" s="19"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="41">
         <v>3</v>
       </c>
-      <c r="G33" s="60" t="s">
+      <c r="G33" s="71" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="34" ht="17.25" spans="1:7">
-      <c r="A34" s="24"/>
-      <c r="B34" s="20" t="s">
+      <c r="A34" s="42"/>
+      <c r="B34" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D34" s="27"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="45">
+      <c r="D34" s="45"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="41">
         <v>4</v>
       </c>
-      <c r="G34" s="20"/>
+      <c r="G34" s="19"/>
     </row>
     <row r="35" ht="17.25" spans="1:7">
-      <c r="A35" s="28"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="45">
+      <c r="A35" s="46"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="41">
         <v>5</v>
       </c>
-      <c r="G35" s="20"/>
+      <c r="G35" s="19"/>
     </row>
     <row r="36" ht="17.25" spans="1:7">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="C36" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="D36" s="20"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="45">
+      <c r="D36" s="19"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="41">
         <v>6</v>
       </c>
-      <c r="G36" s="20"/>
+      <c r="G36" s="19"/>
     </row>
     <row r="37" ht="16.5" spans="1:7">
-      <c r="A37" s="18"/>
-      <c r="B37" s="43" t="s">
+      <c r="A37" s="40"/>
+      <c r="B37" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="C37" s="32" t="s">
+      <c r="C37" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="D37" s="20"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="45">
+      <c r="D37" s="19"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="41">
         <v>7</v>
       </c>
-      <c r="G37" s="20"/>
+      <c r="G37" s="19"/>
     </row>
     <row r="38" ht="16.5" spans="1:7">
-      <c r="A38" s="18"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="45">
+      <c r="A38" s="40"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="41">
         <v>8</v>
       </c>
-      <c r="G38" s="20"/>
+      <c r="G38" s="19"/>
     </row>
     <row r="39" ht="16.5" spans="1:7">
-      <c r="A39" s="18"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="45">
+      <c r="A39" s="40"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="41">
         <v>9</v>
       </c>
-      <c r="G39" s="20"/>
+      <c r="G39" s="19"/>
     </row>
     <row r="40" ht="17.25" spans="1:7">
-      <c r="A40" s="24"/>
-      <c r="B40" s="33"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="47">
+      <c r="A40" s="42"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="51">
         <v>10</v>
       </c>
-      <c r="G40" s="35"/>
+      <c r="G40" s="24"/>
     </row>
     <row r="41" ht="17.25" spans="1:7">
-      <c r="A41" s="38"/>
-      <c r="B41" s="39" t="s">
+      <c r="A41" s="31"/>
+      <c r="B41" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="40"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="48"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="52"/>
     </row>
     <row r="43" ht="18" spans="1:7">
       <c r="A43" s="2" t="s">
@@ -2664,169 +2758,169 @@
       </c>
     </row>
     <row r="45" ht="16.5" spans="1:7">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B45" s="20" t="s">
+      <c r="B45" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="C45" s="19" t="s">
+      <c r="C45" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D45" s="43"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="44">
+      <c r="D45" s="38"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="39">
         <v>1</v>
       </c>
-      <c r="G45" s="58" t="s">
+      <c r="G45" s="69" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="46" ht="33.75" spans="1:7">
-      <c r="A46" s="18"/>
+      <c r="A46" s="40"/>
       <c r="B46" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="C46" s="19" t="s">
+      <c r="C46" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D46" s="20" t="s">
+      <c r="D46" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="E46" s="21"/>
-      <c r="F46" s="45">
+      <c r="E46" s="20"/>
+      <c r="F46" s="41">
         <v>2</v>
       </c>
-      <c r="G46" s="20" t="s">
+      <c r="G46" s="19" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="47" ht="33.75" spans="1:7">
-      <c r="A47" s="18"/>
-      <c r="B47" s="43" t="s">
+      <c r="A47" s="40"/>
+      <c r="B47" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="C47" s="57" t="s">
+      <c r="C47" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="D47" s="27" t="s">
+      <c r="D47" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="E47" s="21"/>
-      <c r="F47" s="45">
+      <c r="E47" s="20"/>
+      <c r="F47" s="41">
         <v>3</v>
       </c>
-      <c r="G47" s="20"/>
+      <c r="G47" s="19"/>
     </row>
     <row r="48" ht="17.25" spans="1:7">
-      <c r="A48" s="24"/>
-      <c r="B48" s="43"/>
-      <c r="C48" s="57"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="45">
+      <c r="A48" s="42"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="68"/>
+      <c r="D48" s="45"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="41">
         <v>4</v>
       </c>
-      <c r="G48" s="20"/>
+      <c r="G48" s="19"/>
     </row>
     <row r="49" ht="17.25" spans="1:7">
-      <c r="A49" s="28"/>
-      <c r="B49" s="30"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="31"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="45">
+      <c r="A49" s="46"/>
+      <c r="B49" s="48"/>
+      <c r="C49" s="48"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="41">
         <v>5</v>
       </c>
-      <c r="G49" s="20"/>
+      <c r="G49" s="19"/>
     </row>
     <row r="50" ht="33" spans="1:7">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="37" t="s">
         <v>29</v>
       </c>
       <c r="B50" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C50" s="19" t="s">
+      <c r="C50" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="D50" s="20" t="s">
+      <c r="D50" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="E50" s="21"/>
-      <c r="F50" s="45">
+      <c r="E50" s="20"/>
+      <c r="F50" s="41">
         <v>6</v>
       </c>
-      <c r="G50" s="20"/>
+      <c r="G50" s="19"/>
     </row>
     <row r="51" ht="17.25" spans="1:7">
-      <c r="A51" s="18"/>
+      <c r="A51" s="40"/>
       <c r="B51" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C51" s="32" t="s">
+      <c r="C51" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="D51" s="20" t="s">
+      <c r="D51" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="E51" s="21"/>
-      <c r="F51" s="45">
+      <c r="E51" s="20"/>
+      <c r="F51" s="41">
         <v>7</v>
       </c>
-      <c r="G51" s="20"/>
+      <c r="G51" s="19"/>
     </row>
     <row r="52" ht="16.5" spans="1:7">
-      <c r="A52" s="18"/>
-      <c r="B52" s="43" t="s">
+      <c r="A52" s="40"/>
+      <c r="B52" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="C52" s="32" t="s">
+      <c r="C52" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="D52" s="20"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="45">
+      <c r="D52" s="19"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="41">
         <v>8</v>
       </c>
-      <c r="G52" s="20"/>
+      <c r="G52" s="19"/>
     </row>
     <row r="53" ht="16.5" spans="1:7">
-      <c r="A53" s="18"/>
+      <c r="A53" s="40"/>
       <c r="B53" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C53" s="19" t="s">
+      <c r="C53" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D53" s="20"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="45">
+      <c r="D53" s="19"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="41">
         <v>9</v>
       </c>
-      <c r="G53" s="20"/>
+      <c r="G53" s="19"/>
     </row>
     <row r="54" ht="17.25" spans="1:7">
-      <c r="A54" s="24"/>
-      <c r="B54" s="33"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="35"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="47">
+      <c r="A54" s="42"/>
+      <c r="B54" s="27"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="51">
         <v>10</v>
       </c>
-      <c r="G54" s="35"/>
+      <c r="G54" s="24"/>
     </row>
     <row r="55" ht="17.25" spans="1:7">
-      <c r="A55" s="38"/>
-      <c r="B55" s="39" t="s">
+      <c r="A55" s="31"/>
+      <c r="B55" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C55" s="40"/>
-      <c r="D55" s="40"/>
-      <c r="E55" s="40"/>
-      <c r="F55" s="40"/>
-      <c r="G55" s="48"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="52"/>
     </row>
     <row r="57" ht="18" spans="1:7">
       <c r="A57" s="2" t="s">
@@ -2861,179 +2955,179 @@
       </c>
     </row>
     <row r="59" ht="16.5" spans="1:7">
-      <c r="A59" s="12" t="s">
+      <c r="A59" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B59" s="49" t="s">
+      <c r="B59" s="53" t="s">
         <v>89</v>
       </c>
       <c r="C59" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D59" s="43" t="s">
+      <c r="D59" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="E59" s="21"/>
-      <c r="F59" s="44">
+      <c r="E59" s="20"/>
+      <c r="F59" s="39">
         <v>1</v>
       </c>
-      <c r="G59" s="58" t="s">
+      <c r="G59" s="69" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="60" ht="16.5" spans="1:7">
-      <c r="A60" s="18"/>
+      <c r="A60" s="40"/>
       <c r="B60" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="C60" s="19" t="s">
+      <c r="C60" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D60" s="20"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="45">
+      <c r="D60" s="19"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="41">
         <v>2</v>
       </c>
-      <c r="G60" s="60" t="s">
+      <c r="G60" s="71" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="61" ht="16.5" spans="1:7">
-      <c r="A61" s="18"/>
+      <c r="A61" s="40"/>
       <c r="B61" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C61" s="19" t="s">
+      <c r="C61" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="D61" s="20"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="45">
+      <c r="D61" s="19"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="41">
         <v>3</v>
       </c>
-      <c r="G61" s="60" t="s">
+      <c r="G61" s="71" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="62" ht="17.25" spans="1:7">
-      <c r="A62" s="24"/>
-      <c r="B62" s="25"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="27"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="45">
+      <c r="A62" s="42"/>
+      <c r="B62" s="43"/>
+      <c r="C62" s="44"/>
+      <c r="D62" s="45"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="41">
         <v>4</v>
       </c>
-      <c r="G62" s="60" t="s">
+      <c r="G62" s="71" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="63" ht="17.25" spans="1:7">
-      <c r="A63" s="28"/>
-      <c r="B63" s="29"/>
-      <c r="C63" s="30"/>
-      <c r="D63" s="31"/>
-      <c r="E63" s="21"/>
-      <c r="F63" s="45">
+      <c r="A63" s="46"/>
+      <c r="B63" s="47"/>
+      <c r="C63" s="48"/>
+      <c r="D63" s="49"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="41">
         <v>5</v>
       </c>
-      <c r="G63" s="60" t="s">
+      <c r="G63" s="71" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="64" ht="16.5" spans="1:7">
-      <c r="A64" s="12" t="s">
+      <c r="A64" s="37" t="s">
         <v>29</v>
       </c>
       <c r="B64" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="C64" s="19" t="s">
+      <c r="C64" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D64" s="20"/>
-      <c r="E64" s="21"/>
-      <c r="F64" s="45">
+      <c r="D64" s="19"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="41">
         <v>6</v>
       </c>
-      <c r="G64" s="60" t="s">
+      <c r="G64" s="71" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="65" ht="16.5" spans="1:7">
-      <c r="A65" s="18"/>
+      <c r="A65" s="40"/>
       <c r="B65" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="C65" s="32" t="s">
+      <c r="C65" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="D65" s="20"/>
-      <c r="E65" s="21"/>
-      <c r="F65" s="45">
+      <c r="D65" s="19"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="41">
         <v>7</v>
       </c>
-      <c r="G65" s="60" t="s">
+      <c r="G65" s="71" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="66" ht="16.5" spans="1:7">
-      <c r="A66" s="18"/>
+      <c r="A66" s="40"/>
       <c r="B66" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="C66" s="19" t="s">
+      <c r="C66" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D66" s="20"/>
-      <c r="E66" s="21"/>
-      <c r="F66" s="45">
+      <c r="D66" s="19"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="41">
         <v>8</v>
       </c>
-      <c r="G66" s="60" t="s">
+      <c r="G66" s="71" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="67" ht="16.5" spans="1:7">
-      <c r="A67" s="18"/>
+      <c r="A67" s="40"/>
       <c r="B67" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C67" s="19" t="s">
+      <c r="C67" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="D67" s="20"/>
-      <c r="E67" s="21"/>
-      <c r="F67" s="45">
+      <c r="D67" s="19"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="41">
         <v>9</v>
       </c>
-      <c r="G67" s="60"/>
+      <c r="G67" s="71"/>
     </row>
     <row r="68" ht="17.25" spans="1:7">
-      <c r="A68" s="24"/>
-      <c r="B68" s="33" t="s">
+      <c r="A68" s="42"/>
+      <c r="B68" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="C68" s="34" t="s">
+      <c r="C68" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="D68" s="35"/>
-      <c r="E68" s="21"/>
-      <c r="F68" s="47">
+      <c r="D68" s="24"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="51">
         <v>10</v>
       </c>
-      <c r="G68" s="62"/>
+      <c r="G68" s="73"/>
     </row>
     <row r="69" ht="17.25" spans="1:7">
-      <c r="A69" s="38"/>
-      <c r="B69" s="39" t="s">
+      <c r="A69" s="31"/>
+      <c r="B69" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C69" s="40"/>
-      <c r="D69" s="40"/>
-      <c r="E69" s="40"/>
-      <c r="F69" s="40"/>
-      <c r="G69" s="48"/>
+      <c r="C69" s="33"/>
+      <c r="D69" s="33"/>
+      <c r="E69" s="33"/>
+      <c r="F69" s="33"/>
+      <c r="G69" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="25">
@@ -3074,18 +3168,19 @@
   <sheetPr/>
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="G67" sqref="G67"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="2" width="20.375" customWidth="1"/>
-    <col min="3" max="3" width="38.5" customWidth="1"/>
-    <col min="4" max="4" width="28" customWidth="1"/>
-    <col min="5" max="5" width="5.875" customWidth="1"/>
-    <col min="7" max="7" width="31.375" customWidth="1"/>
-    <col min="8" max="8" width="40.875" customWidth="1"/>
+    <col min="1" max="1" width="5.625" customWidth="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="35.625" customWidth="1"/>
+    <col min="4" max="4" width="28.625" customWidth="1"/>
+    <col min="5" max="6" width="5.625" customWidth="1"/>
+    <col min="7" max="7" width="30.625" customWidth="1"/>
+    <col min="8" max="8" width="40.625" style="36" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" spans="1:7">
@@ -3120,8 +3215,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:7">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="37" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="13" t="s">
@@ -3130,172 +3225,172 @@
       <c r="C3" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="44">
+      <c r="D3" s="38"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="39">
         <v>1</v>
       </c>
-      <c r="G3" s="43" t="s">
+      <c r="G3" s="38" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="4" ht="66" spans="1:7">
-      <c r="A4" s="18"/>
+      <c r="A4" s="40"/>
       <c r="B4" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="45">
+      <c r="E4" s="20"/>
+      <c r="F4" s="41">
         <v>2</v>
       </c>
-      <c r="G4" s="46" t="s">
+      <c r="G4" s="25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:7">
-      <c r="A5" s="18"/>
+    <row r="5" spans="1:7">
+      <c r="A5" s="40"/>
       <c r="B5" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="45">
+      <c r="E5" s="20"/>
+      <c r="F5" s="41">
         <v>3</v>
       </c>
-      <c r="G5" s="46" t="s">
+      <c r="G5" s="25" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="6" ht="17.25" spans="1:7">
-      <c r="A6" s="24"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="45">
+      <c r="A6" s="42"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="41">
         <v>4</v>
       </c>
-      <c r="G6" s="46" t="s">
+      <c r="G6" s="25" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="7" ht="17.25" spans="1:7">
-      <c r="A7" s="28"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="45">
+      <c r="A7" s="46"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="41">
         <v>5</v>
       </c>
-      <c r="G7" s="46" t="s">
+      <c r="G7" s="25" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" ht="99" spans="1:7">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="37" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="45">
+      <c r="D8" s="19"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="41">
         <v>6</v>
       </c>
-      <c r="G8" s="46" t="s">
+      <c r="G8" s="25" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="9" ht="33" spans="1:7">
-      <c r="A9" s="18"/>
+      <c r="A9" s="40"/>
       <c r="B9" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="45">
+      <c r="E9" s="20"/>
+      <c r="F9" s="41">
         <v>7</v>
       </c>
-      <c r="G9" s="46"/>
+      <c r="G9" s="25"/>
     </row>
     <row r="10" ht="33" spans="1:7">
-      <c r="A10" s="18"/>
+      <c r="A10" s="40"/>
       <c r="B10" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="45">
+      <c r="E10" s="20"/>
+      <c r="F10" s="41">
         <v>8</v>
       </c>
-      <c r="G10" s="46"/>
-    </row>
-    <row r="11" ht="16.5" spans="1:7">
-      <c r="A11" s="18"/>
+      <c r="G10" s="25"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="40"/>
       <c r="B11" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="45">
+      <c r="D11" s="19"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="41">
         <v>9</v>
       </c>
-      <c r="G11" s="46"/>
+      <c r="G11" s="25"/>
     </row>
     <row r="12" ht="33.75" spans="1:7">
-      <c r="A12" s="24"/>
-      <c r="B12" s="33" t="s">
+      <c r="A12" s="42"/>
+      <c r="B12" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="D12" s="35"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="47">
+      <c r="D12" s="24"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="51">
         <v>10</v>
       </c>
-      <c r="G12" s="35"/>
+      <c r="G12" s="24"/>
     </row>
     <row r="13" ht="17.25" spans="1:7">
-      <c r="A13" s="38"/>
-      <c r="B13" s="39" t="s">
+      <c r="A13" s="31"/>
+      <c r="B13" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="48"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="52"/>
     </row>
     <row r="15" ht="18" spans="1:7">
       <c r="A15" s="2" t="s">
@@ -3329,158 +3424,158 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" ht="16.5" spans="1:7">
-      <c r="A17" s="12" t="s">
+    <row r="17" spans="1:7">
+      <c r="A17" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="38" t="s">
         <v>121</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D17" s="43"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="44">
+      <c r="D17" s="38"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="39">
         <v>1</v>
       </c>
-      <c r="G17" s="46" t="s">
+      <c r="G17" s="25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" ht="16.5" spans="1:7">
-      <c r="A18" s="18"/>
+    <row r="18" spans="1:7">
+      <c r="A18" s="40"/>
       <c r="B18" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="45">
+      <c r="D18" s="19"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="41">
         <v>2</v>
       </c>
-      <c r="G18" s="46" t="s">
+      <c r="G18" s="25" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="19" ht="16.5" spans="1:7">
-      <c r="A19" s="18"/>
+    <row r="19" spans="1:7">
+      <c r="A19" s="40"/>
       <c r="B19" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="45">
+      <c r="D19" s="19"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="41">
         <v>3</v>
       </c>
-      <c r="G19" s="46" t="s">
+      <c r="G19" s="25" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="20" ht="17.25" spans="1:7">
-      <c r="A20" s="24"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="45">
+      <c r="A20" s="42"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="41">
         <v>4</v>
       </c>
-      <c r="G20" s="46" t="s">
+      <c r="G20" s="25" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="21" ht="17.25" spans="1:7">
-      <c r="A21" s="28"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="45">
+      <c r="A21" s="46"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="41">
         <v>5</v>
       </c>
-      <c r="G21" s="46" t="s">
+      <c r="G21" s="25" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="22" ht="82.5" spans="1:7">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="37" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="E22" s="21"/>
-      <c r="F22" s="45">
+      <c r="E22" s="20"/>
+      <c r="F22" s="41">
         <v>6</v>
       </c>
-      <c r="G22" s="20"/>
-    </row>
-    <row r="23" ht="16.5" spans="1:7">
-      <c r="A23" s="18"/>
+      <c r="G22" s="19"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="40"/>
       <c r="B23" s="13"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="45">
+      <c r="C23" s="50"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="41">
         <v>7</v>
       </c>
-      <c r="G23" s="20"/>
-    </row>
-    <row r="24" ht="16.5" spans="1:7">
-      <c r="A24" s="18"/>
+      <c r="G23" s="19"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="40"/>
       <c r="B24" s="13"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="45">
+      <c r="C24" s="18"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="41">
         <v>8</v>
       </c>
-      <c r="G24" s="20"/>
-    </row>
-    <row r="25" ht="16.5" spans="1:7">
-      <c r="A25" s="18"/>
+      <c r="G24" s="19"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="40"/>
       <c r="B25" s="13"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="45">
+      <c r="C25" s="18"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="41">
         <v>9</v>
       </c>
-      <c r="G25" s="20"/>
+      <c r="G25" s="19"/>
     </row>
     <row r="26" ht="17.25" spans="1:7">
-      <c r="A26" s="24"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="47">
+      <c r="A26" s="42"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="51">
         <v>10</v>
       </c>
-      <c r="G26" s="35"/>
+      <c r="G26" s="24"/>
     </row>
     <row r="27" ht="17.25" spans="1:7">
-      <c r="A27" s="38"/>
-      <c r="B27" s="39" t="s">
+      <c r="A27" s="31"/>
+      <c r="B27" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="48"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="52"/>
     </row>
     <row r="29" ht="18" spans="1:7">
       <c r="A29" s="2" t="s">
@@ -3515,170 +3610,171 @@
       </c>
     </row>
     <row r="31" ht="33.75" spans="1:7">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="49" t="s">
+      <c r="B31" s="53" t="s">
         <v>129</v>
       </c>
       <c r="C31" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D31" s="43"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="44">
+      <c r="D31" s="38"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="39">
         <v>1</v>
       </c>
-      <c r="G31" s="43" t="s">
+      <c r="G31" s="38" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="32" ht="16.5" spans="1:7">
-      <c r="A32" s="18"/>
-      <c r="B32" s="49" t="s">
+    <row r="32" spans="1:7">
+      <c r="A32" s="40"/>
+      <c r="B32" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D32" s="20"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="45">
+      <c r="D32" s="19"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="41">
         <v>2</v>
       </c>
-      <c r="G32" s="46" t="s">
+      <c r="G32" s="25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="33" ht="16.5" spans="1:7">
-      <c r="A33" s="18"/>
+    <row r="33" spans="1:7">
+      <c r="A33" s="40"/>
       <c r="B33" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C33" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D33" s="20"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="45">
+      <c r="D33" s="19"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="41">
         <v>3</v>
       </c>
-      <c r="G33" s="46" t="s">
+      <c r="G33" s="25" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="34" ht="17.25" spans="1:7">
-      <c r="A34" s="24"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="45">
+      <c r="A34" s="42"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="41">
         <v>4</v>
       </c>
-      <c r="G34" s="46" t="s">
+      <c r="G34" s="25" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="35" ht="17.25" spans="1:7">
-      <c r="A35" s="28"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="45">
+      <c r="A35" s="46"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="41">
         <v>5</v>
       </c>
-      <c r="G35" s="46" t="s">
+      <c r="G35" s="25" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="36" ht="17.25" spans="1:7">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="25" t="s">
+      <c r="B36" s="43" t="s">
         <v>132</v>
       </c>
-      <c r="C36" s="26" t="s">
+      <c r="C36" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="D36" s="20"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="45">
+      <c r="D36" s="19"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="41">
         <v>6</v>
       </c>
-      <c r="G36" s="46" t="s">
+      <c r="G36" s="25" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="37" ht="33" spans="1:7">
-      <c r="A37" s="18"/>
+      <c r="A37" s="40"/>
       <c r="B37" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="C37" s="32" t="s">
+      <c r="C37" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="D37" s="20"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="45">
+      <c r="D37" s="19"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="41">
         <v>7</v>
       </c>
-      <c r="G37" s="20"/>
-    </row>
-    <row r="38" ht="16.5" spans="1:7">
-      <c r="A38" s="18"/>
+      <c r="G37" s="19"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="40"/>
       <c r="B38" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="C38" s="19" t="s">
+      <c r="C38" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D38" s="20"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="45">
+      <c r="D38" s="19"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="41">
         <v>8</v>
       </c>
-      <c r="G38" s="20"/>
-    </row>
-    <row r="39" ht="16.5" spans="1:7">
-      <c r="A39" s="18"/>
+      <c r="G38" s="19"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="40"/>
       <c r="B39" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="C39" s="19" t="s">
+      <c r="C39" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D39" s="20"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="45">
+      <c r="D39" s="19"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="41">
         <v>9</v>
       </c>
-      <c r="G39" s="20"/>
+      <c r="G39" s="19"/>
     </row>
     <row r="40" ht="17.25" spans="1:7">
-      <c r="A40" s="24"/>
-      <c r="B40" s="33"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="47">
+      <c r="A40" s="42"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="51">
         <v>10</v>
       </c>
-      <c r="G40" s="35"/>
+      <c r="G40" s="24"/>
     </row>
     <row r="41" ht="17.25" spans="1:7">
-      <c r="A41" s="38"/>
-      <c r="B41" s="39" t="s">
+      <c r="A41" s="31"/>
+      <c r="B41" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="40"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="48"/>
-    </row>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="52"/>
+    </row>
+    <row r="42" ht="17.25"/>
     <row r="43" ht="18" spans="1:8">
       <c r="A43" s="2" t="s">
         <v>135</v>
@@ -3691,7 +3787,7 @@
         <v>136</v>
       </c>
       <c r="G43" s="4"/>
-      <c r="H43" s="50" t="s">
+      <c r="H43" s="54" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3713,189 +3809,189 @@
       <c r="G44" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H44" s="51"/>
+      <c r="H44" s="55"/>
     </row>
     <row r="45" ht="33" spans="1:8">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B45" s="49" t="s">
+      <c r="B45" s="53" t="s">
         <v>138</v>
       </c>
       <c r="C45" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D45" s="43"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="44">
+      <c r="D45" s="38"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="39">
         <v>1</v>
       </c>
-      <c r="G45" s="43" t="s">
+      <c r="G45" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="H45" s="51"/>
+      <c r="H45" s="55"/>
     </row>
     <row r="46" ht="33" spans="1:8">
-      <c r="A46" s="18"/>
+      <c r="A46" s="40"/>
       <c r="B46" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="C46" s="19" t="s">
+      <c r="C46" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D46" s="20"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="45">
+      <c r="D46" s="19"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="41">
         <v>2</v>
       </c>
-      <c r="G46" s="46" t="s">
+      <c r="G46" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="H46" s="51"/>
+      <c r="H46" s="55"/>
     </row>
     <row r="47" ht="33" spans="1:8">
-      <c r="A47" s="18"/>
+      <c r="A47" s="40"/>
       <c r="B47" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="C47" s="19" t="s">
+      <c r="C47" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="D47" s="20"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="45">
+      <c r="D47" s="19"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="41">
         <v>3</v>
       </c>
-      <c r="G47" s="46" t="s">
+      <c r="G47" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="H47" s="51"/>
+      <c r="H47" s="55"/>
     </row>
     <row r="48" ht="17.25" spans="1:8">
-      <c r="A48" s="24"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="45">
+      <c r="A48" s="42"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="45"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="41">
         <v>4</v>
       </c>
-      <c r="G48" s="46" t="s">
+      <c r="G48" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="H48" s="51"/>
+      <c r="H48" s="55"/>
     </row>
     <row r="49" ht="17.25" spans="1:8">
-      <c r="A49" s="28"/>
-      <c r="B49" s="29"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="31"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="45">
+      <c r="A49" s="46"/>
+      <c r="B49" s="47"/>
+      <c r="C49" s="48"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="41">
         <v>5</v>
       </c>
-      <c r="G49" s="46" t="s">
+      <c r="G49" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="H49" s="51"/>
+      <c r="H49" s="55"/>
     </row>
     <row r="50" ht="33" spans="1:8">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="37" t="s">
         <v>29</v>
       </c>
       <c r="B50" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C50" s="19" t="s">
+      <c r="C50" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="D50" s="20" t="s">
+      <c r="D50" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="E50" s="21"/>
-      <c r="F50" s="45">
+      <c r="E50" s="20"/>
+      <c r="F50" s="41">
         <v>6</v>
       </c>
-      <c r="G50" s="46" t="s">
+      <c r="G50" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="H50" s="51"/>
-    </row>
-    <row r="51" ht="16.5" spans="1:8">
-      <c r="A51" s="18"/>
+      <c r="H50" s="55"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="40"/>
       <c r="B51" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="C51" s="32" t="s">
+      <c r="C51" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="D51" s="20" t="s">
+      <c r="D51" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="E51" s="21"/>
-      <c r="F51" s="45">
+      <c r="E51" s="20"/>
+      <c r="F51" s="41">
         <v>7</v>
       </c>
-      <c r="G51" s="23"/>
-      <c r="H51" s="51"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="55"/>
     </row>
     <row r="52" ht="49.5" spans="1:8">
-      <c r="A52" s="18"/>
+      <c r="A52" s="40"/>
       <c r="B52" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="C52" s="19" t="s">
+      <c r="C52" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D52" s="20"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="45">
+      <c r="D52" s="19"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="41">
         <v>8</v>
       </c>
-      <c r="G52" s="23"/>
-      <c r="H52" s="51"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="55"/>
     </row>
     <row r="53" ht="33" spans="1:8">
-      <c r="A53" s="18"/>
+      <c r="A53" s="40"/>
       <c r="B53" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="C53" s="19" t="s">
+      <c r="C53" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="D53" s="20"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="45">
+      <c r="D53" s="19"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="41">
         <v>9</v>
       </c>
-      <c r="G53" s="23"/>
-      <c r="H53" s="51"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="55"/>
     </row>
     <row r="54" ht="17.25" spans="1:8">
-      <c r="A54" s="24"/>
-      <c r="B54" s="33"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="35"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="47">
+      <c r="A54" s="42"/>
+      <c r="B54" s="27"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="51">
         <v>10</v>
       </c>
-      <c r="G54" s="37"/>
-      <c r="H54" s="51"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="55"/>
     </row>
     <row r="55" ht="17.25" spans="1:8">
-      <c r="A55" s="38"/>
-      <c r="B55" s="39" t="s">
+      <c r="A55" s="31"/>
+      <c r="B55" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C55" s="40"/>
-      <c r="D55" s="40"/>
-      <c r="E55" s="40"/>
-      <c r="F55" s="40"/>
-      <c r="G55" s="40"/>
-      <c r="H55" s="52"/>
-    </row>
-    <row r="56" ht="14.25"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="56"/>
+    </row>
+    <row r="56" ht="17.25"/>
     <row r="57" ht="18.75" spans="1:8">
       <c r="A57" s="2" t="s">
         <v>150</v>
@@ -3908,7 +4004,7 @@
         <v>151</v>
       </c>
       <c r="G57" s="4"/>
-      <c r="H57" s="5" t="s">
+      <c r="H57" s="57" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3923,18 +4019,16 @@
       <c r="D58" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="8"/>
-      <c r="F58" s="6" t="s">
-        <v>1</v>
-      </c>
+      <c r="E58" s="7"/>
+      <c r="F58" s="9"/>
       <c r="G58" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H58" s="11"/>
-    </row>
-    <row r="59" ht="17.25" spans="1:8">
-      <c r="A59" s="12" t="s">
-        <v>19</v>
+      <c r="H58" s="58"/>
+    </row>
+    <row r="59" ht="50.25" spans="1:8">
+      <c r="A59" s="12">
+        <v>1</v>
       </c>
       <c r="B59" s="13" t="s">
         <v>145</v>
@@ -3945,151 +4039,193 @@
       <c r="D59" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="E59" s="16"/>
-      <c r="F59" s="53">
+      <c r="E59" s="59"/>
+      <c r="F59" s="12">
         <v>1</v>
       </c>
-      <c r="G59" s="15"/>
-      <c r="H59" s="11"/>
-    </row>
-    <row r="60" ht="16.5" spans="1:8">
-      <c r="A60" s="18"/>
+      <c r="G59" s="60" t="s">
+        <v>130</v>
+      </c>
+      <c r="H59" s="58"/>
+    </row>
+    <row r="60" ht="18" spans="1:8">
+      <c r="A60" s="17">
+        <v>2</v>
+      </c>
       <c r="B60" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="C60" s="19" t="s">
+      <c r="C60" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="D60" s="20" t="s">
+      <c r="D60" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="E60" s="21"/>
-      <c r="F60" s="45">
+      <c r="E60" s="59"/>
+      <c r="F60" s="61">
         <v>2</v>
       </c>
-      <c r="G60" s="23"/>
-      <c r="H60" s="11"/>
-    </row>
-    <row r="61" ht="33" spans="1:8">
-      <c r="A61" s="18"/>
-      <c r="B61" s="13" t="s">
+      <c r="G60" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="H60" s="58"/>
+    </row>
+    <row r="61" ht="34.5" spans="1:8">
+      <c r="A61" s="17">
+        <v>3</v>
+      </c>
+      <c r="B61" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="C61" s="19"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="45">
+      <c r="C61" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D61" s="62" t="s">
+        <v>152</v>
+      </c>
+      <c r="E61" s="59"/>
+      <c r="F61" s="61">
         <v>3</v>
       </c>
-      <c r="G61" s="23"/>
-      <c r="H61" s="11"/>
-    </row>
-    <row r="62" ht="17.25" spans="1:8">
-      <c r="A62" s="24"/>
-      <c r="B62" s="25" t="s">
+      <c r="G61" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="H61" s="58"/>
+    </row>
+    <row r="62" ht="18" spans="1:8">
+      <c r="A62" s="23">
+        <v>4</v>
+      </c>
+      <c r="B62" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="C62" s="26"/>
-      <c r="D62" s="27"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="45">
+      <c r="C62" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D62" s="63" t="s">
+        <v>158</v>
+      </c>
+      <c r="E62" s="59"/>
+      <c r="F62" s="61">
         <v>4</v>
       </c>
-      <c r="G62" s="23"/>
-      <c r="H62" s="11"/>
-    </row>
-    <row r="63" ht="17.25" spans="1:8">
-      <c r="A63" s="28"/>
-      <c r="B63" s="29"/>
-      <c r="C63" s="30"/>
-      <c r="D63" s="31"/>
-      <c r="E63" s="21"/>
-      <c r="F63" s="45">
+      <c r="G62" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="H62" s="58"/>
+    </row>
+    <row r="63" ht="18" spans="1:8">
+      <c r="A63" s="23">
         <v>5</v>
       </c>
-      <c r="G63" s="23"/>
-      <c r="H63" s="11"/>
-    </row>
-    <row r="64" ht="16.5" spans="1:8">
-      <c r="A64" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B64" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="C64" s="19"/>
-      <c r="D64" s="20" t="s">
+      <c r="B63" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="E64" s="21"/>
-      <c r="F64" s="45">
+      <c r="C63" s="18"/>
+      <c r="D63" s="62"/>
+      <c r="E63" s="59"/>
+      <c r="F63" s="61">
+        <v>5</v>
+      </c>
+      <c r="G63" s="62" t="s">
+        <v>30</v>
+      </c>
+      <c r="H63" s="58"/>
+    </row>
+    <row r="64" ht="18" spans="1:8">
+      <c r="A64" s="23">
         <v>6</v>
       </c>
-      <c r="G64" s="23"/>
-      <c r="H64" s="11"/>
-    </row>
-    <row r="65" ht="16.5" spans="1:8">
-      <c r="A65" s="18"/>
-      <c r="B65" s="13"/>
-      <c r="C65" s="32"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="21"/>
-      <c r="F65" s="45">
+      <c r="B64" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="C64" s="18"/>
+      <c r="D64" s="62" t="s">
+        <v>161</v>
+      </c>
+      <c r="E64" s="59"/>
+      <c r="F64" s="61">
+        <v>6</v>
+      </c>
+      <c r="G64" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="H64" s="58"/>
+    </row>
+    <row r="65" ht="34.5" spans="1:8">
+      <c r="A65" s="17">
         <v>7</v>
       </c>
-      <c r="G65" s="23"/>
-      <c r="H65" s="11"/>
-    </row>
-    <row r="66" ht="16.5" spans="1:8">
-      <c r="A66" s="18"/>
-      <c r="B66" s="13"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="21"/>
-      <c r="F66" s="45">
+      <c r="B65" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="C65" s="18"/>
+      <c r="D65" s="62" t="s">
+        <v>161</v>
+      </c>
+      <c r="E65" s="59"/>
+      <c r="F65" s="61">
+        <v>7</v>
+      </c>
+      <c r="G65" s="21"/>
+      <c r="H65" s="58"/>
+    </row>
+    <row r="66" ht="18" spans="1:8">
+      <c r="A66" s="17">
         <v>8</v>
       </c>
-      <c r="G66" s="23"/>
-      <c r="H66" s="11"/>
-    </row>
-    <row r="67" ht="16.5" spans="1:8">
-      <c r="A67" s="18"/>
+      <c r="B66" s="22"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="59"/>
+      <c r="F66" s="61">
+        <v>8</v>
+      </c>
+      <c r="G66" s="21"/>
+      <c r="H66" s="58"/>
+    </row>
+    <row r="67" ht="18" spans="1:8">
+      <c r="A67" s="17">
+        <v>9</v>
+      </c>
       <c r="B67" s="13"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="21"/>
-      <c r="F67" s="45">
+      <c r="C67" s="18"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="59"/>
+      <c r="F67" s="61">
         <v>9</v>
       </c>
-      <c r="G67" s="23"/>
-      <c r="H67" s="11"/>
+      <c r="G67" s="21"/>
+      <c r="H67" s="58"/>
     </row>
     <row r="68" ht="17.25" spans="1:8">
-      <c r="A68" s="24"/>
-      <c r="B68" s="33"/>
-      <c r="C68" s="34"/>
-      <c r="D68" s="35"/>
-      <c r="E68" s="21"/>
-      <c r="F68" s="47">
+      <c r="A68" s="17">
         <v>10</v>
       </c>
-      <c r="G68" s="37"/>
-      <c r="H68" s="11"/>
+      <c r="B68" s="27"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="30"/>
+      <c r="E68" s="59"/>
+      <c r="F68" s="64">
+        <v>10</v>
+      </c>
+      <c r="G68" s="30"/>
+      <c r="H68" s="58"/>
     </row>
     <row r="69" ht="17.25" spans="1:8">
-      <c r="A69" s="38"/>
-      <c r="B69" s="39" t="s">
+      <c r="A69" s="31"/>
+      <c r="B69" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C69" s="40"/>
-      <c r="D69" s="40"/>
-      <c r="E69" s="40"/>
-      <c r="F69" s="40"/>
-      <c r="G69" s="40"/>
-      <c r="H69" s="54"/>
+      <c r="C69" s="33"/>
+      <c r="D69" s="33"/>
+      <c r="E69" s="33"/>
+      <c r="F69" s="34"/>
+      <c r="G69" s="33"/>
+      <c r="H69" s="65"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="26">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="B13:G13"/>
@@ -4113,8 +4249,7 @@
     <mergeCell ref="A36:A40"/>
     <mergeCell ref="A45:A48"/>
     <mergeCell ref="A50:A54"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="E59:E68"/>
     <mergeCell ref="H43:H55"/>
     <mergeCell ref="H57:H69"/>
   </mergeCells>
@@ -4130,7 +4265,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A1" sqref="A1:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -4147,14 +4282,14 @@
   <sheetData>
     <row r="1" ht="18.75" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
       <c r="F1" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="5"/>
@@ -4180,148 +4315,162 @@
       <c r="H2" s="11"/>
     </row>
     <row r="3" ht="17.25" spans="1:8">
-      <c r="A3" s="12" t="s">
-        <v>19</v>
+      <c r="A3" s="12">
+        <v>1</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="14"/>
       <c r="D3" s="15"/>
       <c r="E3" s="16"/>
-      <c r="F3" s="17">
+      <c r="F3" s="12">
         <v>1</v>
       </c>
       <c r="G3" s="15"/>
       <c r="H3" s="11"/>
     </row>
     <row r="4" ht="16.5" spans="1:8">
-      <c r="A4" s="18"/>
+      <c r="A4" s="17">
+        <v>2</v>
+      </c>
       <c r="B4" s="13"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="22">
+      <c r="C4" s="18"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="17">
         <v>2</v>
       </c>
-      <c r="G4" s="23"/>
+      <c r="G4" s="21"/>
       <c r="H4" s="11"/>
     </row>
     <row r="5" ht="16.5" spans="1:8">
-      <c r="A5" s="18"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="22">
+      <c r="A5" s="17">
         <v>3</v>
       </c>
-      <c r="G5" s="23"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="17">
+        <v>3</v>
+      </c>
+      <c r="G5" s="21"/>
       <c r="H5" s="11"/>
     </row>
-    <row r="6" ht="17.25" spans="1:8">
-      <c r="A6" s="24"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="22">
+    <row r="6" ht="16.5" spans="1:8">
+      <c r="A6" s="23">
         <v>4</v>
       </c>
-      <c r="G6" s="23"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="17">
+        <v>4</v>
+      </c>
+      <c r="G6" s="21"/>
       <c r="H6" s="11"/>
     </row>
     <row r="7" ht="17.25" spans="1:8">
-      <c r="A7" s="28"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="22">
+      <c r="A7" s="23">
         <v>5</v>
       </c>
-      <c r="G7" s="23"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="17">
+        <v>5</v>
+      </c>
+      <c r="G7" s="21"/>
       <c r="H7" s="11"/>
     </row>
     <row r="8" ht="16.5" spans="1:8">
-      <c r="A8" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="22">
+      <c r="A8" s="23">
         <v>6</v>
       </c>
-      <c r="G8" s="23"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="17">
+        <v>6</v>
+      </c>
+      <c r="G8" s="21"/>
       <c r="H8" s="11"/>
     </row>
     <row r="9" ht="16.5" spans="1:8">
-      <c r="A9" s="18"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="22">
+      <c r="A9" s="17">
         <v>7</v>
       </c>
-      <c r="G9" s="23"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="17">
+        <v>7</v>
+      </c>
+      <c r="G9" s="21"/>
       <c r="H9" s="11"/>
     </row>
     <row r="10" ht="16.5" spans="1:8">
-      <c r="A10" s="18"/>
+      <c r="A10" s="17">
+        <v>8</v>
+      </c>
       <c r="B10" s="13"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="22">
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="17">
         <v>8</v>
       </c>
-      <c r="G10" s="23"/>
+      <c r="G10" s="21"/>
       <c r="H10" s="11"/>
     </row>
     <row r="11" ht="16.5" spans="1:8">
-      <c r="A11" s="18"/>
+      <c r="A11" s="17">
+        <v>9</v>
+      </c>
       <c r="B11" s="13"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="22">
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="17">
         <v>9</v>
       </c>
-      <c r="G11" s="23"/>
+      <c r="G11" s="21"/>
       <c r="H11" s="11"/>
     </row>
     <row r="12" ht="17.25" spans="1:8">
-      <c r="A12" s="24"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="36">
+      <c r="A12" s="17">
         <v>10</v>
       </c>
-      <c r="G12" s="37"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="29">
+        <v>10</v>
+      </c>
+      <c r="G12" s="30"/>
       <c r="H12" s="11"/>
     </row>
     <row r="13" ht="17.25" spans="1:8">
-      <c r="A13" s="38"/>
-      <c r="B13" s="39" t="s">
+      <c r="A13" s="31"/>
+      <c r="B13" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="42"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="B13:G13"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A8:A12"/>
     <mergeCell ref="H1:H13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/working/工作日志.杨炜.3月份.xlsx
+++ b/working/工作日志.杨炜.3月份.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168">
   <si>
     <t>下周计划</t>
   </si>
@@ -520,10 +520,22 @@
     <t>分裂出当前首页首屏轮播</t>
   </si>
   <si>
+    <t>寻求更好的，官网代码太冗余</t>
+  </si>
+  <si>
     <t>对网站首页进行切图</t>
   </si>
   <si>
     <t>已接收psd文档</t>
+  </si>
+  <si>
+    <t>寻找合适的首页首屏轮播</t>
+  </si>
+  <si>
+    <t>已找到</t>
+  </si>
+  <si>
+    <t>ck_slide，存放于Github</t>
   </si>
   <si>
     <t>日工作日志（周）</t>
@@ -3169,7 +3181,7 @@
   <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
@@ -4121,8 +4133,12 @@
       <c r="B63" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="C63" s="18"/>
-      <c r="D63" s="62"/>
+      <c r="C63" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="D63" s="62" t="s">
+        <v>160</v>
+      </c>
       <c r="E63" s="59"/>
       <c r="F63" s="61">
         <v>5</v>
@@ -4137,11 +4153,11 @@
         <v>6</v>
       </c>
       <c r="B64" s="22" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C64" s="18"/>
       <c r="D64" s="62" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E64" s="59"/>
       <c r="F64" s="61">
@@ -4161,7 +4177,7 @@
       </c>
       <c r="C65" s="18"/>
       <c r="D65" s="62" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E65" s="59"/>
       <c r="F65" s="61">
@@ -4174,9 +4190,15 @@
       <c r="A66" s="17">
         <v>8</v>
       </c>
-      <c r="B66" s="22"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="21"/>
+      <c r="B66" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="C66" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="D66" s="21" t="s">
+        <v>165</v>
+      </c>
       <c r="E66" s="59"/>
       <c r="F66" s="61">
         <v>8</v>
@@ -4282,14 +4304,14 @@
   <sheetData>
     <row r="1" ht="18.75" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
       <c r="F1" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="5"/>

--- a/working/工作日志.杨炜.3月份.xlsx
+++ b/working/工作日志.杨炜.3月份.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171">
   <si>
     <t>下周计划</t>
   </si>
@@ -536,6 +536,15 @@
   </si>
   <si>
     <t>ck_slide，存放于Github</t>
+  </si>
+  <si>
+    <t>修正页面顶部显示</t>
+  </si>
+  <si>
+    <t>已接收文件</t>
+  </si>
+  <si>
+    <t>添加首页轮播</t>
   </si>
   <si>
     <t>日工作日志（周）</t>
@@ -3180,8 +3189,8 @@
   <sheetPr/>
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="K59" sqref="K59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
@@ -4155,7 +4164,9 @@
       <c r="B64" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="C64" s="18"/>
+      <c r="C64" s="18" t="s">
+        <v>31</v>
+      </c>
       <c r="D64" s="62" t="s">
         <v>162</v>
       </c>
@@ -4175,7 +4186,9 @@
       <c r="B65" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="C65" s="18"/>
+      <c r="C65" s="18" t="s">
+        <v>67</v>
+      </c>
       <c r="D65" s="62" t="s">
         <v>162</v>
       </c>
@@ -4210,9 +4223,15 @@
       <c r="A67" s="17">
         <v>9</v>
       </c>
-      <c r="B67" s="13"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="21"/>
+      <c r="B67" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="C67" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D67" s="21" t="s">
+        <v>167</v>
+      </c>
       <c r="E67" s="59"/>
       <c r="F67" s="61">
         <v>9</v>
@@ -4220,12 +4239,16 @@
       <c r="G67" s="21"/>
       <c r="H67" s="58"/>
     </row>
-    <row r="68" ht="17.25" spans="1:8">
+    <row r="68" ht="18" spans="1:8">
       <c r="A68" s="17">
         <v>10</v>
       </c>
-      <c r="B68" s="27"/>
-      <c r="C68" s="28"/>
+      <c r="B68" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="C68" s="28" t="s">
+        <v>31</v>
+      </c>
       <c r="D68" s="30"/>
       <c r="E68" s="59"/>
       <c r="F68" s="64">
@@ -4304,14 +4327,14 @@
   <sheetData>
     <row r="1" ht="18.75" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
       <c r="F1" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="5"/>

--- a/working/工作日志.杨炜.3月份.xlsx
+++ b/working/工作日志.杨炜.3月份.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179">
   <si>
     <t>下周计划</t>
   </si>
@@ -547,6 +547,36 @@
     <t>添加首页轮播</t>
   </si>
   <si>
+    <t>30日工作日志（周一）</t>
+  </si>
+  <si>
+    <t>31日工作计划（周二）</t>
+  </si>
+  <si>
+    <t>html\site\announcein.html
+html\site\mediain.html
+html\site\newsin.html
+html\site\news.html
+html\site\active\newbieguide.html
+html\js\active\newbieguide.min.js
+html\css\下所有文件都已更改</t>
+  </si>
+  <si>
+    <t>对头部进行优化</t>
+  </si>
+  <si>
+    <t>仅在资讯中心-媒体报道列表页中修改</t>
+  </si>
+  <si>
+    <t>安装本地和远程测试环境</t>
+  </si>
+  <si>
+    <t>下载Chrome Hostadmin并安装</t>
+  </si>
+  <si>
+    <t>让线下测试域名与官网一致，并快速切换线上线下Host</t>
+  </si>
+  <si>
     <t>日工作日志（周）</t>
   </si>
   <si>
@@ -558,10 +588,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -1126,7 +1156,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1235,9 +1265,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1303,6 +1330,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1740,188 +1773,188 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="4.625" style="74" customWidth="1"/>
-    <col min="2" max="2" width="32.125" style="74" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="74" customWidth="1"/>
-    <col min="4" max="5" width="9" style="74"/>
-    <col min="6" max="6" width="15.625" style="74" customWidth="1"/>
-    <col min="7" max="7" width="16.875" style="74" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="74"/>
+    <col min="1" max="1" width="4.625" style="75" customWidth="1"/>
+    <col min="2" max="2" width="32.125" style="75" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="75" customWidth="1"/>
+    <col min="4" max="5" width="9" style="75"/>
+    <col min="6" max="6" width="15.625" style="75" customWidth="1"/>
+    <col min="7" max="7" width="16.875" style="75" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="75"/>
   </cols>
   <sheetData>
     <row r="1" ht="21.75" customHeight="1" spans="1:7">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
     </row>
     <row r="2" ht="33" customHeight="1" spans="1:7">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="83" t="s">
+      <c r="C2" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
     </row>
     <row r="3" ht="16.5" spans="1:7">
-      <c r="A3" s="82"/>
-      <c r="B3" s="83"/>
-      <c r="C3" s="84" t="s">
+      <c r="A3" s="83"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="84" t="s">
+      <c r="D3" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="84" t="s">
+      <c r="F3" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="84" t="s">
+      <c r="G3" s="85" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:7">
-      <c r="A4" s="85">
+      <c r="A4" s="86">
         <v>1</v>
       </c>
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
     </row>
     <row r="5" ht="16.5" spans="1:7">
-      <c r="A5" s="85">
+      <c r="A5" s="86">
         <v>2</v>
       </c>
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="85"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
     </row>
     <row r="6" ht="16.5" spans="1:7">
-      <c r="A6" s="85">
+      <c r="A6" s="86">
         <v>3</v>
       </c>
-      <c r="B6" s="85" t="s">
+      <c r="B6" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="85"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
     </row>
     <row r="7" ht="16.5" spans="1:7">
-      <c r="A7" s="85">
+      <c r="A7" s="86">
         <v>4</v>
       </c>
-      <c r="B7" s="85" t="s">
+      <c r="B7" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="85"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
     </row>
     <row r="8" ht="16.5" spans="1:7">
-      <c r="A8" s="85"/>
-      <c r="B8" s="85" t="s">
+      <c r="A8" s="86"/>
+      <c r="B8" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="85"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87"/>
     </row>
     <row r="9" ht="16.5" spans="1:7">
-      <c r="A9" s="85"/>
-      <c r="B9" s="85"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
+      <c r="A9" s="86"/>
+      <c r="B9" s="86"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="87"/>
     </row>
     <row r="10" ht="16.5" spans="1:7">
-      <c r="A10" s="85"/>
-      <c r="B10" s="85"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="86"/>
+      <c r="A10" s="86"/>
+      <c r="B10" s="86"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
     </row>
     <row r="11" ht="16.5" spans="1:7">
-      <c r="A11" s="85"/>
-      <c r="B11" s="85"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
+      <c r="A11" s="86"/>
+      <c r="B11" s="86"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="87"/>
     </row>
     <row r="12" ht="16.5" spans="1:7">
-      <c r="A12" s="85"/>
-      <c r="B12" s="85"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="86"/>
+      <c r="A12" s="86"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="87"/>
     </row>
     <row r="13" ht="16.5" spans="1:7">
-      <c r="A13" s="85"/>
-      <c r="B13" s="85"/>
-      <c r="C13" s="85"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="86"/>
+      <c r="A13" s="86"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
     </row>
     <row r="14" ht="16.5" spans="1:7">
-      <c r="A14" s="85"/>
-      <c r="B14" s="85"/>
-      <c r="C14" s="85"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="86"/>
+      <c r="A14" s="86"/>
+      <c r="B14" s="86"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="87"/>
     </row>
     <row r="15" ht="16.5" spans="1:7">
-      <c r="A15" s="85"/>
-      <c r="B15" s="85"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="86"/>
+      <c r="A15" s="86"/>
+      <c r="B15" s="86"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="87"/>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="87" t="s">
+      <c r="B17" s="88" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1949,9 +1982,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="19.125" style="74" customWidth="1"/>
+    <col min="2" max="2" width="19.125" style="75" customWidth="1"/>
     <col min="3" max="3" width="47.25" customWidth="1"/>
-    <col min="4" max="4" width="21" style="74" customWidth="1"/>
+    <col min="4" max="4" width="21" style="75" customWidth="1"/>
     <col min="5" max="5" width="6.75" customWidth="1"/>
     <col min="7" max="7" width="35.625" customWidth="1"/>
   </cols>
@@ -1989,157 +2022,157 @@
       </c>
     </row>
     <row r="3" ht="28.5" spans="1:7">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="75" t="s">
+      <c r="D3" s="76" t="s">
         <v>22</v>
       </c>
       <c r="E3" s="20"/>
-      <c r="F3" s="39">
+      <c r="F3" s="38">
         <v>1</v>
       </c>
-      <c r="G3" s="38"/>
+      <c r="G3" s="37"/>
     </row>
     <row r="4" ht="28.5" spans="1:7">
-      <c r="A4" s="40"/>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="39"/>
+      <c r="B4" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="76" t="s">
+      <c r="C4" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="75" t="s">
+      <c r="D4" s="76" t="s">
         <v>25</v>
       </c>
       <c r="E4" s="20"/>
-      <c r="F4" s="41">
+      <c r="F4" s="40">
         <v>2</v>
       </c>
       <c r="G4" s="19"/>
     </row>
     <row r="5" ht="42.75" spans="1:7">
-      <c r="A5" s="40"/>
-      <c r="B5" s="75" t="s">
+      <c r="A5" s="39"/>
+      <c r="B5" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="76" t="s">
+      <c r="C5" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="75" t="s">
+      <c r="D5" s="76" t="s">
         <v>28</v>
       </c>
       <c r="E5" s="20"/>
-      <c r="F5" s="41">
+      <c r="F5" s="40">
         <v>3</v>
       </c>
       <c r="G5" s="19"/>
     </row>
     <row r="6" ht="17.25" spans="1:7">
-      <c r="A6" s="42"/>
-      <c r="B6" s="67"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="45"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="44"/>
       <c r="E6" s="20"/>
-      <c r="F6" s="41">
+      <c r="F6" s="40">
         <v>4</v>
       </c>
       <c r="G6" s="19"/>
     </row>
     <row r="7" ht="17.25" spans="1:7">
-      <c r="A7" s="46"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="49"/>
+      <c r="A7" s="45"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="48"/>
       <c r="E7" s="20"/>
-      <c r="F7" s="41">
+      <c r="F7" s="40">
         <v>5</v>
       </c>
       <c r="G7" s="19"/>
     </row>
     <row r="8" ht="16.5" spans="1:7">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="77" t="s">
+      <c r="B8" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="78" t="s">
+      <c r="C8" s="79" t="s">
         <v>31</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="20"/>
-      <c r="F8" s="41">
+      <c r="F8" s="40">
         <v>6</v>
       </c>
       <c r="G8" s="19"/>
     </row>
     <row r="9" ht="28.5" spans="1:7">
-      <c r="A9" s="40"/>
-      <c r="B9" s="75" t="s">
+      <c r="A9" s="39"/>
+      <c r="B9" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="76" t="s">
+      <c r="C9" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="75" t="s">
+      <c r="D9" s="76" t="s">
         <v>34</v>
       </c>
       <c r="E9" s="20"/>
-      <c r="F9" s="41">
+      <c r="F9" s="40">
         <v>7</v>
       </c>
       <c r="G9" s="19"/>
     </row>
     <row r="10" ht="16.5" spans="1:7">
-      <c r="A10" s="40"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="13"/>
       <c r="C10" s="18"/>
       <c r="D10" s="19"/>
       <c r="E10" s="20"/>
-      <c r="F10" s="41">
+      <c r="F10" s="40">
         <v>8</v>
       </c>
       <c r="G10" s="19"/>
     </row>
     <row r="11" ht="16.5" spans="1:7">
-      <c r="A11" s="40"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="13"/>
       <c r="C11" s="18"/>
       <c r="D11" s="19"/>
       <c r="E11" s="20"/>
-      <c r="F11" s="41">
+      <c r="F11" s="40">
         <v>9</v>
       </c>
       <c r="G11" s="19"/>
     </row>
     <row r="12" ht="17.25" spans="1:7">
-      <c r="A12" s="42"/>
+      <c r="A12" s="41"/>
       <c r="B12" s="27"/>
       <c r="C12" s="28"/>
       <c r="D12" s="24"/>
       <c r="E12" s="20"/>
-      <c r="F12" s="51">
+      <c r="F12" s="50">
         <v>10</v>
       </c>
       <c r="G12" s="24"/>
     </row>
     <row r="13" ht="17.25" spans="1:7">
       <c r="A13" s="31"/>
-      <c r="B13" s="79" t="s">
+      <c r="B13" s="80" t="s">
         <v>35</v>
       </c>
       <c r="C13" s="33"/>
-      <c r="D13" s="80"/>
+      <c r="D13" s="81"/>
       <c r="E13" s="33"/>
       <c r="F13" s="33"/>
-      <c r="G13" s="52"/>
+      <c r="G13" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2206,33 +2239,33 @@
       </c>
     </row>
     <row r="3" ht="82.5" spans="1:7">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="67" t="s">
         <v>38</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="37" t="s">
         <v>40</v>
       </c>
       <c r="E3" s="20"/>
-      <c r="F3" s="39">
+      <c r="F3" s="38">
         <v>1</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="37" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:7">
-      <c r="A4" s="40"/>
+      <c r="A4" s="39"/>
       <c r="B4" s="13"/>
       <c r="C4" s="18"/>
       <c r="D4" s="19"/>
       <c r="E4" s="20"/>
-      <c r="F4" s="41">
+      <c r="F4" s="40">
         <v>2</v>
       </c>
       <c r="G4" s="19" t="s">
@@ -2240,40 +2273,40 @@
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:7">
-      <c r="A5" s="40"/>
+      <c r="A5" s="39"/>
       <c r="B5" s="13"/>
       <c r="C5" s="18"/>
       <c r="D5" s="19"/>
       <c r="E5" s="20"/>
-      <c r="F5" s="41">
+      <c r="F5" s="40">
         <v>3</v>
       </c>
       <c r="G5" s="19"/>
     </row>
     <row r="6" ht="17.25" spans="1:7">
-      <c r="A6" s="42"/>
-      <c r="B6" s="67"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="45"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="44"/>
       <c r="E6" s="20"/>
-      <c r="F6" s="41">
+      <c r="F6" s="40">
         <v>4</v>
       </c>
       <c r="G6" s="19"/>
     </row>
     <row r="7" ht="17.25" spans="1:7">
-      <c r="A7" s="46"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="49"/>
+      <c r="A7" s="45"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="48"/>
       <c r="E7" s="20"/>
-      <c r="F7" s="41">
+      <c r="F7" s="40">
         <v>5</v>
       </c>
       <c r="G7" s="19"/>
     </row>
     <row r="8" ht="33" spans="1:7">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="36" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="13" t="s">
@@ -2286,30 +2319,30 @@
         <v>45</v>
       </c>
       <c r="E8" s="20"/>
-      <c r="F8" s="41">
+      <c r="F8" s="40">
         <v>6</v>
       </c>
       <c r="G8" s="19"/>
     </row>
     <row r="9" ht="33" spans="1:7">
-      <c r="A9" s="40"/>
+      <c r="A9" s="39"/>
       <c r="B9" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="49" t="s">
         <v>46</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>47</v>
       </c>
       <c r="E9" s="20"/>
-      <c r="F9" s="41">
+      <c r="F9" s="40">
         <v>7</v>
       </c>
       <c r="G9" s="19"/>
     </row>
     <row r="10" ht="16.5" spans="1:7">
-      <c r="A10" s="40"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="13" t="s">
         <v>48</v>
       </c>
@@ -2320,13 +2353,13 @@
         <v>50</v>
       </c>
       <c r="E10" s="20"/>
-      <c r="F10" s="41">
+      <c r="F10" s="40">
         <v>8</v>
       </c>
       <c r="G10" s="19"/>
     </row>
     <row r="11" ht="16.5" spans="1:7">
-      <c r="A11" s="40"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="13" t="s">
         <v>51</v>
       </c>
@@ -2337,18 +2370,18 @@
         <v>53</v>
       </c>
       <c r="E11" s="20"/>
-      <c r="F11" s="41">
+      <c r="F11" s="40">
         <v>9</v>
       </c>
       <c r="G11" s="19"/>
     </row>
     <row r="12" ht="17.25" spans="1:7">
-      <c r="A12" s="42"/>
+      <c r="A12" s="41"/>
       <c r="B12" s="27"/>
       <c r="C12" s="28"/>
       <c r="D12" s="24"/>
       <c r="E12" s="20"/>
-      <c r="F12" s="51">
+      <c r="F12" s="50">
         <v>10</v>
       </c>
       <c r="G12" s="24"/>
@@ -2362,7 +2395,7 @@
       <c r="D13" s="33"/>
       <c r="E13" s="33"/>
       <c r="F13" s="33"/>
-      <c r="G13" s="52"/>
+      <c r="G13" s="51"/>
     </row>
     <row r="15" ht="18" spans="1:7">
       <c r="A15" s="2" t="s">
@@ -2397,37 +2430,37 @@
       </c>
     </row>
     <row r="17" ht="33" spans="1:7">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="69" t="s">
+      <c r="B17" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="70" t="s">
+      <c r="C17" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="38"/>
+      <c r="D17" s="37"/>
       <c r="E17" s="20"/>
-      <c r="F17" s="39">
+      <c r="F17" s="38">
         <v>1</v>
       </c>
-      <c r="G17" s="38" t="s">
+      <c r="G17" s="37" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="18" ht="33" spans="1:7">
-      <c r="A18" s="40"/>
-      <c r="B18" s="71" t="s">
+      <c r="A18" s="39"/>
+      <c r="B18" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="72" t="s">
+      <c r="C18" s="73" t="s">
         <v>31</v>
       </c>
       <c r="D18" s="19" t="s">
         <v>57</v>
       </c>
       <c r="E18" s="20"/>
-      <c r="F18" s="41">
+      <c r="F18" s="40">
         <v>2</v>
       </c>
       <c r="G18" s="19" t="s">
@@ -2435,7 +2468,7 @@
       </c>
     </row>
     <row r="19" ht="16.5" spans="1:7">
-      <c r="A19" s="40"/>
+      <c r="A19" s="39"/>
       <c r="B19" s="13" t="s">
         <v>59</v>
       </c>
@@ -2444,7 +2477,7 @@
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="20"/>
-      <c r="F19" s="41">
+      <c r="F19" s="40">
         <v>3</v>
       </c>
       <c r="G19" s="19" t="s">
@@ -2452,12 +2485,12 @@
       </c>
     </row>
     <row r="20" ht="17.25" spans="1:7">
-      <c r="A20" s="42"/>
-      <c r="B20" s="67"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="45"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="44"/>
       <c r="E20" s="20"/>
-      <c r="F20" s="41">
+      <c r="F20" s="40">
         <v>4</v>
       </c>
       <c r="G20" s="19" t="s">
@@ -2465,18 +2498,18 @@
       </c>
     </row>
     <row r="21" ht="17.25" spans="1:7">
-      <c r="A21" s="46"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="49"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="48"/>
       <c r="E21" s="20"/>
-      <c r="F21" s="41">
+      <c r="F21" s="40">
         <v>5</v>
       </c>
       <c r="G21" s="19"/>
     </row>
     <row r="22" ht="33" spans="1:7">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="36" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="13" t="s">
@@ -2487,63 +2520,63 @@
       </c>
       <c r="D22" s="19"/>
       <c r="E22" s="20"/>
-      <c r="F22" s="41">
+      <c r="F22" s="40">
         <v>6</v>
       </c>
       <c r="G22" s="19"/>
     </row>
     <row r="23" ht="16.5" spans="1:7">
-      <c r="A23" s="40"/>
+      <c r="A23" s="39"/>
       <c r="B23" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="50" t="s">
+      <c r="C23" s="49" t="s">
         <v>60</v>
       </c>
       <c r="D23" s="19"/>
       <c r="E23" s="20"/>
-      <c r="F23" s="41">
+      <c r="F23" s="40">
         <v>7</v>
       </c>
       <c r="G23" s="19"/>
     </row>
     <row r="24" ht="16.5" spans="1:7">
-      <c r="A24" s="40"/>
+      <c r="A24" s="39"/>
       <c r="B24" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="50" t="s">
+      <c r="C24" s="49" t="s">
         <v>60</v>
       </c>
       <c r="D24" s="19"/>
       <c r="E24" s="20"/>
-      <c r="F24" s="41">
+      <c r="F24" s="40">
         <v>8</v>
       </c>
       <c r="G24" s="19"/>
     </row>
     <row r="25" ht="16.5" spans="1:7">
-      <c r="A25" s="40"/>
+      <c r="A25" s="39"/>
       <c r="B25" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C25" s="50" t="s">
+      <c r="C25" s="49" t="s">
         <v>67</v>
       </c>
       <c r="D25" s="19"/>
       <c r="E25" s="20"/>
-      <c r="F25" s="41">
+      <c r="F25" s="40">
         <v>9</v>
       </c>
       <c r="G25" s="19"/>
     </row>
     <row r="26" ht="17.25" spans="1:7">
-      <c r="A26" s="42"/>
+      <c r="A26" s="41"/>
       <c r="B26" s="27"/>
       <c r="C26" s="28"/>
       <c r="D26" s="24"/>
       <c r="E26" s="20"/>
-      <c r="F26" s="51">
+      <c r="F26" s="50">
         <v>10</v>
       </c>
       <c r="G26" s="24"/>
@@ -2557,7 +2590,7 @@
       <c r="D27" s="33"/>
       <c r="E27" s="33"/>
       <c r="F27" s="33"/>
-      <c r="G27" s="52"/>
+      <c r="G27" s="51"/>
     </row>
     <row r="29" ht="18" spans="1:7">
       <c r="A29" s="2" t="s">
@@ -2592,7 +2625,7 @@
       </c>
     </row>
     <row r="31" ht="16.5" spans="1:7">
-      <c r="A31" s="37" t="s">
+      <c r="A31" s="36" t="s">
         <v>19</v>
       </c>
       <c r="B31" s="13" t="s">
@@ -2601,17 +2634,17 @@
       <c r="C31" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="38"/>
+      <c r="D31" s="37"/>
       <c r="E31" s="20"/>
-      <c r="F31" s="39">
+      <c r="F31" s="38">
         <v>1</v>
       </c>
-      <c r="G31" s="69" t="s">
+      <c r="G31" s="70" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="32" ht="16.5" spans="1:7">
-      <c r="A32" s="40"/>
+      <c r="A32" s="39"/>
       <c r="B32" s="19" t="s">
         <v>71</v>
       </c>
@@ -2620,7 +2653,7 @@
       </c>
       <c r="D32" s="19"/>
       <c r="E32" s="20"/>
-      <c r="F32" s="41">
+      <c r="F32" s="40">
         <v>2</v>
       </c>
       <c r="G32" s="19" t="s">
@@ -2628,7 +2661,7 @@
       </c>
     </row>
     <row r="33" ht="16.5" spans="1:7">
-      <c r="A33" s="40"/>
+      <c r="A33" s="39"/>
       <c r="B33" s="19" t="s">
         <v>73</v>
       </c>
@@ -2637,41 +2670,41 @@
       </c>
       <c r="D33" s="19"/>
       <c r="E33" s="20"/>
-      <c r="F33" s="41">
+      <c r="F33" s="40">
         <v>3</v>
       </c>
-      <c r="G33" s="71" t="s">
+      <c r="G33" s="72" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="34" ht="17.25" spans="1:7">
-      <c r="A34" s="42"/>
+      <c r="A34" s="41"/>
       <c r="B34" s="19" t="s">
         <v>58</v>
       </c>
       <c r="C34" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D34" s="45"/>
+      <c r="D34" s="44"/>
       <c r="E34" s="20"/>
-      <c r="F34" s="41">
+      <c r="F34" s="40">
         <v>4</v>
       </c>
       <c r="G34" s="19"/>
     </row>
     <row r="35" ht="17.25" spans="1:7">
-      <c r="A35" s="46"/>
-      <c r="B35" s="48"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="49"/>
+      <c r="A35" s="45"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="48"/>
       <c r="E35" s="20"/>
-      <c r="F35" s="41">
+      <c r="F35" s="40">
         <v>5</v>
       </c>
       <c r="G35" s="19"/>
     </row>
     <row r="36" ht="17.25" spans="1:7">
-      <c r="A36" s="37" t="s">
+      <c r="A36" s="36" t="s">
         <v>29</v>
       </c>
       <c r="B36" s="19" t="s">
@@ -2682,55 +2715,55 @@
       </c>
       <c r="D36" s="19"/>
       <c r="E36" s="20"/>
-      <c r="F36" s="41">
+      <c r="F36" s="40">
         <v>6</v>
       </c>
       <c r="G36" s="19"/>
     </row>
     <row r="37" ht="16.5" spans="1:7">
-      <c r="A37" s="40"/>
-      <c r="B37" s="38" t="s">
+      <c r="A37" s="39"/>
+      <c r="B37" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="C37" s="50" t="s">
+      <c r="C37" s="49" t="s">
         <v>74</v>
       </c>
       <c r="D37" s="19"/>
       <c r="E37" s="20"/>
-      <c r="F37" s="41">
+      <c r="F37" s="40">
         <v>7</v>
       </c>
       <c r="G37" s="19"/>
     </row>
     <row r="38" ht="16.5" spans="1:7">
-      <c r="A38" s="40"/>
+      <c r="A38" s="39"/>
       <c r="B38" s="19"/>
       <c r="C38" s="18"/>
       <c r="D38" s="19"/>
       <c r="E38" s="20"/>
-      <c r="F38" s="41">
+      <c r="F38" s="40">
         <v>8</v>
       </c>
       <c r="G38" s="19"/>
     </row>
     <row r="39" ht="16.5" spans="1:7">
-      <c r="A39" s="40"/>
+      <c r="A39" s="39"/>
       <c r="B39" s="19"/>
       <c r="C39" s="18"/>
       <c r="D39" s="19"/>
       <c r="E39" s="20"/>
-      <c r="F39" s="41">
+      <c r="F39" s="40">
         <v>9</v>
       </c>
       <c r="G39" s="19"/>
     </row>
     <row r="40" ht="17.25" spans="1:7">
-      <c r="A40" s="42"/>
+      <c r="A40" s="41"/>
       <c r="B40" s="27"/>
       <c r="C40" s="28"/>
       <c r="D40" s="24"/>
       <c r="E40" s="20"/>
-      <c r="F40" s="51">
+      <c r="F40" s="50">
         <v>10</v>
       </c>
       <c r="G40" s="24"/>
@@ -2744,7 +2777,7 @@
       <c r="D41" s="33"/>
       <c r="E41" s="33"/>
       <c r="F41" s="33"/>
-      <c r="G41" s="52"/>
+      <c r="G41" s="51"/>
     </row>
     <row r="43" ht="18" spans="1:7">
       <c r="A43" s="2" t="s">
@@ -2779,7 +2812,7 @@
       </c>
     </row>
     <row r="45" ht="16.5" spans="1:7">
-      <c r="A45" s="37" t="s">
+      <c r="A45" s="36" t="s">
         <v>19</v>
       </c>
       <c r="B45" s="19" t="s">
@@ -2788,17 +2821,17 @@
       <c r="C45" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D45" s="38"/>
+      <c r="D45" s="37"/>
       <c r="E45" s="20"/>
-      <c r="F45" s="39">
+      <c r="F45" s="38">
         <v>1</v>
       </c>
-      <c r="G45" s="69" t="s">
+      <c r="G45" s="70" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="46" ht="33.75" spans="1:7">
-      <c r="A46" s="40"/>
+      <c r="A46" s="39"/>
       <c r="B46" s="13" t="s">
         <v>72</v>
       </c>
@@ -2809,7 +2842,7 @@
         <v>78</v>
       </c>
       <c r="E46" s="20"/>
-      <c r="F46" s="41">
+      <c r="F46" s="40">
         <v>2</v>
       </c>
       <c r="G46" s="19" t="s">
@@ -2817,46 +2850,46 @@
       </c>
     </row>
     <row r="47" ht="33.75" spans="1:7">
-      <c r="A47" s="40"/>
-      <c r="B47" s="38" t="s">
+      <c r="A47" s="39"/>
+      <c r="B47" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="C47" s="68" t="s">
+      <c r="C47" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="D47" s="45" t="s">
+      <c r="D47" s="44" t="s">
         <v>81</v>
       </c>
       <c r="E47" s="20"/>
-      <c r="F47" s="41">
+      <c r="F47" s="40">
         <v>3</v>
       </c>
       <c r="G47" s="19"/>
     </row>
     <row r="48" ht="17.25" spans="1:7">
-      <c r="A48" s="42"/>
-      <c r="B48" s="38"/>
-      <c r="C48" s="68"/>
-      <c r="D48" s="45"/>
+      <c r="A48" s="41"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="69"/>
+      <c r="D48" s="44"/>
       <c r="E48" s="20"/>
-      <c r="F48" s="41">
+      <c r="F48" s="40">
         <v>4</v>
       </c>
       <c r="G48" s="19"/>
     </row>
     <row r="49" ht="17.25" spans="1:7">
-      <c r="A49" s="46"/>
-      <c r="B49" s="48"/>
-      <c r="C49" s="48"/>
-      <c r="D49" s="49"/>
+      <c r="A49" s="45"/>
+      <c r="B49" s="47"/>
+      <c r="C49" s="47"/>
+      <c r="D49" s="48"/>
       <c r="E49" s="20"/>
-      <c r="F49" s="41">
+      <c r="F49" s="40">
         <v>5</v>
       </c>
       <c r="G49" s="19"/>
     </row>
     <row r="50" ht="33" spans="1:7">
-      <c r="A50" s="37" t="s">
+      <c r="A50" s="36" t="s">
         <v>29</v>
       </c>
       <c r="B50" s="13" t="s">
@@ -2869,45 +2902,45 @@
         <v>84</v>
       </c>
       <c r="E50" s="20"/>
-      <c r="F50" s="41">
+      <c r="F50" s="40">
         <v>6</v>
       </c>
       <c r="G50" s="19"/>
     </row>
     <row r="51" ht="17.25" spans="1:7">
-      <c r="A51" s="40"/>
+      <c r="A51" s="39"/>
       <c r="B51" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C51" s="50" t="s">
+      <c r="C51" s="49" t="s">
         <v>83</v>
       </c>
       <c r="D51" s="19" t="s">
         <v>84</v>
       </c>
       <c r="E51" s="20"/>
-      <c r="F51" s="41">
+      <c r="F51" s="40">
         <v>7</v>
       </c>
       <c r="G51" s="19"/>
     </row>
     <row r="52" ht="16.5" spans="1:7">
-      <c r="A52" s="40"/>
-      <c r="B52" s="38" t="s">
+      <c r="A52" s="39"/>
+      <c r="B52" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="C52" s="50" t="s">
+      <c r="C52" s="49" t="s">
         <v>60</v>
       </c>
       <c r="D52" s="19"/>
       <c r="E52" s="20"/>
-      <c r="F52" s="41">
+      <c r="F52" s="40">
         <v>8</v>
       </c>
       <c r="G52" s="19"/>
     </row>
     <row r="53" ht="16.5" spans="1:7">
-      <c r="A53" s="40"/>
+      <c r="A53" s="39"/>
       <c r="B53" s="13" t="s">
         <v>86</v>
       </c>
@@ -2916,18 +2949,18 @@
       </c>
       <c r="D53" s="19"/>
       <c r="E53" s="20"/>
-      <c r="F53" s="41">
+      <c r="F53" s="40">
         <v>9</v>
       </c>
       <c r="G53" s="19"/>
     </row>
     <row r="54" ht="17.25" spans="1:7">
-      <c r="A54" s="42"/>
+      <c r="A54" s="41"/>
       <c r="B54" s="27"/>
       <c r="C54" s="28"/>
       <c r="D54" s="24"/>
       <c r="E54" s="20"/>
-      <c r="F54" s="51">
+      <c r="F54" s="50">
         <v>10</v>
       </c>
       <c r="G54" s="24"/>
@@ -2941,7 +2974,7 @@
       <c r="D55" s="33"/>
       <c r="E55" s="33"/>
       <c r="F55" s="33"/>
-      <c r="G55" s="52"/>
+      <c r="G55" s="51"/>
     </row>
     <row r="57" ht="18" spans="1:7">
       <c r="A57" s="2" t="s">
@@ -2976,28 +3009,28 @@
       </c>
     </row>
     <row r="59" ht="16.5" spans="1:7">
-      <c r="A59" s="37" t="s">
+      <c r="A59" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B59" s="53" t="s">
+      <c r="B59" s="52" t="s">
         <v>89</v>
       </c>
       <c r="C59" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D59" s="38" t="s">
+      <c r="D59" s="37" t="s">
         <v>90</v>
       </c>
       <c r="E59" s="20"/>
-      <c r="F59" s="39">
+      <c r="F59" s="38">
         <v>1</v>
       </c>
-      <c r="G59" s="69" t="s">
+      <c r="G59" s="70" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="60" ht="16.5" spans="1:7">
-      <c r="A60" s="40"/>
+      <c r="A60" s="39"/>
       <c r="B60" s="13" t="s">
         <v>91</v>
       </c>
@@ -3006,15 +3039,15 @@
       </c>
       <c r="D60" s="19"/>
       <c r="E60" s="20"/>
-      <c r="F60" s="41">
+      <c r="F60" s="40">
         <v>2</v>
       </c>
-      <c r="G60" s="71" t="s">
+      <c r="G60" s="72" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="61" ht="16.5" spans="1:7">
-      <c r="A61" s="40"/>
+      <c r="A61" s="39"/>
       <c r="B61" s="13" t="s">
         <v>92</v>
       </c>
@@ -3023,41 +3056,41 @@
       </c>
       <c r="D61" s="19"/>
       <c r="E61" s="20"/>
-      <c r="F61" s="41">
+      <c r="F61" s="40">
         <v>3</v>
       </c>
-      <c r="G61" s="71" t="s">
+      <c r="G61" s="72" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="62" ht="17.25" spans="1:7">
-      <c r="A62" s="42"/>
-      <c r="B62" s="43"/>
-      <c r="C62" s="44"/>
-      <c r="D62" s="45"/>
+      <c r="A62" s="41"/>
+      <c r="B62" s="42"/>
+      <c r="C62" s="43"/>
+      <c r="D62" s="44"/>
       <c r="E62" s="20"/>
-      <c r="F62" s="41">
+      <c r="F62" s="40">
         <v>4</v>
       </c>
-      <c r="G62" s="71" t="s">
+      <c r="G62" s="72" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="63" ht="17.25" spans="1:7">
-      <c r="A63" s="46"/>
-      <c r="B63" s="47"/>
-      <c r="C63" s="48"/>
-      <c r="D63" s="49"/>
+      <c r="A63" s="45"/>
+      <c r="B63" s="46"/>
+      <c r="C63" s="47"/>
+      <c r="D63" s="48"/>
       <c r="E63" s="20"/>
-      <c r="F63" s="41">
+      <c r="F63" s="40">
         <v>5</v>
       </c>
-      <c r="G63" s="71" t="s">
+      <c r="G63" s="72" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="64" ht="16.5" spans="1:7">
-      <c r="A64" s="37" t="s">
+      <c r="A64" s="36" t="s">
         <v>29</v>
       </c>
       <c r="B64" s="13" t="s">
@@ -3068,32 +3101,32 @@
       </c>
       <c r="D64" s="19"/>
       <c r="E64" s="20"/>
-      <c r="F64" s="41">
+      <c r="F64" s="40">
         <v>6</v>
       </c>
-      <c r="G64" s="71" t="s">
+      <c r="G64" s="72" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="65" ht="16.5" spans="1:7">
-      <c r="A65" s="40"/>
+      <c r="A65" s="39"/>
       <c r="B65" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="C65" s="50" t="s">
+      <c r="C65" s="49" t="s">
         <v>60</v>
       </c>
       <c r="D65" s="19"/>
       <c r="E65" s="20"/>
-      <c r="F65" s="41">
+      <c r="F65" s="40">
         <v>7</v>
       </c>
-      <c r="G65" s="71" t="s">
+      <c r="G65" s="72" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="66" ht="16.5" spans="1:7">
-      <c r="A66" s="40"/>
+      <c r="A66" s="39"/>
       <c r="B66" s="13" t="s">
         <v>97</v>
       </c>
@@ -3102,15 +3135,15 @@
       </c>
       <c r="D66" s="19"/>
       <c r="E66" s="20"/>
-      <c r="F66" s="41">
+      <c r="F66" s="40">
         <v>8</v>
       </c>
-      <c r="G66" s="71" t="s">
+      <c r="G66" s="72" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="67" ht="16.5" spans="1:7">
-      <c r="A67" s="40"/>
+      <c r="A67" s="39"/>
       <c r="B67" s="13" t="s">
         <v>89</v>
       </c>
@@ -3119,13 +3152,13 @@
       </c>
       <c r="D67" s="19"/>
       <c r="E67" s="20"/>
-      <c r="F67" s="41">
+      <c r="F67" s="40">
         <v>9</v>
       </c>
-      <c r="G67" s="71"/>
+      <c r="G67" s="72"/>
     </row>
     <row r="68" ht="17.25" spans="1:7">
-      <c r="A68" s="42"/>
+      <c r="A68" s="41"/>
       <c r="B68" s="27" t="s">
         <v>99</v>
       </c>
@@ -3134,10 +3167,10 @@
       </c>
       <c r="D68" s="24"/>
       <c r="E68" s="20"/>
-      <c r="F68" s="51">
+      <c r="F68" s="50">
         <v>10</v>
       </c>
-      <c r="G68" s="73"/>
+      <c r="G68" s="74"/>
     </row>
     <row r="69" ht="17.25" spans="1:7">
       <c r="A69" s="31"/>
@@ -3148,7 +3181,7 @@
       <c r="D69" s="33"/>
       <c r="E69" s="33"/>
       <c r="F69" s="33"/>
-      <c r="G69" s="52"/>
+      <c r="G69" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="25">
@@ -3187,10 +3220,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H69"/>
+  <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="K59" sqref="K59"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
@@ -3201,7 +3234,7 @@
     <col min="4" max="4" width="28.625" customWidth="1"/>
     <col min="5" max="6" width="5.625" customWidth="1"/>
     <col min="7" max="7" width="30.625" customWidth="1"/>
-    <col min="8" max="8" width="40.625" style="36" customWidth="1"/>
+    <col min="8" max="8" width="40.625" style="31" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" spans="1:7">
@@ -3237,7 +3270,7 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="36" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="13" t="s">
@@ -3246,17 +3279,17 @@
       <c r="C3" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D3" s="38"/>
+      <c r="D3" s="37"/>
       <c r="E3" s="20"/>
-      <c r="F3" s="39">
+      <c r="F3" s="38">
         <v>1</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="37" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="4" ht="66" spans="1:7">
-      <c r="A4" s="40"/>
+      <c r="A4" s="39"/>
       <c r="B4" s="13" t="s">
         <v>104</v>
       </c>
@@ -3267,7 +3300,7 @@
         <v>106</v>
       </c>
       <c r="E4" s="20"/>
-      <c r="F4" s="41">
+      <c r="F4" s="40">
         <v>2</v>
       </c>
       <c r="G4" s="25" t="s">
@@ -3275,7 +3308,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="40"/>
+      <c r="A5" s="39"/>
       <c r="B5" s="13" t="s">
         <v>107</v>
       </c>
@@ -3286,7 +3319,7 @@
         <v>108</v>
       </c>
       <c r="E5" s="20"/>
-      <c r="F5" s="41">
+      <c r="F5" s="40">
         <v>3</v>
       </c>
       <c r="G5" s="25" t="s">
@@ -3294,12 +3327,12 @@
       </c>
     </row>
     <row r="6" ht="17.25" spans="1:7">
-      <c r="A6" s="42"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="44"/>
       <c r="E6" s="20"/>
-      <c r="F6" s="41">
+      <c r="F6" s="40">
         <v>4</v>
       </c>
       <c r="G6" s="25" t="s">
@@ -3307,12 +3340,12 @@
       </c>
     </row>
     <row r="7" ht="17.25" spans="1:7">
-      <c r="A7" s="46"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="49"/>
+      <c r="A7" s="45"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="48"/>
       <c r="E7" s="20"/>
-      <c r="F7" s="41">
+      <c r="F7" s="40">
         <v>5</v>
       </c>
       <c r="G7" s="25" t="s">
@@ -3320,7 +3353,7 @@
       </c>
     </row>
     <row r="8" ht="99" spans="1:7">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="36" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="13" t="s">
@@ -3331,32 +3364,32 @@
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="20"/>
-      <c r="F8" s="41">
+      <c r="F8" s="40">
         <v>6</v>
       </c>
       <c r="G8" s="25" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="9" ht="33" spans="1:7">
-      <c r="A9" s="40"/>
+    <row r="9" ht="49.5" spans="1:7">
+      <c r="A9" s="39"/>
       <c r="B9" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="49" t="s">
         <v>112</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>113</v>
       </c>
       <c r="E9" s="20"/>
-      <c r="F9" s="41">
+      <c r="F9" s="40">
         <v>7</v>
       </c>
       <c r="G9" s="25"/>
     </row>
     <row r="10" ht="33" spans="1:7">
-      <c r="A10" s="40"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="13" t="s">
         <v>114</v>
       </c>
@@ -3367,13 +3400,13 @@
         <v>116</v>
       </c>
       <c r="E10" s="20"/>
-      <c r="F10" s="41">
+      <c r="F10" s="40">
         <v>8</v>
       </c>
       <c r="G10" s="25"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="40"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="13" t="s">
         <v>117</v>
       </c>
@@ -3382,13 +3415,13 @@
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="20"/>
-      <c r="F11" s="41">
+      <c r="F11" s="40">
         <v>9</v>
       </c>
       <c r="G11" s="25"/>
     </row>
     <row r="12" ht="33.75" spans="1:7">
-      <c r="A12" s="42"/>
+      <c r="A12" s="41"/>
       <c r="B12" s="27" t="s">
         <v>42</v>
       </c>
@@ -3397,7 +3430,7 @@
       </c>
       <c r="D12" s="24"/>
       <c r="E12" s="20"/>
-      <c r="F12" s="51">
+      <c r="F12" s="50">
         <v>10</v>
       </c>
       <c r="G12" s="24"/>
@@ -3411,7 +3444,7 @@
       <c r="D13" s="33"/>
       <c r="E13" s="33"/>
       <c r="F13" s="33"/>
-      <c r="G13" s="52"/>
+      <c r="G13" s="51"/>
     </row>
     <row r="15" ht="18" spans="1:7">
       <c r="A15" s="2" t="s">
@@ -3446,18 +3479,18 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="37" t="s">
         <v>121</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D17" s="38"/>
+      <c r="D17" s="37"/>
       <c r="E17" s="20"/>
-      <c r="F17" s="39">
+      <c r="F17" s="38">
         <v>1</v>
       </c>
       <c r="G17" s="25" t="s">
@@ -3465,7 +3498,7 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="40"/>
+      <c r="A18" s="39"/>
       <c r="B18" s="13" t="s">
         <v>122</v>
       </c>
@@ -3474,7 +3507,7 @@
       </c>
       <c r="D18" s="19"/>
       <c r="E18" s="20"/>
-      <c r="F18" s="41">
+      <c r="F18" s="40">
         <v>2</v>
       </c>
       <c r="G18" s="25" t="s">
@@ -3482,7 +3515,7 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="40"/>
+      <c r="A19" s="39"/>
       <c r="B19" s="13" t="s">
         <v>123</v>
       </c>
@@ -3491,7 +3524,7 @@
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="20"/>
-      <c r="F19" s="41">
+      <c r="F19" s="40">
         <v>3</v>
       </c>
       <c r="G19" s="25" t="s">
@@ -3499,12 +3532,12 @@
       </c>
     </row>
     <row r="20" ht="17.25" spans="1:7">
-      <c r="A20" s="42"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="45"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="44"/>
       <c r="E20" s="20"/>
-      <c r="F20" s="41">
+      <c r="F20" s="40">
         <v>4</v>
       </c>
       <c r="G20" s="25" t="s">
@@ -3512,12 +3545,12 @@
       </c>
     </row>
     <row r="21" ht="17.25" spans="1:7">
-      <c r="A21" s="46"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="49"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="48"/>
       <c r="E21" s="20"/>
-      <c r="F21" s="41">
+      <c r="F21" s="40">
         <v>5</v>
       </c>
       <c r="G21" s="25" t="s">
@@ -3525,7 +3558,7 @@
       </c>
     </row>
     <row r="22" ht="82.5" spans="1:7">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="36" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="13" t="s">
@@ -3538,51 +3571,51 @@
         <v>126</v>
       </c>
       <c r="E22" s="20"/>
-      <c r="F22" s="41">
+      <c r="F22" s="40">
         <v>6</v>
       </c>
       <c r="G22" s="19"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="40"/>
+      <c r="A23" s="39"/>
       <c r="B23" s="13"/>
-      <c r="C23" s="50"/>
+      <c r="C23" s="49"/>
       <c r="D23" s="19"/>
       <c r="E23" s="20"/>
-      <c r="F23" s="41">
+      <c r="F23" s="40">
         <v>7</v>
       </c>
       <c r="G23" s="19"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="40"/>
+      <c r="A24" s="39"/>
       <c r="B24" s="13"/>
       <c r="C24" s="18"/>
       <c r="D24" s="19"/>
       <c r="E24" s="20"/>
-      <c r="F24" s="41">
+      <c r="F24" s="40">
         <v>8</v>
       </c>
       <c r="G24" s="19"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="40"/>
+      <c r="A25" s="39"/>
       <c r="B25" s="13"/>
       <c r="C25" s="18"/>
       <c r="D25" s="19"/>
       <c r="E25" s="20"/>
-      <c r="F25" s="41">
+      <c r="F25" s="40">
         <v>9</v>
       </c>
       <c r="G25" s="19"/>
     </row>
     <row r="26" ht="17.25" spans="1:7">
-      <c r="A26" s="42"/>
+      <c r="A26" s="41"/>
       <c r="B26" s="27"/>
       <c r="C26" s="28"/>
       <c r="D26" s="24"/>
       <c r="E26" s="20"/>
-      <c r="F26" s="51">
+      <c r="F26" s="50">
         <v>10</v>
       </c>
       <c r="G26" s="24"/>
@@ -3596,7 +3629,7 @@
       <c r="D27" s="33"/>
       <c r="E27" s="33"/>
       <c r="F27" s="33"/>
-      <c r="G27" s="52"/>
+      <c r="G27" s="51"/>
     </row>
     <row r="29" ht="18" spans="1:7">
       <c r="A29" s="2" t="s">
@@ -3630,28 +3663,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" ht="33.75" spans="1:7">
-      <c r="A31" s="37" t="s">
+    <row r="31" ht="50.25" spans="1:7">
+      <c r="A31" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="53" t="s">
+      <c r="B31" s="52" t="s">
         <v>129</v>
       </c>
       <c r="C31" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D31" s="38"/>
+      <c r="D31" s="37"/>
       <c r="E31" s="20"/>
-      <c r="F31" s="39">
+      <c r="F31" s="38">
         <v>1</v>
       </c>
-      <c r="G31" s="38" t="s">
+      <c r="G31" s="37" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="40"/>
-      <c r="B32" s="53" t="s">
+      <c r="A32" s="39"/>
+      <c r="B32" s="52" t="s">
         <v>103</v>
       </c>
       <c r="C32" s="18" t="s">
@@ -3659,7 +3692,7 @@
       </c>
       <c r="D32" s="19"/>
       <c r="E32" s="20"/>
-      <c r="F32" s="41">
+      <c r="F32" s="40">
         <v>2</v>
       </c>
       <c r="G32" s="25" t="s">
@@ -3667,7 +3700,7 @@
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="40"/>
+      <c r="A33" s="39"/>
       <c r="B33" s="13" t="s">
         <v>131</v>
       </c>
@@ -3676,7 +3709,7 @@
       </c>
       <c r="D33" s="19"/>
       <c r="E33" s="20"/>
-      <c r="F33" s="41">
+      <c r="F33" s="40">
         <v>3</v>
       </c>
       <c r="G33" s="25" t="s">
@@ -3684,12 +3717,12 @@
       </c>
     </row>
     <row r="34" ht="17.25" spans="1:7">
-      <c r="A34" s="42"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="45"/>
+      <c r="A34" s="41"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="44"/>
       <c r="E34" s="20"/>
-      <c r="F34" s="41">
+      <c r="F34" s="40">
         <v>4</v>
       </c>
       <c r="G34" s="25" t="s">
@@ -3697,12 +3730,12 @@
       </c>
     </row>
     <row r="35" ht="17.25" spans="1:7">
-      <c r="A35" s="46"/>
-      <c r="B35" s="47"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="49"/>
+      <c r="A35" s="45"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="48"/>
       <c r="E35" s="20"/>
-      <c r="F35" s="41">
+      <c r="F35" s="40">
         <v>5</v>
       </c>
       <c r="G35" s="25" t="s">
@@ -3710,18 +3743,18 @@
       </c>
     </row>
     <row r="36" ht="17.25" spans="1:7">
-      <c r="A36" s="37" t="s">
+      <c r="A36" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="43" t="s">
+      <c r="B36" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="C36" s="44" t="s">
+      <c r="C36" s="43" t="s">
         <v>102</v>
       </c>
       <c r="D36" s="19"/>
       <c r="E36" s="20"/>
-      <c r="F36" s="41">
+      <c r="F36" s="40">
         <v>6</v>
       </c>
       <c r="G36" s="25" t="s">
@@ -3729,22 +3762,22 @@
       </c>
     </row>
     <row r="37" ht="33" spans="1:7">
-      <c r="A37" s="40"/>
+      <c r="A37" s="39"/>
       <c r="B37" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="C37" s="50" t="s">
+      <c r="C37" s="49" t="s">
         <v>102</v>
       </c>
       <c r="D37" s="19"/>
       <c r="E37" s="20"/>
-      <c r="F37" s="41">
+      <c r="F37" s="40">
         <v>7</v>
       </c>
       <c r="G37" s="19"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="40"/>
+      <c r="A38" s="39"/>
       <c r="B38" s="13" t="s">
         <v>134</v>
       </c>
@@ -3753,13 +3786,13 @@
       </c>
       <c r="D38" s="19"/>
       <c r="E38" s="20"/>
-      <c r="F38" s="41">
+      <c r="F38" s="40">
         <v>8</v>
       </c>
       <c r="G38" s="19"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="40"/>
+      <c r="A39" s="39"/>
       <c r="B39" s="13" t="s">
         <v>117</v>
       </c>
@@ -3768,18 +3801,18 @@
       </c>
       <c r="D39" s="19"/>
       <c r="E39" s="20"/>
-      <c r="F39" s="41">
+      <c r="F39" s="40">
         <v>9</v>
       </c>
       <c r="G39" s="19"/>
     </row>
     <row r="40" ht="17.25" spans="1:7">
-      <c r="A40" s="42"/>
+      <c r="A40" s="41"/>
       <c r="B40" s="27"/>
       <c r="C40" s="28"/>
       <c r="D40" s="24"/>
       <c r="E40" s="20"/>
-      <c r="F40" s="51">
+      <c r="F40" s="50">
         <v>10</v>
       </c>
       <c r="G40" s="24"/>
@@ -3793,9 +3826,8 @@
       <c r="D41" s="33"/>
       <c r="E41" s="33"/>
       <c r="F41" s="33"/>
-      <c r="G41" s="52"/>
-    </row>
-    <row r="42" ht="17.25"/>
+      <c r="G41" s="51"/>
+    </row>
     <row r="43" ht="18" spans="1:8">
       <c r="A43" s="2" t="s">
         <v>135</v>
@@ -3808,7 +3840,7 @@
         <v>136</v>
       </c>
       <c r="G43" s="4"/>
-      <c r="H43" s="54" t="s">
+      <c r="H43" s="53" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3830,30 +3862,30 @@
       <c r="G44" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H44" s="55"/>
-    </row>
-    <row r="45" ht="33" spans="1:8">
-      <c r="A45" s="37" t="s">
+      <c r="H44" s="54"/>
+    </row>
+    <row r="45" ht="49.5" spans="1:8">
+      <c r="A45" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B45" s="53" t="s">
+      <c r="B45" s="52" t="s">
         <v>138</v>
       </c>
       <c r="C45" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D45" s="38"/>
+      <c r="D45" s="37"/>
       <c r="E45" s="20"/>
-      <c r="F45" s="39">
+      <c r="F45" s="38">
         <v>1</v>
       </c>
-      <c r="G45" s="38" t="s">
+      <c r="G45" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="H45" s="55"/>
+      <c r="H45" s="54"/>
     </row>
     <row r="46" ht="33" spans="1:8">
-      <c r="A46" s="40"/>
+      <c r="A46" s="39"/>
       <c r="B46" s="13" t="s">
         <v>139</v>
       </c>
@@ -3862,16 +3894,16 @@
       </c>
       <c r="D46" s="19"/>
       <c r="E46" s="20"/>
-      <c r="F46" s="41">
+      <c r="F46" s="40">
         <v>2</v>
       </c>
       <c r="G46" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="H46" s="55"/>
+      <c r="H46" s="54"/>
     </row>
     <row r="47" ht="33" spans="1:8">
-      <c r="A47" s="40"/>
+      <c r="A47" s="39"/>
       <c r="B47" s="13" t="s">
         <v>140</v>
       </c>
@@ -3880,44 +3912,44 @@
       </c>
       <c r="D47" s="19"/>
       <c r="E47" s="20"/>
-      <c r="F47" s="41">
+      <c r="F47" s="40">
         <v>3</v>
       </c>
       <c r="G47" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="H47" s="55"/>
+      <c r="H47" s="54"/>
     </row>
     <row r="48" ht="17.25" spans="1:8">
-      <c r="A48" s="42"/>
-      <c r="B48" s="43"/>
-      <c r="C48" s="44"/>
-      <c r="D48" s="45"/>
+      <c r="A48" s="41"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="44"/>
       <c r="E48" s="20"/>
-      <c r="F48" s="41">
+      <c r="F48" s="40">
         <v>4</v>
       </c>
       <c r="G48" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="H48" s="55"/>
+      <c r="H48" s="54"/>
     </row>
     <row r="49" ht="17.25" spans="1:8">
-      <c r="A49" s="46"/>
-      <c r="B49" s="47"/>
-      <c r="C49" s="48"/>
-      <c r="D49" s="49"/>
+      <c r="A49" s="45"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="47"/>
+      <c r="D49" s="48"/>
       <c r="E49" s="20"/>
-      <c r="F49" s="41">
+      <c r="F49" s="40">
         <v>5</v>
       </c>
       <c r="G49" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="H49" s="55"/>
+      <c r="H49" s="54"/>
     </row>
     <row r="50" ht="33" spans="1:8">
-      <c r="A50" s="37" t="s">
+      <c r="A50" s="36" t="s">
         <v>29</v>
       </c>
       <c r="B50" s="13" t="s">
@@ -3930,34 +3962,34 @@
         <v>144</v>
       </c>
       <c r="E50" s="20"/>
-      <c r="F50" s="41">
+      <c r="F50" s="40">
         <v>6</v>
       </c>
       <c r="G50" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="H50" s="55"/>
+      <c r="H50" s="54"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="40"/>
+      <c r="A51" s="39"/>
       <c r="B51" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="C51" s="50" t="s">
+      <c r="C51" s="49" t="s">
         <v>31</v>
       </c>
       <c r="D51" s="19" t="s">
         <v>146</v>
       </c>
       <c r="E51" s="20"/>
-      <c r="F51" s="41">
+      <c r="F51" s="40">
         <v>7</v>
       </c>
       <c r="G51" s="21"/>
-      <c r="H51" s="55"/>
+      <c r="H51" s="54"/>
     </row>
     <row r="52" ht="49.5" spans="1:8">
-      <c r="A52" s="40"/>
+      <c r="A52" s="39"/>
       <c r="B52" s="13" t="s">
         <v>147</v>
       </c>
@@ -3966,14 +3998,14 @@
       </c>
       <c r="D52" s="19"/>
       <c r="E52" s="20"/>
-      <c r="F52" s="41">
+      <c r="F52" s="40">
         <v>8</v>
       </c>
       <c r="G52" s="21"/>
-      <c r="H52" s="55"/>
+      <c r="H52" s="54"/>
     </row>
     <row r="53" ht="33" spans="1:8">
-      <c r="A53" s="40"/>
+      <c r="A53" s="39"/>
       <c r="B53" s="13" t="s">
         <v>148</v>
       </c>
@@ -3982,23 +4014,23 @@
       </c>
       <c r="D53" s="19"/>
       <c r="E53" s="20"/>
-      <c r="F53" s="41">
+      <c r="F53" s="40">
         <v>9</v>
       </c>
       <c r="G53" s="21"/>
-      <c r="H53" s="55"/>
+      <c r="H53" s="54"/>
     </row>
     <row r="54" ht="17.25" spans="1:8">
-      <c r="A54" s="42"/>
+      <c r="A54" s="41"/>
       <c r="B54" s="27"/>
       <c r="C54" s="28"/>
       <c r="D54" s="24"/>
       <c r="E54" s="20"/>
-      <c r="F54" s="51">
+      <c r="F54" s="50">
         <v>10</v>
       </c>
       <c r="G54" s="30"/>
-      <c r="H54" s="55"/>
+      <c r="H54" s="54"/>
     </row>
     <row r="55" ht="17.25" spans="1:8">
       <c r="A55" s="31"/>
@@ -4010,9 +4042,8 @@
       <c r="E55" s="33"/>
       <c r="F55" s="33"/>
       <c r="G55" s="33"/>
-      <c r="H55" s="56"/>
-    </row>
-    <row r="56" ht="17.25"/>
+      <c r="H55" s="55"/>
+    </row>
     <row r="57" ht="18.75" spans="1:8">
       <c r="A57" s="2" t="s">
         <v>150</v>
@@ -4025,7 +4056,7 @@
         <v>151</v>
       </c>
       <c r="G57" s="4"/>
-      <c r="H57" s="57" t="s">
+      <c r="H57" s="56" t="s">
         <v>137</v>
       </c>
     </row>
@@ -4045,29 +4076,29 @@
       <c r="G58" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H58" s="58"/>
-    </row>
-    <row r="59" ht="50.25" spans="1:8">
+      <c r="H58" s="57"/>
+    </row>
+    <row r="59" ht="51" spans="1:8">
       <c r="A59" s="12">
         <v>1</v>
       </c>
-      <c r="B59" s="13" t="s">
+      <c r="B59" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="C59" s="14" t="s">
+      <c r="C59" s="59" t="s">
         <v>31</v>
       </c>
       <c r="D59" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="E59" s="59"/>
+      <c r="E59" s="60"/>
       <c r="F59" s="12">
         <v>1</v>
       </c>
-      <c r="G59" s="60" t="s">
+      <c r="G59" s="61" t="s">
         <v>130</v>
       </c>
-      <c r="H59" s="58"/>
+      <c r="H59" s="57"/>
     </row>
     <row r="60" ht="18" spans="1:8">
       <c r="A60" s="17">
@@ -4082,14 +4113,14 @@
       <c r="D60" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="E60" s="59"/>
-      <c r="F60" s="61">
+      <c r="E60" s="60"/>
+      <c r="F60" s="62">
         <v>2</v>
       </c>
-      <c r="G60" s="62" t="s">
+      <c r="G60" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="H60" s="58"/>
+      <c r="H60" s="57"/>
     </row>
     <row r="61" ht="34.5" spans="1:8">
       <c r="A61" s="17">
@@ -4101,17 +4132,17 @@
       <c r="C61" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D61" s="62" t="s">
+      <c r="D61" s="63" t="s">
         <v>152</v>
       </c>
-      <c r="E61" s="59"/>
-      <c r="F61" s="61">
+      <c r="E61" s="60"/>
+      <c r="F61" s="62">
         <v>3</v>
       </c>
-      <c r="G61" s="62" t="s">
+      <c r="G61" s="63" t="s">
         <v>98</v>
       </c>
-      <c r="H61" s="58"/>
+      <c r="H61" s="57"/>
     </row>
     <row r="62" ht="18" spans="1:8">
       <c r="A62" s="23">
@@ -4123,17 +4154,17 @@
       <c r="C62" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D62" s="63" t="s">
+      <c r="D62" s="64" t="s">
         <v>158</v>
       </c>
-      <c r="E62" s="59"/>
-      <c r="F62" s="61">
+      <c r="E62" s="60"/>
+      <c r="F62" s="62">
         <v>4</v>
       </c>
-      <c r="G62" s="62" t="s">
+      <c r="G62" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="H62" s="58"/>
+      <c r="H62" s="57"/>
     </row>
     <row r="63" ht="18" spans="1:8">
       <c r="A63" s="23">
@@ -4145,17 +4176,17 @@
       <c r="C63" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="D63" s="62" t="s">
+      <c r="D63" s="63" t="s">
         <v>160</v>
       </c>
-      <c r="E63" s="59"/>
-      <c r="F63" s="61">
+      <c r="E63" s="60"/>
+      <c r="F63" s="62">
         <v>5</v>
       </c>
-      <c r="G63" s="62" t="s">
+      <c r="G63" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="H63" s="58"/>
+      <c r="H63" s="57"/>
     </row>
     <row r="64" ht="18" spans="1:8">
       <c r="A64" s="23">
@@ -4167,17 +4198,17 @@
       <c r="C64" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D64" s="62" t="s">
+      <c r="D64" s="63" t="s">
         <v>162</v>
       </c>
-      <c r="E64" s="59"/>
-      <c r="F64" s="61">
+      <c r="E64" s="60"/>
+      <c r="F64" s="62">
         <v>6</v>
       </c>
-      <c r="G64" s="62" t="s">
+      <c r="G64" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="H64" s="58"/>
+      <c r="H64" s="57"/>
     </row>
     <row r="65" ht="34.5" spans="1:8">
       <c r="A65" s="17">
@@ -4189,15 +4220,15 @@
       <c r="C65" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="D65" s="62" t="s">
+      <c r="D65" s="63" t="s">
         <v>162</v>
       </c>
-      <c r="E65" s="59"/>
-      <c r="F65" s="61">
+      <c r="E65" s="60"/>
+      <c r="F65" s="62">
         <v>7</v>
       </c>
       <c r="G65" s="21"/>
-      <c r="H65" s="58"/>
+      <c r="H65" s="57"/>
     </row>
     <row r="66" ht="18" spans="1:8">
       <c r="A66" s="17">
@@ -4212,12 +4243,12 @@
       <c r="D66" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="E66" s="59"/>
-      <c r="F66" s="61">
+      <c r="E66" s="60"/>
+      <c r="F66" s="62">
         <v>8</v>
       </c>
       <c r="G66" s="21"/>
-      <c r="H66" s="58"/>
+      <c r="H66" s="57"/>
     </row>
     <row r="67" ht="18" spans="1:8">
       <c r="A67" s="17">
@@ -4232,12 +4263,12 @@
       <c r="D67" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="E67" s="59"/>
-      <c r="F67" s="61">
+      <c r="E67" s="60"/>
+      <c r="F67" s="62">
         <v>9</v>
       </c>
       <c r="G67" s="21"/>
-      <c r="H67" s="58"/>
+      <c r="H67" s="57"/>
     </row>
     <row r="68" ht="18" spans="1:8">
       <c r="A68" s="17">
@@ -4250,12 +4281,12 @@
         <v>31</v>
       </c>
       <c r="D68" s="30"/>
-      <c r="E68" s="59"/>
-      <c r="F68" s="64">
+      <c r="E68" s="60"/>
+      <c r="F68" s="65">
         <v>10</v>
       </c>
       <c r="G68" s="30"/>
-      <c r="H68" s="58"/>
+      <c r="H68" s="57"/>
     </row>
     <row r="69" ht="17.25" spans="1:8">
       <c r="A69" s="31"/>
@@ -4267,10 +4298,236 @@
       <c r="E69" s="33"/>
       <c r="F69" s="34"/>
       <c r="G69" s="33"/>
-      <c r="H69" s="65"/>
+      <c r="H69" s="66"/>
+    </row>
+    <row r="71" ht="18.75" spans="1:8">
+      <c r="A71" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G71" s="4"/>
+      <c r="H71" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="72" ht="21.75" spans="1:8">
+      <c r="A72" s="6"/>
+      <c r="B72" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E72" s="8"/>
+      <c r="F72" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G72" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H72" s="11"/>
+    </row>
+    <row r="73" ht="50.25" spans="1:8">
+      <c r="A73" s="12">
+        <v>1</v>
+      </c>
+      <c r="B73" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="C73" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D73" s="15"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="12">
+        <v>1</v>
+      </c>
+      <c r="G73" s="61" t="s">
+        <v>130</v>
+      </c>
+      <c r="H73" s="11"/>
+    </row>
+    <row r="74" ht="33" spans="1:8">
+      <c r="A74" s="17">
+        <v>2</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="C74" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D74" s="19"/>
+      <c r="E74" s="20"/>
+      <c r="F74" s="17">
+        <v>2</v>
+      </c>
+      <c r="G74" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="H74" s="11"/>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="17">
+        <v>3</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C75" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D75" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="E75" s="20"/>
+      <c r="F75" s="17">
+        <v>3</v>
+      </c>
+      <c r="G75" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="H75" s="11"/>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="23">
+        <v>4</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="C76" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D76" s="24"/>
+      <c r="E76" s="20"/>
+      <c r="F76" s="17">
+        <v>4</v>
+      </c>
+      <c r="G76" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="H76" s="11"/>
+    </row>
+    <row r="77" ht="33" spans="1:8">
+      <c r="A77" s="23">
+        <v>5</v>
+      </c>
+      <c r="B77" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="C77" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D77" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="E77" s="20"/>
+      <c r="F77" s="17">
+        <v>5</v>
+      </c>
+      <c r="G77" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="H77" s="11"/>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="23">
+        <v>6</v>
+      </c>
+      <c r="B78" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="C78" s="18"/>
+      <c r="D78" s="26"/>
+      <c r="E78" s="20"/>
+      <c r="F78" s="17">
+        <v>6</v>
+      </c>
+      <c r="G78" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="H78" s="11"/>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="17">
+        <v>7</v>
+      </c>
+      <c r="B79" s="22"/>
+      <c r="C79" s="18"/>
+      <c r="D79" s="19"/>
+      <c r="E79" s="20"/>
+      <c r="F79" s="17">
+        <v>7</v>
+      </c>
+      <c r="G79" s="21"/>
+      <c r="H79" s="11"/>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="17">
+        <v>8</v>
+      </c>
+      <c r="B80" s="13"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="19"/>
+      <c r="E80" s="20"/>
+      <c r="F80" s="17">
+        <v>8</v>
+      </c>
+      <c r="G80" s="21"/>
+      <c r="H80" s="11"/>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="17">
+        <v>9</v>
+      </c>
+      <c r="B81" s="13"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="19"/>
+      <c r="E81" s="20"/>
+      <c r="F81" s="17">
+        <v>9</v>
+      </c>
+      <c r="G81" s="21"/>
+      <c r="H81" s="11"/>
+    </row>
+    <row r="82" ht="17.25" spans="1:8">
+      <c r="A82" s="17">
+        <v>10</v>
+      </c>
+      <c r="B82" s="27"/>
+      <c r="C82" s="28"/>
+      <c r="D82" s="24"/>
+      <c r="E82" s="20"/>
+      <c r="F82" s="29">
+        <v>10</v>
+      </c>
+      <c r="G82" s="30"/>
+      <c r="H82" s="11"/>
+    </row>
+    <row r="83" ht="17.25" spans="1:8">
+      <c r="A83" s="31"/>
+      <c r="B83" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C83" s="33"/>
+      <c r="D83" s="33"/>
+      <c r="E83" s="33"/>
+      <c r="F83" s="34"/>
+      <c r="G83" s="33"/>
+      <c r="H83" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="30">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="B13:G13"/>
@@ -4286,6 +4543,9 @@
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="F57:G57"/>
     <mergeCell ref="B69:G69"/>
+    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="B83:G83"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A8:A12"/>
     <mergeCell ref="A17:A20"/>
@@ -4297,6 +4557,7 @@
     <mergeCell ref="E59:E68"/>
     <mergeCell ref="H43:H55"/>
     <mergeCell ref="H57:H69"/>
+    <mergeCell ref="H71:H83"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4327,14 +4588,14 @@
   <sheetData>
     <row r="1" ht="18.75" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
       <c r="F1" s="2" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="5"/>
@@ -4415,7 +4676,7 @@
       <c r="G6" s="21"/>
       <c r="H6" s="11"/>
     </row>
-    <row r="7" ht="17.25" spans="1:8">
+    <row r="7" ht="16.5" spans="1:8">
       <c r="A7" s="23">
         <v>5</v>
       </c>

--- a/working/工作日志.杨炜.3月份.xlsx
+++ b/working/工作日志.杨炜.3月份.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190">
   <si>
     <t>下周计划</t>
   </si>
@@ -577,6 +577,39 @@
     <t>让线下测试域名与官网一致，并快速切换线上线下Host</t>
   </si>
   <si>
+    <t>31日工作日志（周二）</t>
+  </si>
+  <si>
+    <t>1日工作计划（周三）</t>
+  </si>
+  <si>
+    <t>修正头部</t>
+  </si>
+  <si>
+    <t>添加导航“新手指导”链接</t>
+  </si>
+  <si>
+    <t>等待新手指导页面正式上传后添加</t>
+  </si>
+  <si>
+    <t>弄下当前首页banner图资源</t>
+  </si>
+  <si>
+    <t>制作首页banner轮播</t>
+  </si>
+  <si>
+    <t>首页导航-安全保障增加下拉列表项-产品来源等</t>
+  </si>
+  <si>
+    <t>先跟艺芳说明获取效果图后执行</t>
+  </si>
+  <si>
+    <t>合并common.css和base.css文件</t>
+  </si>
+  <si>
+    <t>减少加载数</t>
+  </si>
+  <si>
     <t>日工作日志（周）</t>
   </si>
   <si>
@@ -588,10 +621,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -3220,10 +3253,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H83"/>
+  <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="C78" sqref="C78"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
@@ -4300,6 +4333,7 @@
       <c r="G69" s="33"/>
       <c r="H69" s="66"/>
     </row>
+    <row r="70" ht="17.25"/>
     <row r="71" ht="18.75" spans="1:8">
       <c r="A71" s="2" t="s">
         <v>169</v>
@@ -4447,7 +4481,9 @@
       <c r="B78" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="C78" s="18"/>
+      <c r="C78" s="18" t="s">
+        <v>67</v>
+      </c>
       <c r="D78" s="26"/>
       <c r="E78" s="20"/>
       <c r="F78" s="17">
@@ -4526,8 +4562,237 @@
       <c r="G83" s="33"/>
       <c r="H83" s="35"/>
     </row>
+    <row r="84" ht="17.25"/>
+    <row r="85" ht="18.75" spans="1:8">
+      <c r="A85" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G85" s="4"/>
+      <c r="H85" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="86" ht="21.75" spans="1:8">
+      <c r="A86" s="6"/>
+      <c r="B86" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E86" s="8"/>
+      <c r="F86" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G86" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H86" s="11"/>
+    </row>
+    <row r="87" ht="50.25" spans="1:8">
+      <c r="A87" s="12">
+        <v>1</v>
+      </c>
+      <c r="B87" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="C87" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D87" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="E87" s="16"/>
+      <c r="F87" s="12">
+        <v>1</v>
+      </c>
+      <c r="G87" s="61" t="s">
+        <v>130</v>
+      </c>
+      <c r="H87" s="11"/>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="17">
+        <v>2</v>
+      </c>
+      <c r="B88" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="C88" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D88" s="19"/>
+      <c r="E88" s="20"/>
+      <c r="F88" s="17">
+        <v>2</v>
+      </c>
+      <c r="G88" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="H88" s="11"/>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="17">
+        <v>3</v>
+      </c>
+      <c r="B89" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="C89" s="18"/>
+      <c r="D89" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="E89" s="20"/>
+      <c r="F89" s="17">
+        <v>3</v>
+      </c>
+      <c r="G89" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="H89" s="11"/>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="23">
+        <v>4</v>
+      </c>
+      <c r="B90" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="C90" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D90" s="24"/>
+      <c r="E90" s="20"/>
+      <c r="F90" s="17">
+        <v>4</v>
+      </c>
+      <c r="G90" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="H90" s="11"/>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="23">
+        <v>5</v>
+      </c>
+      <c r="B91" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="C91" s="18"/>
+      <c r="D91" s="25"/>
+      <c r="E91" s="20"/>
+      <c r="F91" s="17">
+        <v>5</v>
+      </c>
+      <c r="G91" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="H91" s="11"/>
+    </row>
+    <row r="92" ht="33" spans="1:8">
+      <c r="A92" s="23">
+        <v>6</v>
+      </c>
+      <c r="B92" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="C92" s="18"/>
+      <c r="D92" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="E92" s="20"/>
+      <c r="F92" s="17">
+        <v>6</v>
+      </c>
+      <c r="G92" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="H92" s="11"/>
+    </row>
+    <row r="93" ht="33" spans="1:8">
+      <c r="A93" s="17">
+        <v>7</v>
+      </c>
+      <c r="B93" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="C93" s="18"/>
+      <c r="D93" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="E93" s="20"/>
+      <c r="F93" s="17">
+        <v>7</v>
+      </c>
+      <c r="G93" s="21"/>
+      <c r="H93" s="11"/>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="17">
+        <v>8</v>
+      </c>
+      <c r="B94" s="13"/>
+      <c r="C94" s="18"/>
+      <c r="D94" s="19"/>
+      <c r="E94" s="20"/>
+      <c r="F94" s="17">
+        <v>8</v>
+      </c>
+      <c r="G94" s="21"/>
+      <c r="H94" s="11"/>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="17">
+        <v>9</v>
+      </c>
+      <c r="B95" s="13"/>
+      <c r="C95" s="18"/>
+      <c r="D95" s="19"/>
+      <c r="E95" s="20"/>
+      <c r="F95" s="17">
+        <v>9</v>
+      </c>
+      <c r="G95" s="21"/>
+      <c r="H95" s="11"/>
+    </row>
+    <row r="96" ht="17.25" spans="1:8">
+      <c r="A96" s="17">
+        <v>10</v>
+      </c>
+      <c r="B96" s="27"/>
+      <c r="C96" s="28"/>
+      <c r="D96" s="24"/>
+      <c r="E96" s="20"/>
+      <c r="F96" s="29">
+        <v>10</v>
+      </c>
+      <c r="G96" s="30"/>
+      <c r="H96" s="11"/>
+    </row>
+    <row r="97" ht="17.25" spans="1:8">
+      <c r="A97" s="31"/>
+      <c r="B97" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C97" s="33"/>
+      <c r="D97" s="33"/>
+      <c r="E97" s="33"/>
+      <c r="F97" s="34"/>
+      <c r="G97" s="33"/>
+      <c r="H97" s="35"/>
+    </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="34">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="B13:G13"/>
@@ -4546,6 +4811,9 @@
     <mergeCell ref="A71:D71"/>
     <mergeCell ref="F71:G71"/>
     <mergeCell ref="B83:G83"/>
+    <mergeCell ref="A85:D85"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="B97:G97"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A8:A12"/>
     <mergeCell ref="A17:A20"/>
@@ -4558,6 +4826,7 @@
     <mergeCell ref="H43:H55"/>
     <mergeCell ref="H57:H69"/>
     <mergeCell ref="H71:H83"/>
+    <mergeCell ref="H85:H97"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4588,14 +4857,14 @@
   <sheetData>
     <row r="1" ht="18.75" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
       <c r="F1" s="2" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="5"/>

--- a/working/工作日志.杨炜.3月份.xlsx
+++ b/working/工作日志.杨炜.3月份.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197">
   <si>
     <t>下周计划</t>
   </si>
@@ -601,13 +601,34 @@
     <t>首页导航-安全保障增加下拉列表项-产品来源等</t>
   </si>
   <si>
-    <t>先跟艺芳说明获取效果图后执行</t>
-  </si>
-  <si>
-    <t>合并common.css和base.css文件</t>
-  </si>
-  <si>
-    <t>减少加载数</t>
+    <t>已获取效果图</t>
+  </si>
+  <si>
+    <t>合并common.css和base.css文件为一个common.css文件</t>
+  </si>
+  <si>
+    <t>减少文件加载次数，在一些页面上这种做法反而加重负担，弊大于利</t>
+  </si>
+  <si>
+    <t>通过ie-hack修正表单圆角</t>
+  </si>
+  <si>
+    <t>更改首页banner轮播速度</t>
+  </si>
+  <si>
+    <t>在无碰触的情况下自动滚动间隔时间为3s</t>
+  </si>
+  <si>
+    <t>取出圆形百分比图片</t>
+  </si>
+  <si>
+    <t>修改轮播形式为背景以显示隐藏的方式出现，轮播内容又有向左甩出</t>
+  </si>
+  <si>
+    <t>修正新手导航底部样式</t>
+  </si>
+  <si>
+    <t>底部文字去除粗体，二维码位置改变</t>
   </si>
   <si>
     <t>日工作日志（周）</t>
@@ -678,7 +699,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -709,6 +730,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="35">
     <border>
@@ -737,7 +764,35 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -750,10 +805,10 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thick">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thick">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -765,12 +820,40 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -778,24 +861,41 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thick">
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -805,10 +905,25 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -817,269 +932,8 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -1098,6 +952,17 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -1105,6 +970,112 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1132,6 +1103,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1151,6 +1135,49 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1189,7 +1216,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1199,220 +1226,268 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1424,16 +1499,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1445,7 +1520,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1454,8 +1529,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1798,203 +1876,209 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="4.625" style="75" customWidth="1"/>
-    <col min="2" max="2" width="32.125" style="75" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="75" customWidth="1"/>
-    <col min="4" max="5" width="9" style="75"/>
-    <col min="6" max="6" width="15.625" style="75" customWidth="1"/>
-    <col min="7" max="7" width="16.875" style="75" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="75"/>
+    <col min="1" max="1" width="4.625" style="91" customWidth="1"/>
+    <col min="2" max="2" width="32.125" style="91" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="91" customWidth="1"/>
+    <col min="4" max="5" width="9" style="91"/>
+    <col min="6" max="6" width="15.625" style="91" customWidth="1"/>
+    <col min="7" max="7" width="16.875" style="91" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="91"/>
   </cols>
   <sheetData>
     <row r="1" ht="21.75" customHeight="1" spans="1:7">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
     </row>
     <row r="2" ht="33" customHeight="1" spans="1:7">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
     </row>
     <row r="3" ht="16.5" spans="1:7">
-      <c r="A3" s="83"/>
-      <c r="B3" s="84"/>
-      <c r="C3" s="85" t="s">
+      <c r="A3" s="99"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="85" t="s">
+      <c r="D3" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="85" t="s">
+      <c r="E3" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="85" t="s">
+      <c r="F3" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="85" t="s">
+      <c r="G3" s="101" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:7">
-      <c r="A4" s="86">
+      <c r="A4" s="102">
         <v>1</v>
       </c>
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
     </row>
     <row r="5" ht="16.5" spans="1:7">
-      <c r="A5" s="86">
+      <c r="A5" s="102">
         <v>2</v>
       </c>
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
     </row>
     <row r="6" ht="16.5" spans="1:7">
-      <c r="A6" s="86">
+      <c r="A6" s="102">
         <v>3</v>
       </c>
-      <c r="B6" s="86" t="s">
+      <c r="B6" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="86"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
     </row>
     <row r="7" ht="16.5" spans="1:7">
-      <c r="A7" s="86">
+      <c r="A7" s="102">
         <v>4</v>
       </c>
-      <c r="B7" s="86" t="s">
+      <c r="B7" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="86"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
     </row>
     <row r="8" ht="16.5" spans="1:7">
-      <c r="A8" s="86"/>
-      <c r="B8" s="86" t="s">
+      <c r="A8" s="102"/>
+      <c r="B8" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="86"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="87"/>
-      <c r="G8" s="87"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
     </row>
     <row r="9" ht="16.5" spans="1:7">
-      <c r="A9" s="86"/>
-      <c r="B9" s="86"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
+      <c r="A9" s="102"/>
+      <c r="B9" s="102"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="103"/>
+      <c r="G9" s="103"/>
     </row>
     <row r="10" ht="16.5" spans="1:7">
-      <c r="A10" s="86"/>
-      <c r="B10" s="86"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
+      <c r="A10" s="102"/>
+      <c r="B10" s="102"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="103"/>
     </row>
     <row r="11" ht="16.5" spans="1:7">
-      <c r="A11" s="86"/>
-      <c r="B11" s="86"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87"/>
+      <c r="A11" s="102"/>
+      <c r="B11" s="102"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="103"/>
     </row>
     <row r="12" ht="16.5" spans="1:7">
-      <c r="A12" s="86"/>
-      <c r="B12" s="86"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="87"/>
+      <c r="A12" s="102"/>
+      <c r="B12" s="102"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="103"/>
     </row>
     <row r="13" ht="16.5" spans="1:7">
-      <c r="A13" s="86"/>
-      <c r="B13" s="86"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="87"/>
+      <c r="A13" s="102"/>
+      <c r="B13" s="102"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
     </row>
     <row r="14" ht="16.5" spans="1:7">
-      <c r="A14" s="86"/>
-      <c r="B14" s="86"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="87"/>
+      <c r="A14" s="102"/>
+      <c r="B14" s="102"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="103"/>
     </row>
     <row r="15" ht="16.5" spans="1:7">
-      <c r="A15" s="86"/>
-      <c r="B15" s="86"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="87"/>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="88" t="s">
+      <c r="A15" s="102"/>
+      <c r="B15" s="102"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="103"/>
+      <c r="G15" s="103"/>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="104" t="s">
         <v>14</v>
       </c>
+      <c r="C17" s="104"/>
+      <c r="D17" s="104"/>
+    </row>
+    <row r="21" spans="6:6">
+      <c r="F21" s="105"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="C2:G2"/>
+    <mergeCell ref="B17:D17"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
   </mergeCells>
@@ -2015,9 +2099,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="19.125" style="75" customWidth="1"/>
+    <col min="2" max="2" width="19.125" style="91" customWidth="1"/>
     <col min="3" max="3" width="47.25" customWidth="1"/>
-    <col min="4" max="4" width="21" style="75" customWidth="1"/>
+    <col min="4" max="4" width="21" style="91" customWidth="1"/>
     <col min="5" max="5" width="6.75" customWidth="1"/>
     <col min="7" max="7" width="35.625" customWidth="1"/>
   </cols>
@@ -2029,183 +2113,183 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
+      <c r="E1" s="20"/>
       <c r="F1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" ht="21.75" spans="1:7">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="21"/>
+      <c r="B2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="6" t="s">
+      <c r="E2" s="23"/>
+      <c r="F2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="22" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" ht="28.5" spans="1:7">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="77" t="s">
+      <c r="C3" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="76" t="s">
+      <c r="D3" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="38">
+      <c r="E3" s="28"/>
+      <c r="F3" s="29">
         <v>1</v>
       </c>
-      <c r="G3" s="37"/>
+      <c r="G3" s="27"/>
     </row>
     <row r="4" ht="28.5" spans="1:7">
-      <c r="A4" s="39"/>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="30"/>
+      <c r="B4" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="77" t="s">
+      <c r="C4" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="76" t="s">
+      <c r="D4" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="40">
+      <c r="E4" s="28"/>
+      <c r="F4" s="32">
         <v>2</v>
       </c>
-      <c r="G4" s="19"/>
+      <c r="G4" s="31"/>
     </row>
     <row r="5" ht="42.75" spans="1:7">
-      <c r="A5" s="39"/>
-      <c r="B5" s="76" t="s">
+      <c r="A5" s="30"/>
+      <c r="B5" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="77" t="s">
+      <c r="C5" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="76" t="s">
+      <c r="D5" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="40">
+      <c r="E5" s="28"/>
+      <c r="F5" s="32">
         <v>3</v>
       </c>
-      <c r="G5" s="19"/>
+      <c r="G5" s="31"/>
     </row>
     <row r="6" ht="17.25" spans="1:7">
-      <c r="A6" s="41"/>
-      <c r="B6" s="68"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="40">
+      <c r="A6" s="34"/>
+      <c r="B6" s="84"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="32">
         <v>4</v>
       </c>
-      <c r="G6" s="19"/>
+      <c r="G6" s="31"/>
     </row>
     <row r="7" ht="17.25" spans="1:7">
-      <c r="A7" s="45"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="40">
+      <c r="A7" s="38"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="32">
         <v>5</v>
       </c>
-      <c r="G7" s="19"/>
+      <c r="G7" s="31"/>
     </row>
     <row r="8" ht="16.5" spans="1:7">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="79" t="s">
+      <c r="C8" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="40">
+      <c r="D8" s="31"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="32">
         <v>6</v>
       </c>
-      <c r="G8" s="19"/>
+      <c r="G8" s="31"/>
     </row>
     <row r="9" ht="28.5" spans="1:7">
-      <c r="A9" s="39"/>
-      <c r="B9" s="76" t="s">
+      <c r="A9" s="30"/>
+      <c r="B9" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="77" t="s">
+      <c r="C9" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="76" t="s">
+      <c r="D9" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="40">
+      <c r="E9" s="28"/>
+      <c r="F9" s="32">
         <v>7</v>
       </c>
-      <c r="G9" s="19"/>
+      <c r="G9" s="31"/>
     </row>
     <row r="10" ht="16.5" spans="1:7">
-      <c r="A10" s="39"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="40">
+      <c r="A10" s="30"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="32">
         <v>8</v>
       </c>
-      <c r="G10" s="19"/>
+      <c r="G10" s="31"/>
     </row>
     <row r="11" ht="16.5" spans="1:7">
-      <c r="A11" s="39"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="40">
+      <c r="A11" s="30"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="32">
         <v>9</v>
       </c>
-      <c r="G11" s="19"/>
+      <c r="G11" s="31"/>
     </row>
     <row r="12" ht="17.25" spans="1:7">
-      <c r="A12" s="41"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="50">
+      <c r="A12" s="34"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="45">
         <v>10</v>
       </c>
-      <c r="G12" s="24"/>
+      <c r="G12" s="44"/>
     </row>
     <row r="13" ht="17.25" spans="1:7">
-      <c r="A13" s="31"/>
-      <c r="B13" s="80" t="s">
+      <c r="A13" s="19"/>
+      <c r="B13" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="51"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2246,189 +2330,189 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
+      <c r="E1" s="20"/>
       <c r="F1" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" ht="21.75" spans="1:7">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="21"/>
+      <c r="B2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="6" t="s">
+      <c r="E2" s="23"/>
+      <c r="F2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="22" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" ht="82.5" spans="1:7">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="38">
+      <c r="E3" s="28"/>
+      <c r="F3" s="29">
         <v>1</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="27" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:7">
-      <c r="A4" s="39"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="40">
+      <c r="A4" s="30"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="32">
         <v>2</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="31" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:7">
-      <c r="A5" s="39"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="40">
+      <c r="A5" s="30"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="32">
         <v>3</v>
       </c>
-      <c r="G5" s="19"/>
+      <c r="G5" s="31"/>
     </row>
     <row r="6" ht="17.25" spans="1:7">
-      <c r="A6" s="41"/>
-      <c r="B6" s="68"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="40">
+      <c r="A6" s="34"/>
+      <c r="B6" s="84"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="32">
         <v>4</v>
       </c>
-      <c r="G6" s="19"/>
+      <c r="G6" s="31"/>
     </row>
     <row r="7" ht="17.25" spans="1:7">
-      <c r="A7" s="45"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="40">
+      <c r="A7" s="38"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="32">
         <v>5</v>
       </c>
-      <c r="G7" s="19"/>
+      <c r="G7" s="31"/>
     </row>
     <row r="8" ht="33" spans="1:7">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="40">
+      <c r="E8" s="28"/>
+      <c r="F8" s="32">
         <v>6</v>
       </c>
-      <c r="G8" s="19"/>
+      <c r="G8" s="31"/>
     </row>
     <row r="9" ht="33" spans="1:7">
-      <c r="A9" s="39"/>
-      <c r="B9" s="13" t="s">
+      <c r="A9" s="30"/>
+      <c r="B9" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="40">
+      <c r="E9" s="28"/>
+      <c r="F9" s="32">
         <v>7</v>
       </c>
-      <c r="G9" s="19"/>
+      <c r="G9" s="31"/>
     </row>
     <row r="10" ht="16.5" spans="1:7">
-      <c r="A10" s="39"/>
-      <c r="B10" s="13" t="s">
+      <c r="A10" s="30"/>
+      <c r="B10" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="40">
+      <c r="E10" s="28"/>
+      <c r="F10" s="32">
         <v>8</v>
       </c>
-      <c r="G10" s="19"/>
+      <c r="G10" s="31"/>
     </row>
     <row r="11" ht="16.5" spans="1:7">
-      <c r="A11" s="39"/>
-      <c r="B11" s="13" t="s">
+      <c r="A11" s="30"/>
+      <c r="B11" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="40">
+      <c r="E11" s="28"/>
+      <c r="F11" s="32">
         <v>9</v>
       </c>
-      <c r="G11" s="19"/>
+      <c r="G11" s="31"/>
     </row>
     <row r="12" ht="17.25" spans="1:7">
-      <c r="A12" s="41"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="50">
+      <c r="A12" s="34"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="45">
         <v>10</v>
       </c>
-      <c r="G12" s="24"/>
+      <c r="G12" s="44"/>
     </row>
     <row r="13" ht="17.25" spans="1:7">
-      <c r="A13" s="31"/>
-      <c r="B13" s="32" t="s">
+      <c r="A13" s="19"/>
+      <c r="B13" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="51"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="48"/>
     </row>
     <row r="15" ht="18" spans="1:7">
       <c r="A15" s="2" t="s">
@@ -2437,193 +2521,193 @@
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="3"/>
+      <c r="E15" s="20"/>
       <c r="F15" s="2" t="s">
         <v>55</v>
       </c>
       <c r="G15" s="2"/>
     </row>
     <row r="16" ht="21.75" spans="1:7">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7" t="s">
+      <c r="A16" s="21"/>
+      <c r="B16" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="6" t="s">
+      <c r="E16" s="23"/>
+      <c r="F16" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="22" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="17" ht="33" spans="1:7">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="70" t="s">
+      <c r="B17" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="71" t="s">
+      <c r="C17" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="37"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="38">
+      <c r="D17" s="27"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="29">
         <v>1</v>
       </c>
-      <c r="G17" s="37" t="s">
+      <c r="G17" s="27" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="18" ht="33" spans="1:7">
-      <c r="A18" s="39"/>
-      <c r="B18" s="72" t="s">
+      <c r="A18" s="30"/>
+      <c r="B18" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="73" t="s">
+      <c r="C18" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="40">
+      <c r="E18" s="28"/>
+      <c r="F18" s="32">
         <v>2</v>
       </c>
-      <c r="G18" s="19" t="s">
+      <c r="G18" s="31" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="19" ht="16.5" spans="1:7">
-      <c r="A19" s="39"/>
-      <c r="B19" s="13" t="s">
+      <c r="A19" s="30"/>
+      <c r="B19" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="40">
+      <c r="D19" s="31"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="32">
         <v>3</v>
       </c>
-      <c r="G19" s="19" t="s">
+      <c r="G19" s="31" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="20" ht="17.25" spans="1:7">
-      <c r="A20" s="41"/>
-      <c r="B20" s="68"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="40">
+      <c r="A20" s="34"/>
+      <c r="B20" s="84"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="32">
         <v>4</v>
       </c>
-      <c r="G20" s="19" t="s">
+      <c r="G20" s="31" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="21" ht="17.25" spans="1:7">
-      <c r="A21" s="45"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="40">
+      <c r="A21" s="38"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="32">
         <v>5</v>
       </c>
-      <c r="G21" s="19"/>
+      <c r="G21" s="31"/>
     </row>
     <row r="22" ht="33" spans="1:7">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="19"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="40">
+      <c r="D22" s="31"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="32">
         <v>6</v>
       </c>
-      <c r="G22" s="19"/>
+      <c r="G22" s="31"/>
     </row>
     <row r="23" ht="16.5" spans="1:7">
-      <c r="A23" s="39"/>
-      <c r="B23" s="13" t="s">
+      <c r="A23" s="30"/>
+      <c r="B23" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="49" t="s">
+      <c r="C23" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D23" s="19"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="40">
+      <c r="D23" s="31"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="32">
         <v>7</v>
       </c>
-      <c r="G23" s="19"/>
+      <c r="G23" s="31"/>
     </row>
     <row r="24" ht="16.5" spans="1:7">
-      <c r="A24" s="39"/>
-      <c r="B24" s="13" t="s">
+      <c r="A24" s="30"/>
+      <c r="B24" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="49" t="s">
+      <c r="C24" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="40">
+      <c r="D24" s="31"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="32">
         <v>8</v>
       </c>
-      <c r="G24" s="19"/>
+      <c r="G24" s="31"/>
     </row>
     <row r="25" ht="16.5" spans="1:7">
-      <c r="A25" s="39"/>
-      <c r="B25" s="13" t="s">
+      <c r="A25" s="30"/>
+      <c r="B25" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="C25" s="49" t="s">
+      <c r="C25" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D25" s="19"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="40">
+      <c r="D25" s="31"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="32">
         <v>9</v>
       </c>
-      <c r="G25" s="19"/>
+      <c r="G25" s="31"/>
     </row>
     <row r="26" ht="17.25" spans="1:7">
-      <c r="A26" s="41"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="50">
+      <c r="A26" s="34"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="45">
         <v>10</v>
       </c>
-      <c r="G26" s="24"/>
+      <c r="G26" s="44"/>
     </row>
     <row r="27" ht="17.25" spans="1:7">
-      <c r="A27" s="31"/>
-      <c r="B27" s="32" t="s">
+      <c r="A27" s="19"/>
+      <c r="B27" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="51"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="48"/>
     </row>
     <row r="29" ht="18" spans="1:7">
       <c r="A29" s="2" t="s">
@@ -2632,185 +2716,185 @@
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="3"/>
+      <c r="E29" s="20"/>
       <c r="F29" s="2" t="s">
         <v>69</v>
       </c>
       <c r="G29" s="2"/>
     </row>
     <row r="30" ht="21.75" spans="1:7">
-      <c r="A30" s="6"/>
-      <c r="B30" s="7" t="s">
+      <c r="A30" s="21"/>
+      <c r="B30" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="6" t="s">
+      <c r="E30" s="23"/>
+      <c r="F30" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="G30" s="22" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="31" ht="16.5" spans="1:7">
-      <c r="A31" s="36" t="s">
+      <c r="A31" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="37"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="38">
+      <c r="D31" s="27"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="29">
         <v>1</v>
       </c>
-      <c r="G31" s="70" t="s">
+      <c r="G31" s="86" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="32" ht="16.5" spans="1:7">
-      <c r="A32" s="39"/>
-      <c r="B32" s="19" t="s">
+      <c r="A32" s="30"/>
+      <c r="B32" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D32" s="19"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="40">
+      <c r="D32" s="31"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="32">
         <v>2</v>
       </c>
-      <c r="G32" s="19" t="s">
+      <c r="G32" s="31" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="33" ht="16.5" spans="1:7">
-      <c r="A33" s="39"/>
-      <c r="B33" s="19" t="s">
+      <c r="A33" s="30"/>
+      <c r="B33" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D33" s="19"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="40">
+      <c r="D33" s="31"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="32">
         <v>3</v>
       </c>
-      <c r="G33" s="72" t="s">
+      <c r="G33" s="88" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="34" ht="17.25" spans="1:7">
-      <c r="A34" s="41"/>
-      <c r="B34" s="19" t="s">
+      <c r="A34" s="34"/>
+      <c r="B34" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D34" s="44"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="40">
+      <c r="D34" s="37"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="32">
         <v>4</v>
       </c>
-      <c r="G34" s="19"/>
+      <c r="G34" s="31"/>
     </row>
     <row r="35" ht="17.25" spans="1:7">
-      <c r="A35" s="45"/>
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="40">
+      <c r="A35" s="38"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="32">
         <v>5</v>
       </c>
-      <c r="G35" s="19"/>
+      <c r="G35" s="31"/>
     </row>
     <row r="36" ht="17.25" spans="1:7">
-      <c r="A36" s="36" t="s">
+      <c r="A36" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D36" s="19"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="40">
+      <c r="D36" s="31"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="32">
         <v>6</v>
       </c>
-      <c r="G36" s="19"/>
+      <c r="G36" s="31"/>
     </row>
     <row r="37" ht="16.5" spans="1:7">
-      <c r="A37" s="39"/>
-      <c r="B37" s="37" t="s">
+      <c r="A37" s="30"/>
+      <c r="B37" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="C37" s="49" t="s">
+      <c r="C37" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="D37" s="19"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="40">
+      <c r="D37" s="31"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="32">
         <v>7</v>
       </c>
-      <c r="G37" s="19"/>
+      <c r="G37" s="31"/>
     </row>
     <row r="38" ht="16.5" spans="1:7">
-      <c r="A38" s="39"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="40">
+      <c r="A38" s="30"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="32">
         <v>8</v>
       </c>
-      <c r="G38" s="19"/>
+      <c r="G38" s="31"/>
     </row>
     <row r="39" ht="16.5" spans="1:7">
-      <c r="A39" s="39"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="40">
+      <c r="A39" s="30"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="32">
         <v>9</v>
       </c>
-      <c r="G39" s="19"/>
+      <c r="G39" s="31"/>
     </row>
     <row r="40" ht="17.25" spans="1:7">
-      <c r="A40" s="41"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="50">
+      <c r="A40" s="34"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="45">
         <v>10</v>
       </c>
-      <c r="G40" s="24"/>
+      <c r="G40" s="44"/>
     </row>
     <row r="41" ht="17.25" spans="1:7">
-      <c r="A41" s="31"/>
-      <c r="B41" s="32" t="s">
+      <c r="A41" s="19"/>
+      <c r="B41" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="51"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="48"/>
     </row>
     <row r="43" ht="18" spans="1:7">
       <c r="A43" s="2" t="s">
@@ -2819,195 +2903,195 @@
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="3"/>
+      <c r="E43" s="20"/>
       <c r="F43" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G43" s="2"/>
     </row>
     <row r="44" ht="21.75" spans="1:7">
-      <c r="A44" s="6"/>
-      <c r="B44" s="7" t="s">
+      <c r="A44" s="21"/>
+      <c r="B44" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E44" s="8"/>
-      <c r="F44" s="6" t="s">
+      <c r="E44" s="23"/>
+      <c r="F44" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="G44" s="7" t="s">
+      <c r="G44" s="22" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="45" ht="16.5" spans="1:7">
-      <c r="A45" s="36" t="s">
+      <c r="A45" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B45" s="19" t="s">
+      <c r="B45" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="C45" s="18" t="s">
+      <c r="C45" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D45" s="37"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="38">
+      <c r="D45" s="27"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="29">
         <v>1</v>
       </c>
-      <c r="G45" s="70" t="s">
+      <c r="G45" s="86" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="46" ht="33.75" spans="1:7">
-      <c r="A46" s="39"/>
-      <c r="B46" s="13" t="s">
+      <c r="A46" s="30"/>
+      <c r="B46" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="C46" s="18" t="s">
+      <c r="C46" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D46" s="19" t="s">
+      <c r="D46" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="E46" s="20"/>
-      <c r="F46" s="40">
+      <c r="E46" s="28"/>
+      <c r="F46" s="32">
         <v>2</v>
       </c>
-      <c r="G46" s="19" t="s">
+      <c r="G46" s="31" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="47" ht="33.75" spans="1:7">
-      <c r="A47" s="39"/>
-      <c r="B47" s="37" t="s">
+      <c r="A47" s="30"/>
+      <c r="B47" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="C47" s="69" t="s">
+      <c r="C47" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="D47" s="44" t="s">
+      <c r="D47" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="E47" s="20"/>
-      <c r="F47" s="40">
+      <c r="E47" s="28"/>
+      <c r="F47" s="32">
         <v>3</v>
       </c>
-      <c r="G47" s="19"/>
+      <c r="G47" s="31"/>
     </row>
     <row r="48" ht="17.25" spans="1:7">
-      <c r="A48" s="41"/>
-      <c r="B48" s="37"/>
-      <c r="C48" s="69"/>
-      <c r="D48" s="44"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="40">
+      <c r="A48" s="34"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="85"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="32">
         <v>4</v>
       </c>
-      <c r="G48" s="19"/>
+      <c r="G48" s="31"/>
     </row>
     <row r="49" ht="17.25" spans="1:7">
-      <c r="A49" s="45"/>
-      <c r="B49" s="47"/>
-      <c r="C49" s="47"/>
-      <c r="D49" s="48"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="40">
+      <c r="A49" s="38"/>
+      <c r="B49" s="40"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="32">
         <v>5</v>
       </c>
-      <c r="G49" s="19"/>
+      <c r="G49" s="31"/>
     </row>
     <row r="50" ht="33" spans="1:7">
-      <c r="A50" s="36" t="s">
+      <c r="A50" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="C50" s="18" t="s">
+      <c r="C50" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="D50" s="19" t="s">
+      <c r="D50" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="E50" s="20"/>
-      <c r="F50" s="40">
+      <c r="E50" s="28"/>
+      <c r="F50" s="32">
         <v>6</v>
       </c>
-      <c r="G50" s="19"/>
+      <c r="G50" s="31"/>
     </row>
     <row r="51" ht="17.25" spans="1:7">
-      <c r="A51" s="39"/>
-      <c r="B51" s="13" t="s">
+      <c r="A51" s="30"/>
+      <c r="B51" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="C51" s="49" t="s">
+      <c r="C51" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="D51" s="19" t="s">
+      <c r="D51" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="E51" s="20"/>
-      <c r="F51" s="40">
+      <c r="E51" s="28"/>
+      <c r="F51" s="32">
         <v>7</v>
       </c>
-      <c r="G51" s="19"/>
+      <c r="G51" s="31"/>
     </row>
     <row r="52" ht="16.5" spans="1:7">
-      <c r="A52" s="39"/>
-      <c r="B52" s="37" t="s">
+      <c r="A52" s="30"/>
+      <c r="B52" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="C52" s="49" t="s">
+      <c r="C52" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D52" s="19"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="40">
+      <c r="D52" s="31"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="32">
         <v>8</v>
       </c>
-      <c r="G52" s="19"/>
+      <c r="G52" s="31"/>
     </row>
     <row r="53" ht="16.5" spans="1:7">
-      <c r="A53" s="39"/>
-      <c r="B53" s="13" t="s">
+      <c r="A53" s="30"/>
+      <c r="B53" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="C53" s="18" t="s">
+      <c r="C53" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D53" s="19"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="40">
+      <c r="D53" s="31"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="32">
         <v>9</v>
       </c>
-      <c r="G53" s="19"/>
+      <c r="G53" s="31"/>
     </row>
     <row r="54" ht="17.25" spans="1:7">
-      <c r="A54" s="41"/>
-      <c r="B54" s="27"/>
-      <c r="C54" s="28"/>
-      <c r="D54" s="24"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="50">
+      <c r="A54" s="34"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="44"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="45">
         <v>10</v>
       </c>
-      <c r="G54" s="24"/>
+      <c r="G54" s="44"/>
     </row>
     <row r="55" ht="17.25" spans="1:7">
-      <c r="A55" s="31"/>
-      <c r="B55" s="32" t="s">
+      <c r="A55" s="19"/>
+      <c r="B55" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C55" s="33"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="33"/>
-      <c r="F55" s="33"/>
-      <c r="G55" s="51"/>
+      <c r="C55" s="47"/>
+      <c r="D55" s="47"/>
+      <c r="E55" s="47"/>
+      <c r="F55" s="47"/>
+      <c r="G55" s="48"/>
     </row>
     <row r="57" ht="18" spans="1:7">
       <c r="A57" s="2" t="s">
@@ -3016,205 +3100,205 @@
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
-      <c r="E57" s="3"/>
+      <c r="E57" s="20"/>
       <c r="F57" s="2" t="s">
         <v>88</v>
       </c>
       <c r="G57" s="2"/>
     </row>
     <row r="58" ht="21.75" spans="1:7">
-      <c r="A58" s="6"/>
-      <c r="B58" s="7" t="s">
+      <c r="A58" s="21"/>
+      <c r="B58" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="D58" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="8"/>
-      <c r="F58" s="6" t="s">
+      <c r="E58" s="23"/>
+      <c r="F58" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="G58" s="7" t="s">
+      <c r="G58" s="22" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="59" ht="16.5" spans="1:7">
-      <c r="A59" s="36" t="s">
+      <c r="A59" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B59" s="52" t="s">
+      <c r="B59" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="C59" s="14" t="s">
+      <c r="C59" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="D59" s="37" t="s">
+      <c r="D59" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="E59" s="20"/>
-      <c r="F59" s="38">
+      <c r="E59" s="28"/>
+      <c r="F59" s="29">
         <v>1</v>
       </c>
-      <c r="G59" s="70" t="s">
+      <c r="G59" s="86" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="60" ht="16.5" spans="1:7">
-      <c r="A60" s="39"/>
-      <c r="B60" s="13" t="s">
+      <c r="A60" s="30"/>
+      <c r="B60" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="C60" s="18" t="s">
+      <c r="C60" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D60" s="19"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="40">
+      <c r="D60" s="31"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="32">
         <v>2</v>
       </c>
-      <c r="G60" s="72" t="s">
+      <c r="G60" s="88" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="61" ht="16.5" spans="1:7">
-      <c r="A61" s="39"/>
-      <c r="B61" s="13" t="s">
+      <c r="A61" s="30"/>
+      <c r="B61" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="C61" s="18" t="s">
+      <c r="C61" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="D61" s="19"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="40">
+      <c r="D61" s="31"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="32">
         <v>3</v>
       </c>
-      <c r="G61" s="72" t="s">
+      <c r="G61" s="88" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="62" ht="17.25" spans="1:7">
-      <c r="A62" s="41"/>
-      <c r="B62" s="42"/>
-      <c r="C62" s="43"/>
-      <c r="D62" s="44"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="40">
+      <c r="A62" s="34"/>
+      <c r="B62" s="35"/>
+      <c r="C62" s="36"/>
+      <c r="D62" s="37"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="32">
         <v>4</v>
       </c>
-      <c r="G62" s="72" t="s">
+      <c r="G62" s="88" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="63" ht="17.25" spans="1:7">
-      <c r="A63" s="45"/>
-      <c r="B63" s="46"/>
-      <c r="C63" s="47"/>
-      <c r="D63" s="48"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="40">
+      <c r="A63" s="38"/>
+      <c r="B63" s="39"/>
+      <c r="C63" s="40"/>
+      <c r="D63" s="41"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="32">
         <v>5</v>
       </c>
-      <c r="G63" s="72" t="s">
+      <c r="G63" s="88" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="64" ht="16.5" spans="1:7">
-      <c r="A64" s="36" t="s">
+      <c r="A64" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B64" s="13" t="s">
+      <c r="B64" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="C64" s="18" t="s">
+      <c r="C64" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D64" s="19"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="40">
+      <c r="D64" s="31"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="32">
         <v>6</v>
       </c>
-      <c r="G64" s="72" t="s">
+      <c r="G64" s="88" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="65" ht="16.5" spans="1:7">
-      <c r="A65" s="39"/>
-      <c r="B65" s="13" t="s">
+      <c r="A65" s="30"/>
+      <c r="B65" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="C65" s="49" t="s">
+      <c r="C65" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D65" s="19"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="40">
+      <c r="D65" s="31"/>
+      <c r="E65" s="28"/>
+      <c r="F65" s="32">
         <v>7</v>
       </c>
-      <c r="G65" s="72" t="s">
+      <c r="G65" s="88" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="66" ht="16.5" spans="1:7">
-      <c r="A66" s="39"/>
-      <c r="B66" s="13" t="s">
+      <c r="A66" s="30"/>
+      <c r="B66" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="C66" s="18" t="s">
+      <c r="C66" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D66" s="19"/>
-      <c r="E66" s="20"/>
-      <c r="F66" s="40">
+      <c r="D66" s="31"/>
+      <c r="E66" s="28"/>
+      <c r="F66" s="32">
         <v>8</v>
       </c>
-      <c r="G66" s="72" t="s">
+      <c r="G66" s="88" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="67" ht="16.5" spans="1:7">
-      <c r="A67" s="39"/>
-      <c r="B67" s="13" t="s">
+      <c r="A67" s="30"/>
+      <c r="B67" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C67" s="18" t="s">
+      <c r="C67" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D67" s="19"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="40">
+      <c r="D67" s="31"/>
+      <c r="E67" s="28"/>
+      <c r="F67" s="32">
         <v>9</v>
       </c>
-      <c r="G67" s="72"/>
+      <c r="G67" s="88"/>
     </row>
     <row r="68" ht="17.25" spans="1:7">
-      <c r="A68" s="41"/>
-      <c r="B68" s="27" t="s">
+      <c r="A68" s="34"/>
+      <c r="B68" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="C68" s="28" t="s">
+      <c r="C68" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="D68" s="24"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="50">
+      <c r="D68" s="44"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="45">
         <v>10</v>
       </c>
-      <c r="G68" s="74"/>
+      <c r="G68" s="90"/>
     </row>
     <row r="69" ht="17.25" spans="1:7">
-      <c r="A69" s="31"/>
-      <c r="B69" s="32" t="s">
+      <c r="A69" s="19"/>
+      <c r="B69" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C69" s="33"/>
-      <c r="D69" s="33"/>
-      <c r="E69" s="33"/>
-      <c r="F69" s="33"/>
-      <c r="G69" s="51"/>
+      <c r="C69" s="47"/>
+      <c r="D69" s="47"/>
+      <c r="E69" s="47"/>
+      <c r="F69" s="47"/>
+      <c r="G69" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="25">
@@ -3255,8 +3339,8 @@
   <sheetPr/>
   <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D93" sqref="D93"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="J92" sqref="J92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
@@ -3267,7 +3351,7 @@
     <col min="4" max="4" width="28.625" customWidth="1"/>
     <col min="5" max="6" width="5.625" customWidth="1"/>
     <col min="7" max="7" width="30.625" customWidth="1"/>
-    <col min="8" max="8" width="40.625" style="31" customWidth="1"/>
+    <col min="8" max="8" width="40.625" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" spans="1:7">
@@ -3277,207 +3361,207 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
+      <c r="E1" s="20"/>
       <c r="F1" s="2" t="s">
         <v>101</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" ht="21.75" spans="1:7">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="21"/>
+      <c r="B2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="6" t="s">
+      <c r="E2" s="23"/>
+      <c r="F2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="22" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="38">
+      <c r="D3" s="27"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="29">
         <v>1</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="27" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="4" ht="66" spans="1:7">
-      <c r="A4" s="39"/>
-      <c r="B4" s="13" t="s">
+      <c r="A4" s="30"/>
+      <c r="B4" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="40">
+      <c r="E4" s="28"/>
+      <c r="F4" s="32">
         <v>2</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="33" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="39"/>
-      <c r="B5" s="13" t="s">
+      <c r="A5" s="30"/>
+      <c r="B5" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="40">
+      <c r="E5" s="28"/>
+      <c r="F5" s="32">
         <v>3</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="33" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="6" ht="17.25" spans="1:7">
-      <c r="A6" s="41"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="40">
+      <c r="A6" s="34"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="32">
         <v>4</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="33" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="7" ht="17.25" spans="1:7">
-      <c r="A7" s="45"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="40">
+      <c r="A7" s="38"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="32">
         <v>5</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="33" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" ht="99" spans="1:7">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="40">
+      <c r="D8" s="31"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="32">
         <v>6</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="33" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="9" ht="49.5" spans="1:7">
-      <c r="A9" s="39"/>
-      <c r="B9" s="13" t="s">
+      <c r="A9" s="30"/>
+      <c r="B9" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="40">
+      <c r="E9" s="28"/>
+      <c r="F9" s="32">
         <v>7</v>
       </c>
-      <c r="G9" s="25"/>
+      <c r="G9" s="33"/>
     </row>
     <row r="10" ht="33" spans="1:7">
-      <c r="A10" s="39"/>
-      <c r="B10" s="13" t="s">
+      <c r="A10" s="30"/>
+      <c r="B10" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="40">
+      <c r="E10" s="28"/>
+      <c r="F10" s="32">
         <v>8</v>
       </c>
-      <c r="G10" s="25"/>
+      <c r="G10" s="33"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="39"/>
-      <c r="B11" s="13" t="s">
+      <c r="A11" s="30"/>
+      <c r="B11" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="40">
+      <c r="D11" s="31"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="32">
         <v>9</v>
       </c>
-      <c r="G11" s="25"/>
+      <c r="G11" s="33"/>
     </row>
     <row r="12" ht="33.75" spans="1:7">
-      <c r="A12" s="41"/>
-      <c r="B12" s="27" t="s">
+      <c r="A12" s="34"/>
+      <c r="B12" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="50">
+      <c r="D12" s="44"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="45">
         <v>10</v>
       </c>
-      <c r="G12" s="24"/>
+      <c r="G12" s="44"/>
     </row>
     <row r="13" ht="17.25" spans="1:7">
-      <c r="A13" s="31"/>
-      <c r="B13" s="32" t="s">
+      <c r="A13" s="19"/>
+      <c r="B13" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="51"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="48"/>
     </row>
     <row r="15" ht="18" spans="1:7">
       <c r="A15" s="2" t="s">
@@ -3486,183 +3570,183 @@
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="3"/>
+      <c r="E15" s="20"/>
       <c r="F15" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G15" s="2"/>
     </row>
     <row r="16" ht="21.75" spans="1:7">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7" t="s">
+      <c r="A16" s="21"/>
+      <c r="B16" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="6" t="s">
+      <c r="E16" s="23"/>
+      <c r="F16" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="22" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="D17" s="37"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="38">
+      <c r="D17" s="27"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="29">
         <v>1</v>
       </c>
-      <c r="G17" s="25" t="s">
+      <c r="G17" s="33" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="39"/>
-      <c r="B18" s="13" t="s">
+      <c r="A18" s="30"/>
+      <c r="B18" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="40">
+      <c r="D18" s="31"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="32">
         <v>2</v>
       </c>
-      <c r="G18" s="25" t="s">
+      <c r="G18" s="33" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="39"/>
-      <c r="B19" s="13" t="s">
+      <c r="A19" s="30"/>
+      <c r="B19" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="40">
+      <c r="D19" s="31"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="32">
         <v>3</v>
       </c>
-      <c r="G19" s="25" t="s">
+      <c r="G19" s="33" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="20" ht="17.25" spans="1:7">
-      <c r="A20" s="41"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="40">
+      <c r="A20" s="34"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="32">
         <v>4</v>
       </c>
-      <c r="G20" s="25" t="s">
+      <c r="G20" s="33" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="21" ht="17.25" spans="1:7">
-      <c r="A21" s="45"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="40">
+      <c r="A21" s="38"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="32">
         <v>5</v>
       </c>
-      <c r="G21" s="25" t="s">
+      <c r="G21" s="33" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="22" ht="82.5" spans="1:7">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="E22" s="20"/>
-      <c r="F22" s="40">
+      <c r="E22" s="28"/>
+      <c r="F22" s="32">
         <v>6</v>
       </c>
-      <c r="G22" s="19"/>
+      <c r="G22" s="31"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="39"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="40">
+      <c r="A23" s="30"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="32">
         <v>7</v>
       </c>
-      <c r="G23" s="19"/>
+      <c r="G23" s="31"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="39"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="40">
+      <c r="A24" s="30"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="32">
         <v>8</v>
       </c>
-      <c r="G24" s="19"/>
+      <c r="G24" s="31"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="39"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="40">
+      <c r="A25" s="30"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="32">
         <v>9</v>
       </c>
-      <c r="G25" s="19"/>
+      <c r="G25" s="31"/>
     </row>
     <row r="26" ht="17.25" spans="1:7">
-      <c r="A26" s="41"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="50">
+      <c r="A26" s="34"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="45">
         <v>10</v>
       </c>
-      <c r="G26" s="24"/>
+      <c r="G26" s="44"/>
     </row>
     <row r="27" ht="17.25" spans="1:7">
-      <c r="A27" s="31"/>
-      <c r="B27" s="32" t="s">
+      <c r="A27" s="19"/>
+      <c r="B27" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="51"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="48"/>
     </row>
     <row r="29" ht="18" spans="1:7">
       <c r="A29" s="2" t="s">
@@ -3671,195 +3755,195 @@
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="3"/>
+      <c r="E29" s="20"/>
       <c r="F29" s="2" t="s">
         <v>128</v>
       </c>
       <c r="G29" s="2"/>
     </row>
     <row r="30" ht="21.75" spans="1:7">
-      <c r="A30" s="6"/>
-      <c r="B30" s="7" t="s">
+      <c r="A30" s="21"/>
+      <c r="B30" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="6" t="s">
+      <c r="E30" s="23"/>
+      <c r="F30" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="G30" s="22" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="31" ht="50.25" spans="1:7">
-      <c r="A31" s="36" t="s">
+      <c r="A31" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="52" t="s">
+      <c r="B31" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="D31" s="37"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="38">
+      <c r="D31" s="27"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="29">
         <v>1</v>
       </c>
-      <c r="G31" s="37" t="s">
+      <c r="G31" s="27" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="39"/>
-      <c r="B32" s="52" t="s">
+      <c r="A32" s="30"/>
+      <c r="B32" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="D32" s="19"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="40">
+      <c r="D32" s="31"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="32">
         <v>2</v>
       </c>
-      <c r="G32" s="25" t="s">
+      <c r="G32" s="33" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="39"/>
-      <c r="B33" s="13" t="s">
+      <c r="A33" s="30"/>
+      <c r="B33" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="D33" s="19"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="40">
+      <c r="D33" s="31"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="32">
         <v>3</v>
       </c>
-      <c r="G33" s="25" t="s">
+      <c r="G33" s="33" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="34" ht="17.25" spans="1:7">
-      <c r="A34" s="41"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="40">
+      <c r="A34" s="34"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="32">
         <v>4</v>
       </c>
-      <c r="G34" s="25" t="s">
+      <c r="G34" s="33" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="35" ht="17.25" spans="1:7">
-      <c r="A35" s="45"/>
-      <c r="B35" s="46"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="40">
+      <c r="A35" s="38"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="32">
         <v>5</v>
       </c>
-      <c r="G35" s="25" t="s">
+      <c r="G35" s="33" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="36" ht="17.25" spans="1:7">
-      <c r="A36" s="36" t="s">
+      <c r="A36" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="42" t="s">
+      <c r="B36" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="C36" s="43" t="s">
+      <c r="C36" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="D36" s="19"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="40">
+      <c r="D36" s="31"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="32">
         <v>6</v>
       </c>
-      <c r="G36" s="25" t="s">
+      <c r="G36" s="33" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="37" ht="33" spans="1:7">
-      <c r="A37" s="39"/>
-      <c r="B37" s="13" t="s">
+      <c r="A37" s="30"/>
+      <c r="B37" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="C37" s="49" t="s">
+      <c r="C37" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="D37" s="19"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="40">
+      <c r="D37" s="31"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="32">
         <v>7</v>
       </c>
-      <c r="G37" s="19"/>
+      <c r="G37" s="31"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="39"/>
-      <c r="B38" s="13" t="s">
+      <c r="A38" s="30"/>
+      <c r="B38" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="D38" s="19"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="40">
+      <c r="D38" s="31"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="32">
         <v>8</v>
       </c>
-      <c r="G38" s="19"/>
+      <c r="G38" s="31"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="39"/>
-      <c r="B39" s="13" t="s">
+      <c r="A39" s="30"/>
+      <c r="B39" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="C39" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="D39" s="19"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="40">
+      <c r="D39" s="31"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="32">
         <v>9</v>
       </c>
-      <c r="G39" s="19"/>
+      <c r="G39" s="31"/>
     </row>
     <row r="40" ht="17.25" spans="1:7">
-      <c r="A40" s="41"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="50">
+      <c r="A40" s="34"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="45">
         <v>10</v>
       </c>
-      <c r="G40" s="24"/>
+      <c r="G40" s="44"/>
     </row>
     <row r="41" ht="17.25" spans="1:7">
-      <c r="A41" s="31"/>
-      <c r="B41" s="32" t="s">
+      <c r="A41" s="19"/>
+      <c r="B41" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="51"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="48"/>
     </row>
     <row r="43" ht="18" spans="1:8">
       <c r="A43" s="2" t="s">
@@ -3868,214 +3952,214 @@
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="3"/>
+      <c r="E43" s="20"/>
       <c r="F43" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="G43" s="4"/>
-      <c r="H43" s="53" t="s">
+      <c r="G43" s="50"/>
+      <c r="H43" s="51" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="44" ht="21.75" spans="1:8">
-      <c r="A44" s="6"/>
-      <c r="B44" s="7" t="s">
+      <c r="A44" s="21"/>
+      <c r="B44" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E44" s="8"/>
-      <c r="F44" s="6" t="s">
+      <c r="E44" s="23"/>
+      <c r="F44" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="G44" s="10" t="s">
+      <c r="G44" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="H44" s="54"/>
+      <c r="H44" s="53"/>
     </row>
     <row r="45" ht="49.5" spans="1:8">
-      <c r="A45" s="36" t="s">
+      <c r="A45" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B45" s="52" t="s">
+      <c r="B45" s="49" t="s">
         <v>138</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C45" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="D45" s="37"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="38">
+      <c r="D45" s="27"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="29">
         <v>1</v>
       </c>
-      <c r="G45" s="37" t="s">
+      <c r="G45" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="H45" s="54"/>
+      <c r="H45" s="53"/>
     </row>
     <row r="46" ht="33" spans="1:8">
-      <c r="A46" s="39"/>
-      <c r="B46" s="13" t="s">
+      <c r="A46" s="30"/>
+      <c r="B46" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="C46" s="18" t="s">
+      <c r="C46" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="D46" s="19"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="40">
+      <c r="D46" s="31"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="32">
         <v>2</v>
       </c>
-      <c r="G46" s="25" t="s">
+      <c r="G46" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="H46" s="54"/>
+      <c r="H46" s="53"/>
     </row>
     <row r="47" ht="33" spans="1:8">
-      <c r="A47" s="39"/>
-      <c r="B47" s="13" t="s">
+      <c r="A47" s="30"/>
+      <c r="B47" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="C47" s="18" t="s">
+      <c r="C47" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="D47" s="19"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="40">
+      <c r="D47" s="31"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="32">
         <v>3</v>
       </c>
-      <c r="G47" s="25" t="s">
+      <c r="G47" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="H47" s="54"/>
+      <c r="H47" s="53"/>
     </row>
     <row r="48" ht="17.25" spans="1:8">
-      <c r="A48" s="41"/>
-      <c r="B48" s="42"/>
-      <c r="C48" s="43"/>
-      <c r="D48" s="44"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="40">
+      <c r="A48" s="34"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="32">
         <v>4</v>
       </c>
-      <c r="G48" s="25" t="s">
+      <c r="G48" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="H48" s="54"/>
+      <c r="H48" s="53"/>
     </row>
     <row r="49" ht="17.25" spans="1:8">
-      <c r="A49" s="45"/>
-      <c r="B49" s="46"/>
-      <c r="C49" s="47"/>
-      <c r="D49" s="48"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="40">
+      <c r="A49" s="38"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="32">
         <v>5</v>
       </c>
-      <c r="G49" s="25" t="s">
+      <c r="G49" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="H49" s="54"/>
+      <c r="H49" s="53"/>
     </row>
     <row r="50" ht="33" spans="1:8">
-      <c r="A50" s="36" t="s">
+      <c r="A50" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="C50" s="18" t="s">
+      <c r="C50" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="D50" s="19" t="s">
+      <c r="D50" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="E50" s="20"/>
-      <c r="F50" s="40">
+      <c r="E50" s="28"/>
+      <c r="F50" s="32">
         <v>6</v>
       </c>
-      <c r="G50" s="25" t="s">
+      <c r="G50" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="H50" s="54"/>
+      <c r="H50" s="53"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="39"/>
-      <c r="B51" s="13" t="s">
+      <c r="A51" s="30"/>
+      <c r="B51" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="C51" s="49" t="s">
+      <c r="C51" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D51" s="19" t="s">
+      <c r="D51" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="E51" s="20"/>
-      <c r="F51" s="40">
+      <c r="E51" s="28"/>
+      <c r="F51" s="32">
         <v>7</v>
       </c>
-      <c r="G51" s="21"/>
-      <c r="H51" s="54"/>
+      <c r="G51" s="54"/>
+      <c r="H51" s="53"/>
     </row>
     <row r="52" ht="49.5" spans="1:8">
-      <c r="A52" s="39"/>
-      <c r="B52" s="13" t="s">
+      <c r="A52" s="30"/>
+      <c r="B52" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="C52" s="18" t="s">
+      <c r="C52" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="D52" s="19"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="40">
+      <c r="D52" s="31"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="32">
         <v>8</v>
       </c>
-      <c r="G52" s="21"/>
-      <c r="H52" s="54"/>
+      <c r="G52" s="54"/>
+      <c r="H52" s="53"/>
     </row>
     <row r="53" ht="33" spans="1:8">
-      <c r="A53" s="39"/>
-      <c r="B53" s="13" t="s">
+      <c r="A53" s="30"/>
+      <c r="B53" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="C53" s="18" t="s">
+      <c r="C53" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="D53" s="19"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="40">
+      <c r="D53" s="31"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="32">
         <v>9</v>
       </c>
-      <c r="G53" s="21"/>
-      <c r="H53" s="54"/>
+      <c r="G53" s="54"/>
+      <c r="H53" s="53"/>
     </row>
     <row r="54" ht="17.25" spans="1:8">
-      <c r="A54" s="41"/>
-      <c r="B54" s="27"/>
-      <c r="C54" s="28"/>
-      <c r="D54" s="24"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="50">
+      <c r="A54" s="34"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="44"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="45">
         <v>10</v>
       </c>
-      <c r="G54" s="30"/>
-      <c r="H54" s="54"/>
+      <c r="G54" s="55"/>
+      <c r="H54" s="53"/>
     </row>
     <row r="55" ht="17.25" spans="1:8">
-      <c r="A55" s="31"/>
-      <c r="B55" s="32" t="s">
+      <c r="A55" s="19"/>
+      <c r="B55" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C55" s="33"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="33"/>
-      <c r="F55" s="33"/>
-      <c r="G55" s="33"/>
-      <c r="H55" s="55"/>
+      <c r="C55" s="47"/>
+      <c r="D55" s="47"/>
+      <c r="E55" s="47"/>
+      <c r="F55" s="47"/>
+      <c r="G55" s="47"/>
+      <c r="H55" s="56"/>
     </row>
     <row r="57" ht="18.75" spans="1:8">
       <c r="A57" s="2" t="s">
@@ -4084,254 +4168,254 @@
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
-      <c r="E57" s="3"/>
+      <c r="E57" s="20"/>
       <c r="F57" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="G57" s="4"/>
-      <c r="H57" s="56" t="s">
+      <c r="G57" s="50"/>
+      <c r="H57" s="57" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="58" ht="21.75" spans="1:8">
-      <c r="A58" s="6"/>
-      <c r="B58" s="7" t="s">
+      <c r="A58" s="21"/>
+      <c r="B58" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="D58" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="7"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="10" t="s">
+      <c r="E58" s="22"/>
+      <c r="F58" s="58"/>
+      <c r="G58" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="H58" s="57"/>
+      <c r="H58" s="59"/>
     </row>
     <row r="59" ht="51" spans="1:8">
-      <c r="A59" s="12">
+      <c r="A59" s="60">
         <v>1</v>
       </c>
-      <c r="B59" s="58" t="s">
+      <c r="B59" s="61" t="s">
         <v>145</v>
       </c>
-      <c r="C59" s="59" t="s">
+      <c r="C59" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="D59" s="15" t="s">
+      <c r="D59" s="63" t="s">
         <v>152</v>
       </c>
-      <c r="E59" s="60"/>
-      <c r="F59" s="12">
+      <c r="E59" s="64"/>
+      <c r="F59" s="60">
         <v>1</v>
       </c>
-      <c r="G59" s="61" t="s">
+      <c r="G59" s="65" t="s">
         <v>130</v>
       </c>
-      <c r="H59" s="57"/>
+      <c r="H59" s="59"/>
     </row>
     <row r="60" ht="18" spans="1:8">
-      <c r="A60" s="17">
+      <c r="A60" s="66">
         <v>2</v>
       </c>
-      <c r="B60" s="13" t="s">
+      <c r="B60" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="C60" s="18" t="s">
+      <c r="C60" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="D60" s="21" t="s">
+      <c r="D60" s="54" t="s">
         <v>155</v>
       </c>
-      <c r="E60" s="60"/>
-      <c r="F60" s="62">
+      <c r="E60" s="64"/>
+      <c r="F60" s="67">
         <v>2</v>
       </c>
-      <c r="G60" s="63" t="s">
+      <c r="G60" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="H60" s="57"/>
+      <c r="H60" s="59"/>
     </row>
     <row r="61" ht="34.5" spans="1:8">
-      <c r="A61" s="17">
+      <c r="A61" s="66">
         <v>3</v>
       </c>
-      <c r="B61" s="22" t="s">
+      <c r="B61" s="69" t="s">
         <v>156</v>
       </c>
-      <c r="C61" s="18" t="s">
+      <c r="C61" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D61" s="63" t="s">
+      <c r="D61" s="68" t="s">
         <v>152</v>
       </c>
-      <c r="E61" s="60"/>
-      <c r="F61" s="62">
+      <c r="E61" s="64"/>
+      <c r="F61" s="67">
         <v>3</v>
       </c>
-      <c r="G61" s="63" t="s">
+      <c r="G61" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="H61" s="57"/>
+      <c r="H61" s="59"/>
     </row>
     <row r="62" ht="18" spans="1:8">
-      <c r="A62" s="23">
+      <c r="A62" s="70">
         <v>4</v>
       </c>
-      <c r="B62" s="22" t="s">
+      <c r="B62" s="69" t="s">
         <v>157</v>
       </c>
-      <c r="C62" s="18" t="s">
+      <c r="C62" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D62" s="64" t="s">
+      <c r="D62" s="71" t="s">
         <v>158</v>
       </c>
-      <c r="E62" s="60"/>
-      <c r="F62" s="62">
+      <c r="E62" s="64"/>
+      <c r="F62" s="67">
         <v>4</v>
       </c>
-      <c r="G62" s="63" t="s">
+      <c r="G62" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="H62" s="57"/>
+      <c r="H62" s="59"/>
     </row>
     <row r="63" ht="18" spans="1:8">
-      <c r="A63" s="23">
+      <c r="A63" s="70">
         <v>5</v>
       </c>
-      <c r="B63" s="22" t="s">
+      <c r="B63" s="69" t="s">
         <v>159</v>
       </c>
-      <c r="C63" s="18" t="s">
+      <c r="C63" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="D63" s="63" t="s">
+      <c r="D63" s="68" t="s">
         <v>160</v>
       </c>
-      <c r="E63" s="60"/>
-      <c r="F63" s="62">
+      <c r="E63" s="64"/>
+      <c r="F63" s="67">
         <v>5</v>
       </c>
-      <c r="G63" s="63" t="s">
+      <c r="G63" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="H63" s="57"/>
+      <c r="H63" s="59"/>
     </row>
     <row r="64" ht="18" spans="1:8">
-      <c r="A64" s="23">
+      <c r="A64" s="70">
         <v>6</v>
       </c>
-      <c r="B64" s="22" t="s">
+      <c r="B64" s="69" t="s">
         <v>161</v>
       </c>
-      <c r="C64" s="18" t="s">
+      <c r="C64" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D64" s="63" t="s">
+      <c r="D64" s="68" t="s">
         <v>162</v>
       </c>
-      <c r="E64" s="60"/>
-      <c r="F64" s="62">
+      <c r="E64" s="64"/>
+      <c r="F64" s="67">
         <v>6</v>
       </c>
-      <c r="G64" s="63" t="s">
+      <c r="G64" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="H64" s="57"/>
+      <c r="H64" s="59"/>
     </row>
     <row r="65" ht="34.5" spans="1:8">
-      <c r="A65" s="17">
+      <c r="A65" s="66">
         <v>7</v>
       </c>
-      <c r="B65" s="13" t="s">
+      <c r="B65" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="C65" s="18" t="s">
+      <c r="C65" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D65" s="63" t="s">
+      <c r="D65" s="68" t="s">
         <v>162</v>
       </c>
-      <c r="E65" s="60"/>
-      <c r="F65" s="62">
+      <c r="E65" s="64"/>
+      <c r="F65" s="67">
         <v>7</v>
       </c>
-      <c r="G65" s="21"/>
-      <c r="H65" s="57"/>
+      <c r="G65" s="54"/>
+      <c r="H65" s="59"/>
     </row>
     <row r="66" ht="18" spans="1:8">
-      <c r="A66" s="17">
+      <c r="A66" s="66">
         <v>8</v>
       </c>
-      <c r="B66" s="22" t="s">
+      <c r="B66" s="69" t="s">
         <v>163</v>
       </c>
-      <c r="C66" s="18" t="s">
+      <c r="C66" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="D66" s="21" t="s">
+      <c r="D66" s="54" t="s">
         <v>165</v>
       </c>
-      <c r="E66" s="60"/>
-      <c r="F66" s="62">
+      <c r="E66" s="64"/>
+      <c r="F66" s="67">
         <v>8</v>
       </c>
-      <c r="G66" s="21"/>
-      <c r="H66" s="57"/>
+      <c r="G66" s="54"/>
+      <c r="H66" s="59"/>
     </row>
     <row r="67" ht="18" spans="1:8">
-      <c r="A67" s="17">
+      <c r="A67" s="66">
         <v>9</v>
       </c>
-      <c r="B67" s="13" t="s">
+      <c r="B67" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="C67" s="18" t="s">
+      <c r="C67" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D67" s="21" t="s">
+      <c r="D67" s="54" t="s">
         <v>167</v>
       </c>
-      <c r="E67" s="60"/>
-      <c r="F67" s="62">
+      <c r="E67" s="64"/>
+      <c r="F67" s="67">
         <v>9</v>
       </c>
-      <c r="G67" s="21"/>
-      <c r="H67" s="57"/>
+      <c r="G67" s="54"/>
+      <c r="H67" s="59"/>
     </row>
     <row r="68" ht="18" spans="1:8">
-      <c r="A68" s="17">
+      <c r="A68" s="66">
         <v>10</v>
       </c>
-      <c r="B68" s="27" t="s">
+      <c r="B68" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="C68" s="28" t="s">
+      <c r="C68" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="D68" s="30"/>
-      <c r="E68" s="60"/>
-      <c r="F68" s="65">
+      <c r="D68" s="55"/>
+      <c r="E68" s="64"/>
+      <c r="F68" s="72">
         <v>10</v>
       </c>
-      <c r="G68" s="30"/>
-      <c r="H68" s="57"/>
+      <c r="G68" s="55"/>
+      <c r="H68" s="59"/>
     </row>
     <row r="69" ht="17.25" spans="1:8">
-      <c r="A69" s="31"/>
-      <c r="B69" s="32" t="s">
+      <c r="A69" s="19"/>
+      <c r="B69" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C69" s="33"/>
-      <c r="D69" s="33"/>
-      <c r="E69" s="33"/>
-      <c r="F69" s="34"/>
-      <c r="G69" s="33"/>
-      <c r="H69" s="66"/>
+      <c r="C69" s="47"/>
+      <c r="D69" s="47"/>
+      <c r="E69" s="47"/>
+      <c r="F69" s="73"/>
+      <c r="G69" s="47"/>
+      <c r="H69" s="74"/>
     </row>
     <row r="70" ht="17.25"/>
     <row r="71" ht="18.75" spans="1:8">
@@ -4341,229 +4425,228 @@
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
-      <c r="E71" s="3"/>
+      <c r="E71" s="20"/>
       <c r="F71" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="G71" s="4"/>
-      <c r="H71" s="5" t="s">
+      <c r="G71" s="50"/>
+      <c r="H71" s="75" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="72" ht="21.75" spans="1:8">
-      <c r="A72" s="6"/>
-      <c r="B72" s="7" t="s">
+      <c r="A72" s="21"/>
+      <c r="B72" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C72" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D72" s="7" t="s">
+      <c r="D72" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E72" s="8"/>
-      <c r="F72" s="9" t="s">
+      <c r="E72" s="23"/>
+      <c r="F72" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="G72" s="10" t="s">
+      <c r="G72" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="H72" s="11"/>
+      <c r="H72" s="76"/>
     </row>
     <row r="73" ht="50.25" spans="1:8">
-      <c r="A73" s="12">
+      <c r="A73" s="60">
         <v>1</v>
       </c>
-      <c r="B73" s="13" t="s">
+      <c r="B73" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="C73" s="14" t="s">
+      <c r="C73" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="D73" s="15"/>
-      <c r="E73" s="16"/>
-      <c r="F73" s="12">
+      <c r="D73" s="63"/>
+      <c r="E73" s="77"/>
+      <c r="F73" s="60">
         <v>1</v>
       </c>
-      <c r="G73" s="61" t="s">
+      <c r="G73" s="65" t="s">
         <v>130</v>
       </c>
-      <c r="H73" s="11"/>
+      <c r="H73" s="76"/>
     </row>
     <row r="74" ht="33" spans="1:8">
-      <c r="A74" s="17">
+      <c r="A74" s="66">
         <v>2</v>
       </c>
-      <c r="B74" s="13" t="s">
+      <c r="B74" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="C74" s="18" t="s">
+      <c r="C74" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="D74" s="19"/>
-      <c r="E74" s="20"/>
-      <c r="F74" s="17">
+      <c r="D74" s="31"/>
+      <c r="E74" s="28"/>
+      <c r="F74" s="66">
         <v>2</v>
       </c>
-      <c r="G74" s="63" t="s">
+      <c r="G74" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="H74" s="11"/>
+      <c r="H74" s="76"/>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="17">
+      <c r="A75" s="66">
         <v>3</v>
       </c>
-      <c r="B75" s="13" t="s">
+      <c r="B75" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="C75" s="18" t="s">
+      <c r="C75" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D75" s="19" t="s">
+      <c r="D75" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="E75" s="20"/>
-      <c r="F75" s="17">
+      <c r="E75" s="28"/>
+      <c r="F75" s="66">
         <v>3</v>
       </c>
-      <c r="G75" s="63" t="s">
+      <c r="G75" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="H75" s="11"/>
+      <c r="H75" s="76"/>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="23">
+      <c r="A76" s="70">
         <v>4</v>
       </c>
-      <c r="B76" s="13" t="s">
+      <c r="B76" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="C76" s="18" t="s">
+      <c r="C76" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="D76" s="24"/>
-      <c r="E76" s="20"/>
-      <c r="F76" s="17">
+      <c r="D76" s="44"/>
+      <c r="E76" s="28"/>
+      <c r="F76" s="66">
         <v>4</v>
       </c>
-      <c r="G76" s="63" t="s">
+      <c r="G76" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="H76" s="11"/>
+      <c r="H76" s="76"/>
     </row>
     <row r="77" ht="33" spans="1:8">
-      <c r="A77" s="23">
+      <c r="A77" s="70">
         <v>5</v>
       </c>
-      <c r="B77" s="22" t="s">
+      <c r="B77" s="69" t="s">
         <v>175</v>
       </c>
-      <c r="C77" s="18" t="s">
+      <c r="C77" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="D77" s="25" t="s">
+      <c r="D77" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="E77" s="20"/>
-      <c r="F77" s="17">
+      <c r="E77" s="28"/>
+      <c r="F77" s="66">
         <v>5</v>
       </c>
-      <c r="G77" s="63" t="s">
+      <c r="G77" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="H77" s="11"/>
+      <c r="H77" s="76"/>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="23">
+      <c r="A78" s="70">
         <v>6</v>
       </c>
-      <c r="B78" s="22" t="s">
+      <c r="B78" s="69" t="s">
         <v>161</v>
       </c>
-      <c r="C78" s="18" t="s">
+      <c r="C78" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D78" s="26"/>
-      <c r="E78" s="20"/>
-      <c r="F78" s="17">
+      <c r="D78" s="78"/>
+      <c r="E78" s="28"/>
+      <c r="F78" s="66">
         <v>6</v>
       </c>
-      <c r="G78" s="63" t="s">
+      <c r="G78" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="H78" s="11"/>
+      <c r="H78" s="76"/>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="17">
+      <c r="A79" s="66">
         <v>7</v>
       </c>
-      <c r="B79" s="22"/>
-      <c r="C79" s="18"/>
-      <c r="D79" s="19"/>
-      <c r="E79" s="20"/>
-      <c r="F79" s="17">
+      <c r="B79" s="69"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="31"/>
+      <c r="E79" s="28"/>
+      <c r="F79" s="66">
         <v>7</v>
       </c>
-      <c r="G79" s="21"/>
-      <c r="H79" s="11"/>
+      <c r="G79" s="54"/>
+      <c r="H79" s="76"/>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="17">
+      <c r="A80" s="66">
         <v>8</v>
       </c>
-      <c r="B80" s="13"/>
-      <c r="C80" s="18"/>
-      <c r="D80" s="19"/>
-      <c r="E80" s="20"/>
-      <c r="F80" s="17">
+      <c r="B80" s="25"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="31"/>
+      <c r="E80" s="28"/>
+      <c r="F80" s="66">
         <v>8</v>
       </c>
-      <c r="G80" s="21"/>
-      <c r="H80" s="11"/>
+      <c r="G80" s="54"/>
+      <c r="H80" s="76"/>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="17">
+      <c r="A81" s="66">
         <v>9</v>
       </c>
-      <c r="B81" s="13"/>
-      <c r="C81" s="18"/>
-      <c r="D81" s="19"/>
-      <c r="E81" s="20"/>
-      <c r="F81" s="17">
+      <c r="B81" s="25"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="31"/>
+      <c r="E81" s="28"/>
+      <c r="F81" s="66">
         <v>9</v>
       </c>
-      <c r="G81" s="21"/>
-      <c r="H81" s="11"/>
+      <c r="G81" s="54"/>
+      <c r="H81" s="76"/>
     </row>
     <row r="82" ht="17.25" spans="1:8">
-      <c r="A82" s="17">
+      <c r="A82" s="66">
         <v>10</v>
       </c>
-      <c r="B82" s="27"/>
-      <c r="C82" s="28"/>
-      <c r="D82" s="24"/>
-      <c r="E82" s="20"/>
-      <c r="F82" s="29">
+      <c r="B82" s="42"/>
+      <c r="C82" s="43"/>
+      <c r="D82" s="44"/>
+      <c r="E82" s="28"/>
+      <c r="F82" s="79">
         <v>10</v>
       </c>
-      <c r="G82" s="30"/>
-      <c r="H82" s="11"/>
+      <c r="G82" s="55"/>
+      <c r="H82" s="76"/>
     </row>
     <row r="83" ht="17.25" spans="1:8">
-      <c r="A83" s="31"/>
-      <c r="B83" s="32" t="s">
+      <c r="A83" s="19"/>
+      <c r="B83" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C83" s="33"/>
-      <c r="D83" s="33"/>
-      <c r="E83" s="33"/>
-      <c r="F83" s="34"/>
-      <c r="G83" s="33"/>
-      <c r="H83" s="35"/>
-    </row>
-    <row r="84" ht="17.25"/>
-    <row r="85" ht="18.75" spans="1:8">
+      <c r="C83" s="47"/>
+      <c r="D83" s="47"/>
+      <c r="E83" s="47"/>
+      <c r="F83" s="73"/>
+      <c r="G83" s="47"/>
+      <c r="H83" s="80"/>
+    </row>
+    <row r="85" ht="18" spans="1:8">
       <c r="A85" s="2" t="s">
         <v>177</v>
       </c>
@@ -4574,222 +4657,246 @@
       <c r="F85" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="G85" s="4"/>
-      <c r="H85" s="5" t="s">
+      <c r="G85" s="2"/>
+      <c r="H85" s="4" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="86" ht="21.75" spans="1:8">
-      <c r="A86" s="6"/>
-      <c r="B86" s="7" t="s">
+    <row r="86" ht="21" spans="1:8">
+      <c r="A86" s="5"/>
+      <c r="B86" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C86" s="7" t="s">
+      <c r="C86" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D86" s="7" t="s">
+      <c r="D86" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E86" s="8"/>
-      <c r="F86" s="9" t="s">
+      <c r="E86" s="7"/>
+      <c r="F86" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G86" s="10" t="s">
+      <c r="G86" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H86" s="11"/>
-    </row>
-    <row r="87" ht="50.25" spans="1:8">
-      <c r="A87" s="12">
+      <c r="H86" s="9"/>
+    </row>
+    <row r="87" ht="49.5" spans="1:8">
+      <c r="A87" s="10">
         <v>1</v>
       </c>
-      <c r="B87" s="13" t="s">
+      <c r="B87" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="C87" s="18" t="s">
+      <c r="C87" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="D87" s="19" t="s">
+      <c r="D87" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="E87" s="16"/>
-      <c r="F87" s="12">
+      <c r="E87" s="13"/>
+      <c r="F87" s="10">
         <v>1</v>
       </c>
-      <c r="G87" s="61" t="s">
+      <c r="G87" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="H87" s="11"/>
+      <c r="H87" s="9"/>
     </row>
     <row r="88" spans="1:8">
-      <c r="A88" s="17">
+      <c r="A88" s="10">
         <v>2</v>
       </c>
-      <c r="B88" s="22" t="s">
+      <c r="B88" s="81" t="s">
         <v>161</v>
       </c>
-      <c r="C88" s="18" t="s">
+      <c r="C88" s="82" t="s">
         <v>67</v>
       </c>
-      <c r="D88" s="19"/>
-      <c r="E88" s="20"/>
-      <c r="F88" s="17">
+      <c r="D88" s="11"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="10">
         <v>2</v>
       </c>
-      <c r="G88" s="63" t="s">
+      <c r="G88" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="H88" s="11"/>
+      <c r="H88" s="9"/>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="17">
+      <c r="A89" s="10">
         <v>3</v>
       </c>
-      <c r="B89" s="22" t="s">
+      <c r="B89" s="81" t="s">
         <v>180</v>
       </c>
-      <c r="C89" s="18"/>
-      <c r="D89" s="19" t="s">
+      <c r="C89" s="82"/>
+      <c r="D89" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="E89" s="20"/>
-      <c r="F89" s="17">
+      <c r="E89" s="14"/>
+      <c r="F89" s="10">
         <v>3</v>
       </c>
-      <c r="G89" s="63" t="s">
+      <c r="G89" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="H89" s="11"/>
+      <c r="H89" s="9"/>
     </row>
     <row r="90" spans="1:8">
-      <c r="A90" s="23">
+      <c r="A90" s="10">
         <v>4</v>
       </c>
-      <c r="B90" s="22" t="s">
+      <c r="B90" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="C90" s="18" t="s">
+      <c r="C90" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="D90" s="24"/>
-      <c r="E90" s="20"/>
-      <c r="F90" s="17">
+      <c r="D90" s="11"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="10">
         <v>4</v>
       </c>
-      <c r="G90" s="63" t="s">
+      <c r="G90" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="H90" s="11"/>
+      <c r="H90" s="9"/>
     </row>
     <row r="91" spans="1:8">
-      <c r="A91" s="23">
+      <c r="A91" s="10">
         <v>5</v>
       </c>
-      <c r="B91" s="22" t="s">
+      <c r="B91" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="C91" s="18"/>
-      <c r="D91" s="25"/>
-      <c r="E91" s="20"/>
-      <c r="F91" s="17">
+      <c r="C91" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D91" s="15"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="10">
         <v>5</v>
       </c>
-      <c r="G91" s="63" t="s">
+      <c r="G91" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="H91" s="11"/>
+      <c r="H91" s="9"/>
     </row>
     <row r="92" ht="33" spans="1:8">
-      <c r="A92" s="23">
+      <c r="A92" s="10">
         <v>6</v>
       </c>
-      <c r="B92" s="22" t="s">
+      <c r="B92" s="81" t="s">
         <v>184</v>
       </c>
-      <c r="C92" s="18"/>
-      <c r="D92" s="26" t="s">
+      <c r="C92" s="81"/>
+      <c r="D92" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="E92" s="20"/>
-      <c r="F92" s="17">
+      <c r="E92" s="14"/>
+      <c r="F92" s="10">
         <v>6</v>
       </c>
-      <c r="G92" s="63" t="s">
+      <c r="G92" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="H92" s="11"/>
-    </row>
-    <row r="93" ht="33" spans="1:8">
-      <c r="A93" s="17">
+      <c r="H92" s="9"/>
+    </row>
+    <row r="93" ht="49.5" spans="1:8">
+      <c r="A93" s="10">
         <v>7</v>
       </c>
-      <c r="B93" s="22" t="s">
+      <c r="B93" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="C93" s="18"/>
-      <c r="D93" s="19" t="s">
+      <c r="C93" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D93" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="E93" s="20"/>
-      <c r="F93" s="17">
+      <c r="E93" s="14"/>
+      <c r="F93" s="10">
         <v>7</v>
       </c>
-      <c r="G93" s="21"/>
-      <c r="H93" s="11"/>
-    </row>
-    <row r="94" spans="1:8">
-      <c r="A94" s="17">
+      <c r="G93" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="H93" s="9"/>
+    </row>
+    <row r="94" ht="33" spans="1:8">
+      <c r="A94" s="10">
         <v>8</v>
       </c>
-      <c r="B94" s="13"/>
-      <c r="C94" s="18"/>
-      <c r="D94" s="19"/>
-      <c r="E94" s="20"/>
-      <c r="F94" s="17">
+      <c r="B94" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D94" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="E94" s="14"/>
+      <c r="F94" s="10">
         <v>8</v>
       </c>
-      <c r="G94" s="21"/>
-      <c r="H94" s="11"/>
-    </row>
-    <row r="95" spans="1:8">
-      <c r="A95" s="17">
+      <c r="G94" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="H94" s="9"/>
+    </row>
+    <row r="95" ht="49.5" spans="1:8">
+      <c r="A95" s="10">
         <v>9</v>
       </c>
-      <c r="B95" s="13"/>
-      <c r="C95" s="18"/>
-      <c r="D95" s="19"/>
-      <c r="E95" s="20"/>
-      <c r="F95" s="17">
+      <c r="B95" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D95" s="11"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="10">
         <v>9</v>
       </c>
-      <c r="G95" s="21"/>
-      <c r="H95" s="11"/>
-    </row>
-    <row r="96" ht="17.25" spans="1:8">
-      <c r="A96" s="17">
+      <c r="G95" s="11"/>
+      <c r="H95" s="9"/>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="10">
         <v>10</v>
       </c>
-      <c r="B96" s="27"/>
-      <c r="C96" s="28"/>
-      <c r="D96" s="24"/>
-      <c r="E96" s="20"/>
-      <c r="F96" s="29">
+      <c r="B96" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D96" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="E96" s="14"/>
+      <c r="F96" s="10">
         <v>10</v>
       </c>
-      <c r="G96" s="30"/>
-      <c r="H96" s="11"/>
-    </row>
-    <row r="97" ht="17.25" spans="1:8">
-      <c r="A97" s="31"/>
-      <c r="B97" s="32" t="s">
+      <c r="G96" s="11"/>
+      <c r="H96" s="9"/>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="16"/>
+      <c r="B97" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C97" s="33"/>
-      <c r="D97" s="33"/>
-      <c r="E97" s="33"/>
-      <c r="F97" s="34"/>
-      <c r="G97" s="33"/>
-      <c r="H97" s="35"/>
+      <c r="C97" s="17"/>
+      <c r="D97" s="17"/>
+      <c r="E97" s="17"/>
+      <c r="F97" s="18"/>
+      <c r="G97" s="17"/>
+      <c r="H97" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="34">
@@ -4840,7 +4947,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:H13"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -4855,191 +4962,191 @@
     <col min="8" max="8" width="43.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:8">
+    <row r="1" ht="18" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
       <c r="F1" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="5"/>
-    </row>
-    <row r="2" ht="21.75" spans="1:8">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" ht="21" spans="1:8">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="9" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="11"/>
-    </row>
-    <row r="3" ht="17.25" spans="1:8">
-      <c r="A3" s="12">
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" ht="16.5" spans="1:8">
+      <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="12">
+      <c r="B3" s="11"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="10">
         <v>1</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" ht="16.5" spans="1:8">
-      <c r="A4" s="17">
+      <c r="A4" s="10">
         <v>2</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="17">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="10">
         <v>2</v>
       </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="9"/>
     </row>
     <row r="5" ht="16.5" spans="1:8">
-      <c r="A5" s="17">
+      <c r="A5" s="10">
         <v>3</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="17">
+      <c r="B5" s="15"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="10">
         <v>3</v>
       </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" ht="16.5" spans="1:8">
-      <c r="A6" s="23">
+      <c r="A6" s="10">
         <v>4</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="17">
+      <c r="B6" s="15"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="10">
         <v>4</v>
       </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" ht="16.5" spans="1:8">
-      <c r="A7" s="23">
+      <c r="A7" s="10">
         <v>5</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="17">
+      <c r="B7" s="15"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="10">
         <v>5</v>
       </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" ht="16.5" spans="1:8">
-      <c r="A8" s="23">
+      <c r="A8" s="10">
         <v>6</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="17">
+      <c r="B8" s="15"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="10">
         <v>6</v>
       </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" ht="16.5" spans="1:8">
-      <c r="A9" s="17">
+      <c r="A9" s="10">
         <v>7</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="17">
+      <c r="B9" s="15"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="10">
         <v>7</v>
       </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" ht="16.5" spans="1:8">
-      <c r="A10" s="17">
+      <c r="A10" s="10">
         <v>8</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="17">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="10">
         <v>8</v>
       </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" ht="16.5" spans="1:8">
-      <c r="A11" s="17">
+      <c r="A11" s="10">
         <v>9</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="17">
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="10">
         <v>9</v>
       </c>
-      <c r="G11" s="21"/>
-      <c r="H11" s="11"/>
-    </row>
-    <row r="12" ht="17.25" spans="1:8">
-      <c r="A12" s="17">
+      <c r="G11" s="11"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" ht="16.5" spans="1:8">
+      <c r="A12" s="10">
         <v>10</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="29">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="10">
         <v>10</v>
       </c>
-      <c r="G12" s="30"/>
-      <c r="H12" s="11"/>
-    </row>
-    <row r="13" ht="17.25" spans="1:8">
-      <c r="A13" s="31"/>
-      <c r="B13" s="32" t="s">
+      <c r="G12" s="11"/>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" ht="16.5" spans="1:8">
+      <c r="A13" s="16"/>
+      <c r="B13" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="35"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="4">
